--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A5928-583D-4667-BFB9-7EA964355A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -374,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">경로 이동 상호작용이 진행 됐을 때 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dateType2(방명록 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,94 +489,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">상황별 필요한 캐릭터 대사, 모션, 표정을 칼럼 형식으로 정리한 시스템 기획서. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물들이 구성을 이루어 스테이지가 되고, 그 스테이지가 모여서 챕터가 된다. 아래 예시 그림 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지 형태가 아닌 경우  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지1 대사 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지2 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지3 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 형식인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지2 대사 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지2 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지3 대사 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지3 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 형태가 아닌 경우에 캐릭터 표정 파일명을 기입한다(파일명:???)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 형태가 아닌 경우에 캐릭터 모션 파일명을 기입한다(파일명:???)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">건물에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 건물에 대한 실제적인 정보와 상호작용에 대한 내용이 포함되어 있다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상황별 필요한 캐릭터 대사, 모션, 표정을 칼럼 형식으로 정리한 시스템 기획서. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물들이 구성을 이루어 스테이지가 되고, 그 스테이지가 모여서 챕터가 된다. 아래 예시 그림 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지 형태가 아닌 경우  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지1 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형식인 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지2 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지3 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형태가 아닌 경우에 캐릭터 표정 파일명을 기입한다(파일명:???)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형태가 아닌 경우에 캐릭터 모션 파일명을 기입한다(파일명:???)</t>
+    <t xml:space="preserve">돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">돌발이벤트가 진행 됐을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,76 +1087,76 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,7 +1466,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>324409</xdr:rowOff>
     </xdr:from>
@@ -1493,8 +1492,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7866529" y="11698380"/>
-          <a:ext cx="1164851" cy="939569"/>
+          <a:off x="8550088" y="11698380"/>
+          <a:ext cx="1310528" cy="939569"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1878,11 +1877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81:S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1892,48 +1891,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="5" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
@@ -2111,7 +2110,7 @@
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2139,813 +2138,829 @@
     </row>
     <row r="49" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
     </row>
     <row r="51" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="G51" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+    </row>
+    <row r="52" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="22" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-    </row>
-    <row r="52" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="22" t="s">
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+    </row>
+    <row r="53" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-    </row>
-    <row r="53" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="22" t="s">
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+    </row>
+    <row r="54" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+    </row>
+    <row r="55" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="G55" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+    </row>
+    <row r="56" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="37"/>
+      <c r="G56" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-    </row>
-    <row r="54" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-    </row>
-    <row r="55" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-    </row>
-    <row r="56" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
     </row>
     <row r="58" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G59" s="34"/>
-      <c r="H59" s="33" t="s">
+      <c r="F59" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="20"/>
+      <c r="H59" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="34"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="20"/>
     </row>
     <row r="60" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E60" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="26" t="s">
+      <c r="G60" s="23"/>
+      <c r="H60" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="28"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="23"/>
     </row>
     <row r="61" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E61" s="30"/>
       <c r="F61" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="18"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="17"/>
     </row>
     <row r="62" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E62" s="30"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="18"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="18"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="17"/>
     </row>
     <row r="63" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E63" s="31"/>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="21"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="28"/>
     </row>
     <row r="64" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E64" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="28"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="23"/>
     </row>
     <row r="65" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E65" s="30"/>
       <c r="F65" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="18"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="17"/>
     </row>
     <row r="66" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E66" s="30"/>
       <c r="F66" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="G66" s="17"/>
       <c r="H66" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="17"/>
     </row>
     <row r="67" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E67" s="30"/>
       <c r="F67" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="18"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="18"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="17"/>
     </row>
     <row r="68" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E68" s="30"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="18"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="18"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="17"/>
     </row>
     <row r="69" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E69" s="30"/>
       <c r="F69" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="G69" s="17"/>
       <c r="H69" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="18"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="17"/>
     </row>
     <row r="70" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E70" s="30"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="18"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="18"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="17"/>
     </row>
     <row r="71" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E71" s="30"/>
       <c r="F71" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="18"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="18"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="17"/>
     </row>
     <row r="72" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E72" s="30"/>
       <c r="F72" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="18"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="17"/>
     </row>
     <row r="73" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E73" s="30"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="18"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="18"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="17"/>
     </row>
     <row r="74" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E74" s="30"/>
       <c r="F74" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="18"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="18"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="17"/>
     </row>
     <row r="75" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E75" s="30"/>
       <c r="F75" s="16"/>
-      <c r="G75" s="18"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="18"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="17"/>
     </row>
     <row r="76" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E76" s="31"/>
-      <c r="F76" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="21"/>
-      <c r="H76" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="21"/>
+      <c r="F76" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76" s="28"/>
+      <c r="H76" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="28"/>
     </row>
     <row r="77" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E77" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="26" t="s">
+      <c r="G77" s="23"/>
+      <c r="H77" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="28"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="23"/>
     </row>
     <row r="78" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E78" s="30"/>
       <c r="F78" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="18"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="18"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="17"/>
     </row>
     <row r="79" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E79" s="30"/>
       <c r="F79" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="18"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="18"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="17"/>
     </row>
     <row r="80" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E80" s="30"/>
       <c r="F80" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="G80" s="17"/>
       <c r="H80" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="18"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="17"/>
     </row>
     <row r="81" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E81" s="31"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="21"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="28"/>
     </row>
     <row r="82" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E82" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="25"/>
-      <c r="H82" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="26"/>
     </row>
     <row r="83" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E83" s="30"/>
       <c r="F83" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="G83" s="17"/>
       <c r="H83" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="17"/>
     </row>
     <row r="84" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E84" s="30"/>
       <c r="F84" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="18"/>
+        <v>130</v>
+      </c>
+      <c r="G84" s="17"/>
       <c r="H84" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="17"/>
     </row>
     <row r="85" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E85" s="30"/>
       <c r="F85" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="G85" s="17"/>
       <c r="H85" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="17"/>
     </row>
     <row r="86" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E86" s="30"/>
       <c r="F86" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="G86" s="17"/>
       <c r="H86" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="17"/>
     </row>
     <row r="87" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E87" s="30"/>
       <c r="F87" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="G87" s="17"/>
       <c r="H87" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="17"/>
     </row>
     <row r="88" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E88" s="31"/>
-      <c r="F88" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="21"/>
+      <c r="F88" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="28"/>
+      <c r="H88" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="28"/>
     </row>
     <row r="89" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C2:U3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="H60:S60"/>
-    <mergeCell ref="H61:S61"/>
-    <mergeCell ref="H62:S62"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F80:G81"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H87:S87"/>
+    <mergeCell ref="H88:S88"/>
+    <mergeCell ref="G50:S50"/>
+    <mergeCell ref="G51:S51"/>
+    <mergeCell ref="G52:S52"/>
+    <mergeCell ref="G53:S53"/>
+    <mergeCell ref="G54:S54"/>
+    <mergeCell ref="G55:S55"/>
+    <mergeCell ref="G56:S56"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="H82:S82"/>
+    <mergeCell ref="H83:S83"/>
+    <mergeCell ref="H84:S84"/>
+    <mergeCell ref="H85:S85"/>
+    <mergeCell ref="H86:S86"/>
+    <mergeCell ref="H75:S75"/>
+    <mergeCell ref="H76:S76"/>
+    <mergeCell ref="H77:S77"/>
+    <mergeCell ref="H78:S78"/>
+    <mergeCell ref="H79:S79"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="H74:S74"/>
+    <mergeCell ref="H63:S63"/>
+    <mergeCell ref="H64:S64"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="H67:S67"/>
+    <mergeCell ref="H68:S68"/>
+    <mergeCell ref="H69:S69"/>
+    <mergeCell ref="H70:S70"/>
+    <mergeCell ref="H71:S71"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="H73:S73"/>
     <mergeCell ref="E82:E88"/>
     <mergeCell ref="E77:E81"/>
     <mergeCell ref="E64:E76"/>
@@ -2962,39 +2977,23 @@
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H74:S74"/>
-    <mergeCell ref="H63:S63"/>
-    <mergeCell ref="H64:S64"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="H67:S67"/>
-    <mergeCell ref="H68:S68"/>
-    <mergeCell ref="H69:S69"/>
-    <mergeCell ref="H70:S70"/>
-    <mergeCell ref="H71:S71"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="H76:S76"/>
-    <mergeCell ref="H77:S77"/>
-    <mergeCell ref="H78:S78"/>
-    <mergeCell ref="H79:S79"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="H87:S87"/>
-    <mergeCell ref="H88:S88"/>
-    <mergeCell ref="G50:S50"/>
-    <mergeCell ref="G51:S51"/>
-    <mergeCell ref="G52:S52"/>
-    <mergeCell ref="G53:S53"/>
-    <mergeCell ref="G54:S54"/>
-    <mergeCell ref="G55:S55"/>
-    <mergeCell ref="G56:S56"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="H82:S82"/>
-    <mergeCell ref="H83:S83"/>
-    <mergeCell ref="H84:S84"/>
-    <mergeCell ref="H85:S85"/>
-    <mergeCell ref="H86:S86"/>
-    <mergeCell ref="H75:S75"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F80:G81"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C2:U3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="H60:S60"/>
+    <mergeCell ref="H61:S61"/>
+    <mergeCell ref="H62:S62"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
@@ -3011,11 +3010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9CF547-B0C0-4D8C-B75B-4BDB70AEDDAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3024,46 +3023,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
@@ -3113,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3214,7 +3213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -3279,13 +3278,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>5</v>
@@ -3303,19 +3302,19 @@
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -3415,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3446,10 +3445,10 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3462,7 +3461,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3512,10 +3511,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -3533,13 +3532,13 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -3555,40 +3554,40 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">호감도, 코인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">스토리모드의 주축인 "챕터"의 핵심 구성 요소. 챕터 해금조건의 가장 중요한 조건이기도 하다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +570,10 @@
   </si>
   <si>
     <t xml:space="preserve">돌발이벤트가 진행 됐을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코인 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,74 +1087,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81:S81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1891,48 +1891,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="C2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="5" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
@@ -2015,12 +2015,12 @@
     </row>
     <row r="12" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
     </row>
     <row r="16" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2040,32 +2040,32 @@
     </row>
     <row r="18" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,42 +2075,42 @@
     </row>
     <row r="25" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2138,796 +2138,853 @@
     </row>
     <row r="49" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
+      <c r="E50" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
     </row>
     <row r="51" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" s="37"/>
-      <c r="G51" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
+      <c r="G51" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
     </row>
     <row r="52" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="37"/>
-      <c r="G52" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
+      <c r="G52" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
     </row>
     <row r="53" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="37"/>
-      <c r="G53" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
+      <c r="G53" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
     </row>
     <row r="54" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="37"/>
-      <c r="G54" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
+      <c r="G54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
     </row>
     <row r="55" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="37"/>
-      <c r="G55" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
+      <c r="G55" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
     </row>
     <row r="56" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="37" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="37"/>
-      <c r="G56" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
+      <c r="G56" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
     </row>
     <row r="58" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E59" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="33"/>
+    </row>
+    <row r="60" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="20"/>
-    </row>
-    <row r="60" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="21" t="s">
+      <c r="G60" s="27"/>
+      <c r="H60" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="27"/>
+    </row>
+    <row r="61" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="29"/>
+      <c r="F61" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="16"/>
+    </row>
+    <row r="62" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="29"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="23"/>
-    </row>
-    <row r="61" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="30"/>
-      <c r="F61" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="17"/>
-    </row>
-    <row r="62" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="30"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="16" t="s">
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="16"/>
+    </row>
+    <row r="63" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="30"/>
+      <c r="F63" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="19"/>
+    </row>
+    <row r="64" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="27"/>
+    </row>
+    <row r="65" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="29"/>
+      <c r="F65" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="17"/>
-    </row>
-    <row r="63" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="31"/>
-      <c r="F63" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="28"/>
-    </row>
-    <row r="64" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="21" t="s">
+      <c r="G65" s="16"/>
+      <c r="H65" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="23"/>
-    </row>
-    <row r="65" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="30"/>
-      <c r="F65" s="16" t="s">
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="16"/>
+    </row>
+    <row r="66" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="29"/>
+      <c r="F66" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="16"/>
+    </row>
+    <row r="67" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="29"/>
+      <c r="F67" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="16"/>
+    </row>
+    <row r="68" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="29"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="16"/>
+    </row>
+    <row r="69" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="29"/>
+      <c r="F69" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="16"/>
+    </row>
+    <row r="70" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="29"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="16"/>
+    </row>
+    <row r="71" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="29"/>
+      <c r="F71" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="16"/>
+    </row>
+    <row r="72" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="29"/>
+      <c r="F72" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="16"/>
+    </row>
+    <row r="73" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="29"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="16"/>
+    </row>
+    <row r="74" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="29"/>
+      <c r="F74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="16"/>
+    </row>
+    <row r="75" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="29"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="16"/>
+    </row>
+    <row r="76" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="30"/>
+      <c r="F76" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="19"/>
+    </row>
+    <row r="77" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="27"/>
+      <c r="H77" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="27"/>
+    </row>
+    <row r="78" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="29"/>
+      <c r="F78" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="16"/>
+    </row>
+    <row r="79" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="29"/>
+      <c r="F79" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="17"/>
-    </row>
-    <row r="66" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="30"/>
-      <c r="F66" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="17"/>
-    </row>
-    <row r="67" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="30"/>
-      <c r="F67" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="16" t="s">
+      <c r="G79" s="16"/>
+      <c r="H79" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="16"/>
+    </row>
+    <row r="80" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="29"/>
+      <c r="F80" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="17"/>
-    </row>
-    <row r="68" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="30"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="17"/>
-    </row>
-    <row r="69" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="30"/>
-      <c r="F69" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="17"/>
-    </row>
-    <row r="70" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="30"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="17"/>
-    </row>
-    <row r="71" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="30"/>
-      <c r="F71" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="17"/>
-    </row>
-    <row r="72" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="30"/>
-      <c r="F72" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="17"/>
-    </row>
-    <row r="73" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="30"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="17"/>
-    </row>
-    <row r="74" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="30"/>
-      <c r="F74" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="17"/>
-    </row>
-    <row r="75" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="30"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="17"/>
-    </row>
-    <row r="76" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="31"/>
-      <c r="F76" s="27" t="s">
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="16"/>
+    </row>
+    <row r="81" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="30"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="19"/>
+    </row>
+    <row r="82" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="28"/>
-    </row>
-    <row r="77" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="23"/>
-    </row>
-    <row r="78" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="30"/>
-      <c r="F78" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="17"/>
-    </row>
-    <row r="79" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="30"/>
-      <c r="F79" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="17"/>
-      <c r="H79" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="17"/>
-    </row>
-    <row r="80" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="30"/>
-      <c r="F80" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="17"/>
-    </row>
-    <row r="81" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="31"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="28"/>
-    </row>
-    <row r="82" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G82" s="26"/>
-      <c r="H82" s="25" t="s">
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="24"/>
+    </row>
+    <row r="83" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="29"/>
+      <c r="F83" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="26"/>
-    </row>
-    <row r="83" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="30"/>
-      <c r="F83" s="16" t="s">
+      <c r="G83" s="16"/>
+      <c r="H83" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="16"/>
+    </row>
+    <row r="84" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="29"/>
+      <c r="F84" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="16"/>
+    </row>
+    <row r="85" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="29"/>
+      <c r="F85" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="16"/>
+    </row>
+    <row r="86" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="29"/>
+      <c r="F86" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="17"/>
-    </row>
-    <row r="84" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="30"/>
-      <c r="F84" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="17"/>
-    </row>
-    <row r="85" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="30"/>
-      <c r="F85" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="17"/>
-    </row>
-    <row r="86" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="30"/>
-      <c r="F86" s="16" t="s">
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="16"/>
+    </row>
+    <row r="87" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="29"/>
+      <c r="F87" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="17"/>
-    </row>
-    <row r="87" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="30"/>
-      <c r="F87" s="16" t="s">
+      <c r="G87" s="16"/>
+      <c r="H87" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="16"/>
+    </row>
+    <row r="88" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="30"/>
+      <c r="F88" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="16" t="s">
+      <c r="G88" s="19"/>
+      <c r="H88" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="17"/>
-    </row>
-    <row r="88" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="31"/>
-      <c r="F88" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="28"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="19"/>
     </row>
     <row r="89" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="C2:U3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="H60:S60"/>
+    <mergeCell ref="H61:S61"/>
+    <mergeCell ref="H62:S62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F80:G81"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="E82:E88"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E64:E76"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F74:G75"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H74:S74"/>
+    <mergeCell ref="H63:S63"/>
+    <mergeCell ref="H64:S64"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="H67:S67"/>
+    <mergeCell ref="H68:S68"/>
+    <mergeCell ref="H69:S69"/>
+    <mergeCell ref="H70:S70"/>
+    <mergeCell ref="H71:S71"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="H76:S76"/>
+    <mergeCell ref="H77:S77"/>
+    <mergeCell ref="H78:S78"/>
+    <mergeCell ref="H79:S79"/>
+    <mergeCell ref="H80:S80"/>
     <mergeCell ref="H87:S87"/>
     <mergeCell ref="H88:S88"/>
     <mergeCell ref="G50:S50"/>
@@ -2944,63 +3001,6 @@
     <mergeCell ref="H85:S85"/>
     <mergeCell ref="H86:S86"/>
     <mergeCell ref="H75:S75"/>
-    <mergeCell ref="H76:S76"/>
-    <mergeCell ref="H77:S77"/>
-    <mergeCell ref="H78:S78"/>
-    <mergeCell ref="H79:S79"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="H74:S74"/>
-    <mergeCell ref="H63:S63"/>
-    <mergeCell ref="H64:S64"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="H67:S67"/>
-    <mergeCell ref="H68:S68"/>
-    <mergeCell ref="H69:S69"/>
-    <mergeCell ref="H70:S70"/>
-    <mergeCell ref="H71:S71"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="E82:E88"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E64:E76"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F74:G75"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F80:G81"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="C2:U3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="H60:S60"/>
-    <mergeCell ref="H61:S61"/>
-    <mergeCell ref="H62:S62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3013,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3023,51 +3023,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="C3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -3088,17 +3088,17 @@
     </row>
     <row r="7" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3149,10 +3149,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -3278,13 +3278,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>5</v>
@@ -3302,16 +3302,16 @@
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -3532,13 +3532,13 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -3554,40 +3554,40 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t xml:space="preserve">VPS 연출 에셋 파일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,34 @@
   </si>
   <si>
     <t xml:space="preserve">돌발이벤트가 진행 됐을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새봄 약국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야 커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호동 432-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호동 432-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,74 +1115,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1880,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81:S81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1891,48 +1919,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="5" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
@@ -2142,151 +2170,151 @@
       </c>
     </row>
     <row r="50" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
     </row>
     <row r="51" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="37" t="s">
         <v>110</v>
       </c>
       <c r="F51" s="37"/>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
     </row>
     <row r="52" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
         <v>111</v>
       </c>
       <c r="F52" s="37"/>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
     </row>
     <row r="53" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E53" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="37"/>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
     </row>
     <row r="54" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="37"/>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
     </row>
     <row r="55" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="37"/>
-      <c r="G55" s="35" t="s">
+      <c r="G55" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
     </row>
     <row r="56" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="37" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="37"/>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
     </row>
     <row r="58" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -2297,629 +2325,629 @@
       <c r="E59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="18" t="s">
+      <c r="G59" s="33"/>
+      <c r="H59" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="20"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="33"/>
     </row>
     <row r="60" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="21" t="s">
+      <c r="G60" s="27"/>
+      <c r="H60" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="23"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="27"/>
     </row>
     <row r="61" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="30"/>
-      <c r="F61" s="16" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="16" t="s">
+      <c r="G61" s="16"/>
+      <c r="H61" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="17"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="16"/>
     </row>
     <row r="62" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="30"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="16" t="s">
+      <c r="E62" s="29"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="17"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="16"/>
     </row>
     <row r="63" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="31"/>
-      <c r="F63" s="27" t="s">
+      <c r="E63" s="30"/>
+      <c r="F63" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="27" t="s">
+      <c r="G63" s="19"/>
+      <c r="H63" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="28"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="19"/>
     </row>
     <row r="64" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="21" t="s">
+      <c r="G64" s="27"/>
+      <c r="H64" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="23"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="27"/>
     </row>
     <row r="65" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="30"/>
-      <c r="F65" s="16" t="s">
+      <c r="E65" s="29"/>
+      <c r="F65" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="16" t="s">
+      <c r="G65" s="16"/>
+      <c r="H65" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="17"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="16"/>
     </row>
     <row r="66" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="30"/>
-      <c r="F66" s="16" t="s">
+      <c r="E66" s="29"/>
+      <c r="F66" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="16" t="s">
+      <c r="G66" s="16"/>
+      <c r="H66" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="17"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="16"/>
     </row>
     <row r="67" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="30"/>
-      <c r="F67" s="16" t="s">
+      <c r="E67" s="29"/>
+      <c r="F67" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="16" t="s">
+      <c r="G67" s="16"/>
+      <c r="H67" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="17"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="16"/>
     </row>
     <row r="68" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="30"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="16" t="s">
+      <c r="E68" s="29"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="17"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="16"/>
     </row>
     <row r="69" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="30"/>
-      <c r="F69" s="16" t="s">
+      <c r="E69" s="29"/>
+      <c r="F69" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="16" t="s">
+      <c r="G69" s="16"/>
+      <c r="H69" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="17"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="16"/>
     </row>
     <row r="70" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="30"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="16" t="s">
+      <c r="E70" s="29"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="17"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="16"/>
     </row>
     <row r="71" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="30"/>
-      <c r="F71" s="16" t="s">
+      <c r="E71" s="29"/>
+      <c r="F71" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="16" t="s">
+      <c r="G71" s="16"/>
+      <c r="H71" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="17"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="16"/>
     </row>
     <row r="72" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="30"/>
-      <c r="F72" s="16" t="s">
+      <c r="E72" s="29"/>
+      <c r="F72" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="16" t="s">
+      <c r="G72" s="16"/>
+      <c r="H72" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="17"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="16"/>
     </row>
     <row r="73" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="30"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="16" t="s">
+      <c r="E73" s="29"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="17"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="16"/>
     </row>
     <row r="74" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="30"/>
-      <c r="F74" s="16" t="s">
+      <c r="E74" s="29"/>
+      <c r="F74" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="16" t="s">
+      <c r="G74" s="16"/>
+      <c r="H74" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="17"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="16"/>
     </row>
     <row r="75" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="30"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="16" t="s">
+      <c r="E75" s="29"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="17"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="16"/>
     </row>
     <row r="76" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="31"/>
-      <c r="F76" s="27" t="s">
+      <c r="E76" s="30"/>
+      <c r="F76" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="27" t="s">
+      <c r="G76" s="19"/>
+      <c r="H76" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="28"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="19"/>
     </row>
     <row r="77" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="21" t="s">
+      <c r="G77" s="27"/>
+      <c r="H77" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="23"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="27"/>
     </row>
     <row r="78" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="30"/>
-      <c r="F78" s="16" t="s">
+      <c r="E78" s="29"/>
+      <c r="F78" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="16" t="s">
+      <c r="G78" s="16"/>
+      <c r="H78" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="17"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="16"/>
     </row>
     <row r="79" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="30"/>
-      <c r="F79" s="16" t="s">
+      <c r="E79" s="29"/>
+      <c r="F79" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="17"/>
-      <c r="H79" s="16" t="s">
+      <c r="G79" s="16"/>
+      <c r="H79" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="17"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="16"/>
     </row>
     <row r="80" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="30"/>
-      <c r="F80" s="16" t="s">
+      <c r="E80" s="29"/>
+      <c r="F80" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="16" t="s">
+      <c r="G80" s="16"/>
+      <c r="H80" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="17"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="16"/>
     </row>
     <row r="81" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="31"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="27" t="s">
+      <c r="E81" s="30"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="28"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="19"/>
     </row>
     <row r="82" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="26"/>
-      <c r="H82" s="25" t="s">
+      <c r="G82" s="24"/>
+      <c r="H82" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="26"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="24"/>
     </row>
     <row r="83" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="30"/>
-      <c r="F83" s="16" t="s">
+      <c r="E83" s="29"/>
+      <c r="F83" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G83" s="17"/>
-      <c r="H83" s="16" t="s">
+      <c r="G83" s="16"/>
+      <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="17"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="16"/>
     </row>
     <row r="84" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="30"/>
-      <c r="F84" s="16" t="s">
+      <c r="E84" s="29"/>
+      <c r="F84" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="16" t="s">
+      <c r="G84" s="16"/>
+      <c r="H84" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="17"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="16"/>
     </row>
     <row r="85" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="30"/>
-      <c r="F85" s="16" t="s">
+      <c r="E85" s="29"/>
+      <c r="F85" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="16" t="s">
+      <c r="G85" s="16"/>
+      <c r="H85" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="17"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="16"/>
     </row>
     <row r="86" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="30"/>
-      <c r="F86" s="16" t="s">
+      <c r="E86" s="29"/>
+      <c r="F86" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="16" t="s">
+      <c r="G86" s="16"/>
+      <c r="H86" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="17"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="16"/>
     </row>
     <row r="87" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="30"/>
-      <c r="F87" s="16" t="s">
+      <c r="E87" s="29"/>
+      <c r="F87" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="17"/>
-      <c r="H87" s="16" t="s">
+      <c r="G87" s="16"/>
+      <c r="H87" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="17"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="16"/>
     </row>
     <row r="88" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="31"/>
-      <c r="F88" s="27" t="s">
+      <c r="E88" s="30"/>
+      <c r="F88" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="28"/>
-      <c r="H88" s="27" t="s">
+      <c r="G88" s="19"/>
+      <c r="H88" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="28"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="19"/>
     </row>
     <row r="89" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="10" t="s">
@@ -2928,6 +2956,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="C2:U3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="H60:S60"/>
+    <mergeCell ref="H61:S61"/>
+    <mergeCell ref="H62:S62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F80:G81"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="E82:E88"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E64:E76"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F74:G75"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H74:S74"/>
+    <mergeCell ref="H63:S63"/>
+    <mergeCell ref="H64:S64"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="H67:S67"/>
+    <mergeCell ref="H68:S68"/>
+    <mergeCell ref="H69:S69"/>
+    <mergeCell ref="H70:S70"/>
+    <mergeCell ref="H71:S71"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="H76:S76"/>
+    <mergeCell ref="H77:S77"/>
+    <mergeCell ref="H78:S78"/>
+    <mergeCell ref="H79:S79"/>
+    <mergeCell ref="H80:S80"/>
     <mergeCell ref="H87:S87"/>
     <mergeCell ref="H88:S88"/>
     <mergeCell ref="G50:S50"/>
@@ -2944,63 +3029,6 @@
     <mergeCell ref="H85:S85"/>
     <mergeCell ref="H86:S86"/>
     <mergeCell ref="H75:S75"/>
-    <mergeCell ref="H76:S76"/>
-    <mergeCell ref="H77:S77"/>
-    <mergeCell ref="H78:S78"/>
-    <mergeCell ref="H79:S79"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="H74:S74"/>
-    <mergeCell ref="H63:S63"/>
-    <mergeCell ref="H64:S64"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="H67:S67"/>
-    <mergeCell ref="H68:S68"/>
-    <mergeCell ref="H69:S69"/>
-    <mergeCell ref="H70:S70"/>
-    <mergeCell ref="H71:S71"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="E82:E88"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E64:E76"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F74:G75"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F80:G81"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="C2:U3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="H60:S60"/>
-    <mergeCell ref="H61:S61"/>
-    <mergeCell ref="H62:S62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3013,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
@@ -3023,46 +3051,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
@@ -3116,7 +3144,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3156,15 +3184,25 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3172,7 +3210,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3180,7 +3220,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3188,7 +3230,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3196,7 +3240,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3209,6 +3255,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3217,15 +3264,15 @@
   <dimension ref="B2:S7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.625" customWidth="1"/>
@@ -3317,11 +3364,21 @@
       <c r="S3" s="37"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37.54</v>
+      </c>
+      <c r="E4" s="2">
+        <v>127.12309999999999</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3337,11 +3394,21 @@
       <c r="S4" s="43"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2">
+        <v>37.540700000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>127.12390000000001</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3357,11 +3424,21 @@
       <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37.540900000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>127.1237</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3418,7 +3495,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3514,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3554,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>130</v>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="150">
   <si>
     <t xml:space="preserve">VPS 연출 에셋 파일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,31 @@
   </si>
   <si>
     <t>서울 특별시 강동구 천호동 432-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하나와 첫 만남. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing_charID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어는 화랑 어린이 공원에서 '하나'를 보고 첫 눈에 반한다. '하나'는 갑작스런 두통으로 플레이어에게 도움을 청한다. '하나'를 도와주자 고맙다며 커피를 사주고 앞으로도 함께 
+어울려줄 수 있냐며 다음을 약속한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,78 +1140,81 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,6 +1238,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1563,7 +1594,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>568513</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>21191</xdr:rowOff>
+      <xdr:rowOff>21192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1908,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:U89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1919,48 +1950,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="5" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
@@ -2170,151 +2201,151 @@
       </c>
     </row>
     <row r="50" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20" t="s">
+      <c r="F50" s="27"/>
+      <c r="G50" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
     </row>
     <row r="51" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="21" t="s">
+      <c r="F51" s="26"/>
+      <c r="G51" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
     </row>
     <row r="52" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="21" t="s">
+      <c r="F52" s="26"/>
+      <c r="G52" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
     </row>
     <row r="53" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="21" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
     </row>
     <row r="54" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="21" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
     </row>
     <row r="55" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="21" t="s">
+      <c r="F55" s="26"/>
+      <c r="G55" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
     </row>
     <row r="56" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="21" t="s">
+      <c r="F56" s="26"/>
+      <c r="G56" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
     </row>
     <row r="58" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -2325,629 +2356,629 @@
       <c r="E59" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="32" t="s">
+      <c r="G59" s="21"/>
+      <c r="H59" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="33"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="21"/>
     </row>
     <row r="60" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="25" t="s">
+      <c r="G60" s="24"/>
+      <c r="H60" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="27"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="24"/>
     </row>
     <row r="61" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="29"/>
-      <c r="F61" s="14" t="s">
+      <c r="E61" s="33"/>
+      <c r="F61" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="14" t="s">
+      <c r="G61" s="18"/>
+      <c r="H61" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="16"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="29"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="14" t="s">
+      <c r="E62" s="33"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="16"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="30"/>
-      <c r="F63" s="17" t="s">
+      <c r="E63" s="34"/>
+      <c r="F63" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="17" t="s">
+      <c r="G63" s="31"/>
+      <c r="H63" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="19"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="31"/>
     </row>
     <row r="64" spans="4:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="25" t="s">
+      <c r="G64" s="24"/>
+      <c r="H64" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="27"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="24"/>
     </row>
     <row r="65" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="29"/>
-      <c r="F65" s="14" t="s">
+      <c r="E65" s="33"/>
+      <c r="F65" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="14" t="s">
+      <c r="G65" s="18"/>
+      <c r="H65" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="16"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="18"/>
     </row>
     <row r="66" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="29"/>
-      <c r="F66" s="14" t="s">
+      <c r="E66" s="33"/>
+      <c r="F66" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="14" t="s">
+      <c r="G66" s="18"/>
+      <c r="H66" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="16"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="18"/>
     </row>
     <row r="67" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="29"/>
-      <c r="F67" s="14" t="s">
+      <c r="E67" s="33"/>
+      <c r="F67" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="14" t="s">
+      <c r="G67" s="18"/>
+      <c r="H67" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="16"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="18"/>
     </row>
     <row r="68" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="29"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="14" t="s">
+      <c r="E68" s="33"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="16"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="18"/>
     </row>
     <row r="69" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="29"/>
-      <c r="F69" s="14" t="s">
+      <c r="E69" s="33"/>
+      <c r="F69" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="14" t="s">
+      <c r="G69" s="18"/>
+      <c r="H69" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="16"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="18"/>
     </row>
     <row r="70" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="29"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="14" t="s">
+      <c r="E70" s="33"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="16"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="18"/>
     </row>
     <row r="71" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="29"/>
-      <c r="F71" s="14" t="s">
+      <c r="E71" s="33"/>
+      <c r="F71" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="14" t="s">
+      <c r="G71" s="18"/>
+      <c r="H71" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="16"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="18"/>
     </row>
     <row r="72" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="29"/>
-      <c r="F72" s="14" t="s">
+      <c r="E72" s="33"/>
+      <c r="F72" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="14" t="s">
+      <c r="G72" s="18"/>
+      <c r="H72" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="16"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="18"/>
     </row>
     <row r="73" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="29"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="14" t="s">
+      <c r="E73" s="33"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="16"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="18"/>
     </row>
     <row r="74" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="29"/>
-      <c r="F74" s="14" t="s">
+      <c r="E74" s="33"/>
+      <c r="F74" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="14" t="s">
+      <c r="G74" s="18"/>
+      <c r="H74" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="16"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="18"/>
     </row>
     <row r="75" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="29"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="14" t="s">
+      <c r="E75" s="33"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="16"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="18"/>
     </row>
     <row r="76" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="30"/>
-      <c r="F76" s="17" t="s">
+      <c r="E76" s="34"/>
+      <c r="F76" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="17" t="s">
+      <c r="G76" s="31"/>
+      <c r="H76" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="19"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="31"/>
     </row>
     <row r="77" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="27"/>
-      <c r="H77" s="25" t="s">
+      <c r="G77" s="24"/>
+      <c r="H77" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="27"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="24"/>
     </row>
     <row r="78" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="29"/>
-      <c r="F78" s="14" t="s">
+      <c r="E78" s="33"/>
+      <c r="F78" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="14" t="s">
+      <c r="G78" s="18"/>
+      <c r="H78" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="16"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="18"/>
     </row>
     <row r="79" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="29"/>
-      <c r="F79" s="14" t="s">
+      <c r="E79" s="33"/>
+      <c r="F79" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="14" t="s">
+      <c r="G79" s="18"/>
+      <c r="H79" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="16"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="18"/>
     </row>
     <row r="80" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="29"/>
-      <c r="F80" s="14" t="s">
+      <c r="E80" s="33"/>
+      <c r="F80" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="14" t="s">
+      <c r="G80" s="18"/>
+      <c r="H80" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="16"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="18"/>
     </row>
     <row r="81" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="30"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="17" t="s">
+      <c r="E81" s="34"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="19"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="31"/>
     </row>
     <row r="82" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="22" t="s">
+      <c r="G82" s="29"/>
+      <c r="H82" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="24"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="29"/>
     </row>
     <row r="83" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="29"/>
-      <c r="F83" s="14" t="s">
+      <c r="E83" s="33"/>
+      <c r="F83" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="14" t="s">
+      <c r="G83" s="18"/>
+      <c r="H83" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="16"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="18"/>
     </row>
     <row r="84" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="29"/>
-      <c r="F84" s="14" t="s">
+      <c r="E84" s="33"/>
+      <c r="F84" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="16"/>
-      <c r="H84" s="14" t="s">
+      <c r="G84" s="18"/>
+      <c r="H84" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="16"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="18"/>
     </row>
     <row r="85" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="29"/>
-      <c r="F85" s="14" t="s">
+      <c r="E85" s="33"/>
+      <c r="F85" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="14" t="s">
+      <c r="G85" s="18"/>
+      <c r="H85" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="16"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="18"/>
     </row>
     <row r="86" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="29"/>
-      <c r="F86" s="14" t="s">
+      <c r="E86" s="33"/>
+      <c r="F86" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="14" t="s">
+      <c r="G86" s="18"/>
+      <c r="H86" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="16"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="18"/>
     </row>
     <row r="87" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="29"/>
-      <c r="F87" s="14" t="s">
+      <c r="E87" s="33"/>
+      <c r="F87" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="14" t="s">
+      <c r="G87" s="18"/>
+      <c r="H87" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="16"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="18"/>
     </row>
     <row r="88" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="30"/>
-      <c r="F88" s="17" t="s">
+      <c r="E88" s="34"/>
+      <c r="F88" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="17" t="s">
+      <c r="G88" s="31"/>
+      <c r="H88" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="19"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="31"/>
     </row>
     <row r="89" spans="5:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="10" t="s">
@@ -2956,30 +2987,39 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C2:U3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="H60:S60"/>
-    <mergeCell ref="H61:S61"/>
-    <mergeCell ref="H62:S62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F80:G81"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H87:S87"/>
+    <mergeCell ref="H88:S88"/>
+    <mergeCell ref="G50:S50"/>
+    <mergeCell ref="G51:S51"/>
+    <mergeCell ref="G52:S52"/>
+    <mergeCell ref="G53:S53"/>
+    <mergeCell ref="G54:S54"/>
+    <mergeCell ref="G55:S55"/>
+    <mergeCell ref="G56:S56"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="H82:S82"/>
+    <mergeCell ref="H83:S83"/>
+    <mergeCell ref="H84:S84"/>
+    <mergeCell ref="H85:S85"/>
+    <mergeCell ref="H86:S86"/>
+    <mergeCell ref="H75:S75"/>
+    <mergeCell ref="H76:S76"/>
+    <mergeCell ref="H77:S77"/>
+    <mergeCell ref="H78:S78"/>
+    <mergeCell ref="H79:S79"/>
+    <mergeCell ref="H80:S80"/>
+    <mergeCell ref="H74:S74"/>
+    <mergeCell ref="H63:S63"/>
+    <mergeCell ref="H64:S64"/>
+    <mergeCell ref="H65:S65"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="H67:S67"/>
+    <mergeCell ref="H68:S68"/>
+    <mergeCell ref="H69:S69"/>
+    <mergeCell ref="H70:S70"/>
+    <mergeCell ref="H71:S71"/>
+    <mergeCell ref="H72:S72"/>
+    <mergeCell ref="H73:S73"/>
     <mergeCell ref="E82:E88"/>
     <mergeCell ref="E77:E81"/>
     <mergeCell ref="E64:E76"/>
@@ -2996,39 +3036,30 @@
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H74:S74"/>
-    <mergeCell ref="H63:S63"/>
-    <mergeCell ref="H64:S64"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="H67:S67"/>
-    <mergeCell ref="H68:S68"/>
-    <mergeCell ref="H69:S69"/>
-    <mergeCell ref="H70:S70"/>
-    <mergeCell ref="H71:S71"/>
-    <mergeCell ref="H72:S72"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="H76:S76"/>
-    <mergeCell ref="H77:S77"/>
-    <mergeCell ref="H78:S78"/>
-    <mergeCell ref="H79:S79"/>
-    <mergeCell ref="H80:S80"/>
-    <mergeCell ref="H87:S87"/>
-    <mergeCell ref="H88:S88"/>
-    <mergeCell ref="G50:S50"/>
-    <mergeCell ref="G51:S51"/>
-    <mergeCell ref="G52:S52"/>
-    <mergeCell ref="G53:S53"/>
-    <mergeCell ref="G54:S54"/>
-    <mergeCell ref="G55:S55"/>
-    <mergeCell ref="G56:S56"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="H82:S82"/>
-    <mergeCell ref="H83:S83"/>
-    <mergeCell ref="H84:S84"/>
-    <mergeCell ref="H85:S85"/>
-    <mergeCell ref="H86:S86"/>
-    <mergeCell ref="H75:S75"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F80:G81"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C2:U3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="H60:S60"/>
+    <mergeCell ref="H61:S61"/>
+    <mergeCell ref="H62:S62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3041,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3051,46 +3082,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
@@ -3119,19 +3150,45 @@
         <v>64</v>
       </c>
     </row>
+    <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+    </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:T4"/>
+    <mergeCell ref="E10:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3154,14 +3211,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -3284,32 +3341,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="45" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -3357,11 +3414,11 @@
       <c r="P3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -3389,9 +3446,9 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="44"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -3419,9 +3476,9 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="44"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
@@ -3449,9 +3506,9 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -3469,9 +3526,9 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3492,98 +3549,141 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3592,7 +3692,7 @@
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3608,23 +3708,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="45" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -15,7 +15,7 @@
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
     <sheet name="docu_2" sheetId="9" r:id="rId2"/>
     <sheet name="stage" sheetId="11" r:id="rId3"/>
-    <sheet name="event" sheetId="12" r:id="rId4"/>
+    <sheet name="date" sheetId="12" r:id="rId4"/>
     <sheet name="char" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -542,10 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eventID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 시스템 기획서 - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,19 +745,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>event_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_4</t>
+    <t>스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트가 포함되어 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상호작용, 돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"event" sheet 中 ID 항목을 기입한다. 스테이지 내 event 발생 순서대로 기재한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 or 경로 이동 상호작용의 유형을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵의 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1= 취향 맞추기 / 2 = 방명록 / 3= 특별 VPS 이벤트 / 4= 캐릭터와 대화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y/Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용/이벤트가 시작했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용/이벤트가 끝났을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y,Z 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_4_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(방명록 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(캐릭터 대화) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_4_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_CharID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,190 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스테이지에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트가 포함되어 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상호작용, 돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"event" sheet 中 ID 항목을 기입한다. 스테이지 내 event 발생 순서대로 기재한다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 or 경로 이동 상호작용의 유형을 기입한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">미니맵의 표시 되는지 아닌지 판단한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1= 취향 맞추기 / 2 = 방명록 / 3= 특별 VPS 이벤트 / 4= 캐릭터와 대화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X/Y/Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용/이벤트가 시작했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용/이벤트가 끝났을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트가 발생하는 좌표 X,Y,Z 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_4_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(방명록 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(캐릭터 대화) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_4_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose1_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_CharID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrsss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,6 +1009,34 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1818,29 +1818,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1851,176 +2016,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2730,50 +2730,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="C2" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2954,7 +2954,7 @@
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2983,846 +2983,874 @@
     </row>
     <row r="49" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="67"/>
+      <c r="G51" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+    </row>
+    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="20" t="s">
+      <c r="F52" s="67"/>
+      <c r="G52" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-    </row>
-    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="20" t="s">
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+    </row>
+    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="67"/>
+      <c r="G53" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+    </row>
+    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="67"/>
+      <c r="G54" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+    </row>
+    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="67"/>
+      <c r="G55" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-    </row>
-    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-    </row>
-    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-    </row>
-    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="17"/>
+      <c r="F58" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="53"/>
       <c r="H58" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="53"/>
+    </row>
+    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="51"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="29"/>
+      <c r="F60" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="46"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="60"/>
+      <c r="H61" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="60"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="28"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="39"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="28"/>
+      <c r="F63" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="39"/>
+      <c r="H63" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="39"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="28"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="39"/>
+    </row>
+    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="28"/>
+      <c r="F65" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="39"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="28"/>
+      <c r="F66" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="39"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="28"/>
+      <c r="F67" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="39"/>
+      <c r="H67" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="39"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="28"/>
+      <c r="F68" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="39"/>
+      <c r="H68" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I58" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="17"/>
-    </row>
-    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="61" t="s">
+      <c r="I68" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="39"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="28"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="39"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="28"/>
+      <c r="F70" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="39"/>
+      <c r="H70" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I70" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="39"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="28"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="31"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="28"/>
+      <c r="F72" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="39"/>
+      <c r="H72" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="39"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="28"/>
+      <c r="F73" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39"/>
+      <c r="H73" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="39"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="28"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="39"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="28"/>
+      <c r="F75" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="39"/>
+      <c r="H75" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I75" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="39"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="28"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="39"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="28"/>
+      <c r="F77" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" s="39"/>
+      <c r="H77" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I77" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="39"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="28"/>
+      <c r="F78" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="39"/>
+      <c r="H78" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="31"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="29"/>
+      <c r="F79" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" s="57"/>
+      <c r="H79" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="33"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="51"/>
+      <c r="H80" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I80" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="51"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="28"/>
+      <c r="F81" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="43"/>
+      <c r="H81" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="43"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="28"/>
+      <c r="F82" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="43"/>
+      <c r="H82" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="43"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="28"/>
+      <c r="F83" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="H83" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I59" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="70"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="50"/>
-      <c r="F60" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="78"/>
-      <c r="H60" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="I60" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="78"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="64" t="s">
+      <c r="I83" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="43"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="28"/>
+      <c r="F84" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="43"/>
+      <c r="H84" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I61" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="34"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="49"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="36"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="49"/>
-      <c r="F63" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="36"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="49"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="36"/>
-    </row>
-    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="49"/>
-      <c r="F65" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="38"/>
-      <c r="H65" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="I65" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="36"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="49"/>
-      <c r="F66" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="36"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="49"/>
-      <c r="F67" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="36"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="49"/>
-      <c r="F68" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="36"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="49"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="36"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="49"/>
-      <c r="F70" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="I70" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="36"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="49"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="44"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="49"/>
-      <c r="F72" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I72" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="42"/>
-      <c r="T72" s="36"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="49"/>
-      <c r="F73" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="I73" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="36"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="49"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="36"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="49"/>
-      <c r="F75" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="I75" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="36"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="49"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="36"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="49"/>
-      <c r="F77" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="I77" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="36"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="49"/>
-      <c r="F78" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="I78" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="44"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="50"/>
-      <c r="F79" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="I79" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="51"/>
-      <c r="S79" s="51"/>
-      <c r="T79" s="52"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="70"/>
-      <c r="H80" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I80" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="J80" s="72"/>
-      <c r="K80" s="72"/>
-      <c r="L80" s="72"/>
-      <c r="M80" s="72"/>
-      <c r="N80" s="72"/>
-      <c r="O80" s="72"/>
-      <c r="P80" s="72"/>
-      <c r="Q80" s="72"/>
-      <c r="R80" s="72"/>
-      <c r="S80" s="72"/>
-      <c r="T80" s="70"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="49"/>
-      <c r="F81" s="73" t="s">
+      <c r="I84" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G81" s="74"/>
-      <c r="H81" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I81" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="74"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="49"/>
-      <c r="F82" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="74"/>
-      <c r="H82" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I82" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="76"/>
-      <c r="S82" s="76"/>
-      <c r="T82" s="74"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="49"/>
-      <c r="F83" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" s="74"/>
-      <c r="H83" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="I83" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="J83" s="76"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="76"/>
-      <c r="M83" s="76"/>
-      <c r="N83" s="76"/>
-      <c r="O83" s="76"/>
-      <c r="P83" s="76"/>
-      <c r="Q83" s="76"/>
-      <c r="R83" s="76"/>
-      <c r="S83" s="76"/>
-      <c r="T83" s="74"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="49"/>
-      <c r="F84" s="73" t="s">
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="43"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="28"/>
+      <c r="F85" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="74"/>
-      <c r="H84" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="I84" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="J84" s="76"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="76"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="76"/>
-      <c r="R84" s="76"/>
-      <c r="S84" s="76"/>
-      <c r="T84" s="74"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="49"/>
-      <c r="F85" s="73" t="s">
+      <c r="G85" s="43"/>
+      <c r="H85" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I85" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="43"/>
+    </row>
+    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="29"/>
+      <c r="F86" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="74"/>
-      <c r="H85" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I85" s="75" t="s">
+      <c r="G86" s="46"/>
+      <c r="H86" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I86" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="76"/>
-      <c r="R85" s="76"/>
-      <c r="S85" s="76"/>
-      <c r="T85" s="74"/>
-    </row>
-    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="50"/>
-      <c r="F86" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86" s="78"/>
-      <c r="H86" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="I86" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="J86" s="80"/>
-      <c r="K86" s="80"/>
-      <c r="L86" s="80"/>
-      <c r="M86" s="80"/>
-      <c r="N86" s="80"/>
-      <c r="O86" s="80"/>
-      <c r="P86" s="80"/>
-      <c r="Q86" s="80"/>
-      <c r="R86" s="80"/>
-      <c r="S86" s="80"/>
-      <c r="T86" s="78"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="46"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="I58:T58"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
     <mergeCell ref="I85:T85"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="G50:T50"/>
@@ -3839,50 +3867,22 @@
     <mergeCell ref="I76:T76"/>
     <mergeCell ref="I77:T77"/>
     <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="E61:E79"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="F70:G71"/>
     <mergeCell ref="I72:T72"/>
     <mergeCell ref="I73:T73"/>
     <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="I58:T58"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="I64:T64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3905,51 +3905,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="C3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3970,17 +3970,17 @@
     </row>
     <row r="7" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3998,52 +3998,52 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>148</v>
+      <c r="B3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4081,7 +4081,7 @@
   <dimension ref="B3:Z9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4102,178 +4102,178 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="X3" s="59"/>
+      <c r="B3" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="20"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="54" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="26"/>
+        <v>112</v>
+      </c>
+      <c r="T5" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="72"/>
       <c r="Z5" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
@@ -4293,7 +4293,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="29"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -4301,12 +4301,12 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="26"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -4334,12 +4334,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="26"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="72"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="29"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -4361,12 +4361,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="26"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="72"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
@@ -4380,7 +4380,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4388,31 +4388,31 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="26"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="72"/>
       <c r="Z9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="W9:Y9"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="L3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4441,63 +4441,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="B2" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="N3" s="67" t="s">
-        <v>153</v>
+      <c r="B3" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -4505,40 +4505,40 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,10 +431,6 @@
   </si>
   <si>
     <t>stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1860,6 +1856,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1869,6 +1925,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1890,99 +1979,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1998,6 +1994,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2005,21 +2016,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2719,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2730,55 +2726,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="C2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2801,7 +2797,7 @@
     </row>
     <row r="6" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2830,7 +2826,7 @@
     </row>
     <row r="9" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2859,108 +2855,108 @@
     </row>
     <row r="12" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2983,833 +2979,890 @@
     </row>
     <row r="49" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
+      <c r="E50" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="67" t="s">
+      <c r="E51" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="40"/>
+      <c r="G51" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+    </row>
+    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="48" t="s">
+      <c r="F52" s="40"/>
+      <c r="G52" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-    </row>
-    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="48" t="s">
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+    </row>
+    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+    </row>
+    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+    </row>
+    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="48"/>
-    </row>
-    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-    </row>
-    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="48"/>
-    </row>
-    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="67"/>
-      <c r="G55" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="33"/>
+    </row>
+    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="8" t="s">
+      <c r="G59" s="36"/>
+      <c r="H59" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I58" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="53"/>
-    </row>
-    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="22" t="s">
+      <c r="I59" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="36"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="49"/>
+      <c r="F60" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="45"/>
+      <c r="H60" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="45"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="H61" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="I59" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="51"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="29"/>
-      <c r="F60" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="46"/>
-      <c r="H60" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I60" s="44" t="s">
+      <c r="I61" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="39"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="48"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="30"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="48"/>
+      <c r="F63" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="46"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="59" t="s">
+      <c r="G63" s="30"/>
+      <c r="H63" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="30"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="48"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I61" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="60"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="28"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="39"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="28"/>
-      <c r="F63" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="39"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="28"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="39"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="30"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="28"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I65" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="30"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="48"/>
+      <c r="F66" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I66" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="30"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="48"/>
+      <c r="F67" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="30"/>
+      <c r="H67" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="30"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="48"/>
+      <c r="F68" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="30"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="48"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="30"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="48"/>
+      <c r="F70" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="30"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="48"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="62"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="48"/>
+      <c r="F72" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="30"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="48"/>
+      <c r="F73" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="30"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="48"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="30"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="48"/>
+      <c r="F75" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="30"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="48"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="30"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="48"/>
+      <c r="F77" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="39"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="28"/>
-      <c r="F66" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="39"/>
-      <c r="H66" s="23" t="s">
+      <c r="G77" s="30"/>
+      <c r="H77" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I66" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="39"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="28"/>
-      <c r="F67" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="23" t="s">
+      <c r="I77" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="30"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="48"/>
+      <c r="F78" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="30"/>
+      <c r="H78" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I78" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="62"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="49"/>
+      <c r="F79" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="54"/>
+      <c r="H79" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I67" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="39"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="28"/>
-      <c r="F68" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="36" t="s">
+      <c r="I79" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="64"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="36"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="48"/>
+      <c r="F81" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="52"/>
+      <c r="H81" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="52"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="48"/>
+      <c r="F82" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="52"/>
+      <c r="H82" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I82" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="52"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="48"/>
+      <c r="F83" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="52"/>
+      <c r="H83" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I68" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="39"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="28"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="39"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="28"/>
-      <c r="F70" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="39"/>
-      <c r="H70" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="39"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="28"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="31"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="28"/>
-      <c r="F72" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="39"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="28"/>
-      <c r="F73" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="39"/>
-      <c r="H73" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I73" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="39"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="28"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="39"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="28"/>
-      <c r="F75" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="39"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="28"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="39"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="28"/>
-      <c r="F77" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I77" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="39"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="28"/>
-      <c r="F78" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="31"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="29"/>
-      <c r="F79" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" s="57"/>
-      <c r="H79" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I79" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="33"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80" s="51"/>
-      <c r="H80" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I80" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="51"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="28"/>
-      <c r="F81" s="54" t="s">
+      <c r="I83" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="52"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="48"/>
+      <c r="F84" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="52"/>
+      <c r="H84" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I84" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="43"/>
-      <c r="H81" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I81" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="43"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="28"/>
-      <c r="F82" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82" s="43"/>
-      <c r="H82" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I82" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="43"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="28"/>
-      <c r="F83" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I83" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="42"/>
-      <c r="T83" s="43"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="28"/>
-      <c r="F84" s="54" t="s">
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="52"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="48"/>
+      <c r="F85" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I84" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="42"/>
-      <c r="T84" s="43"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="28"/>
-      <c r="F85" s="54" t="s">
+      <c r="G85" s="52"/>
+      <c r="H85" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I85" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="52"/>
+    </row>
+    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="49"/>
+      <c r="F86" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I85" s="41" t="s">
+      <c r="G86" s="45"/>
+      <c r="H86" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I86" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="42"/>
-      <c r="S85" s="42"/>
-      <c r="T85" s="43"/>
-    </row>
-    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="29"/>
-      <c r="F86" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" s="46"/>
-      <c r="H86" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I86" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="45"/>
-      <c r="R86" s="45"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="46"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57"/>
+      <c r="S86" s="57"/>
+      <c r="T86" s="45"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="E61:E79"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F68:G69"/>
     <mergeCell ref="I58:T58"/>
@@ -3826,63 +3879,6 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3905,51 +3901,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="C3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3970,17 +3966,17 @@
     </row>
     <row r="7" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4005,7 +4001,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -4014,36 +4010,36 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4102,178 +4098,178 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78" t="s">
+      <c r="B3" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="80" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
       <c r="W3" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X3" s="20"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="J4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="M4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="P4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="S4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="75"/>
+        <v>129</v>
+      </c>
+      <c r="T4" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="80"/>
       <c r="Z4" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T5" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="T5" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
       <c r="W5" s="70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X5" s="71"/>
       <c r="Y5" s="72"/>
       <c r="Z5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
@@ -4441,104 +4437,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
+      <c r="B2" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="160">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,6 +1033,15 @@
   </si>
   <si>
     <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하나와 첫 만남. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어는 화랑 어린이 공원에서 '하나'를 보고 첫 눈에 반한다. '하나'는 갑작스런 두통으로 플레이어에게 도움을 청한다. '하나'를 도와주자 고맙다며 커피를 사주고 앞으로도 함께 
+어울려줄 수 있냐며 다음을 약속한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,7 +1783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,129 +1865,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,6 +2026,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2370,7 +2385,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>568513</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>21191</xdr:rowOff>
+      <xdr:rowOff>21192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2715,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2726,50 +2741,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -2983,136 +2998,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
+      <c r="F50" s="43"/>
+      <c r="G50" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="60" t="s">
+      <c r="F51" s="67"/>
+      <c r="G51" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="60" t="s">
+      <c r="F52" s="67"/>
+      <c r="G52" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="60" t="s">
+      <c r="F53" s="67"/>
+      <c r="G53" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="60" t="s">
+      <c r="F54" s="67"/>
+      <c r="G54" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="60" t="s">
+      <c r="F55" s="67"/>
+      <c r="G55" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3123,170 +3138,170 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="33"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="I58" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="33"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="49"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="36"/>
+      <c r="G59" s="47"/>
       <c r="H59" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="36"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="47"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="49"/>
-      <c r="F60" s="44" t="s">
+      <c r="E60" s="59"/>
+      <c r="F60" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G60" s="45"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I60" s="56" t="s">
+      <c r="I60" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="45"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="42"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="65" t="s">
+      <c r="G61" s="56"/>
+      <c r="H61" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="I61" s="37" t="s">
+      <c r="I61" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="39"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="56"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="48"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="42" t="s">
+      <c r="E62" s="58"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="30"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="36"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="48"/>
-      <c r="F63" s="29" t="s">
+      <c r="E63" s="58"/>
+      <c r="F63" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="67" t="s">
+      <c r="G63" s="36"/>
+      <c r="H63" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="I63" s="42" t="s">
+      <c r="I63" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="30"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="36"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="48"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="42" t="s">
+      <c r="E64" s="58"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="30"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="36"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="48"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="15" t="s">
         <v>95</v>
       </c>
@@ -3294,510 +3309,510 @@
       <c r="H65" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="42" t="s">
+      <c r="I65" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="30"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="36"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="48"/>
-      <c r="F66" s="29" t="s">
+      <c r="E66" s="58"/>
+      <c r="F66" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="30"/>
+      <c r="G66" s="36"/>
       <c r="H66" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I66" s="42" t="s">
+      <c r="I66" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="30"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="36"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="48"/>
-      <c r="F67" s="29" t="s">
+      <c r="E67" s="58"/>
+      <c r="F67" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="30"/>
+      <c r="G67" s="36"/>
       <c r="H67" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I67" s="42" t="s">
+      <c r="I67" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="30"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="36"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="48"/>
-      <c r="F68" s="29" t="s">
+      <c r="E68" s="58"/>
+      <c r="F68" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="67" t="s">
+      <c r="G68" s="36"/>
+      <c r="H68" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="I68" s="42" t="s">
+      <c r="I68" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="30"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="36"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="48"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="42" t="s">
+      <c r="E69" s="58"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="30"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="36"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="48"/>
-      <c r="F70" s="29" t="s">
+      <c r="E70" s="58"/>
+      <c r="F70" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="67" t="s">
+      <c r="G70" s="36"/>
+      <c r="H70" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="42" t="s">
+      <c r="I70" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="30"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="36"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="48"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="61" t="s">
+      <c r="E71" s="58"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="62"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="28"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="48"/>
-      <c r="F72" s="29" t="s">
+      <c r="E72" s="58"/>
+      <c r="F72" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="30"/>
+      <c r="G72" s="36"/>
       <c r="H72" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I72" s="42" t="s">
+      <c r="I72" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="30"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="36"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="48"/>
-      <c r="F73" s="29" t="s">
+      <c r="E73" s="58"/>
+      <c r="F73" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="67" t="s">
+      <c r="G73" s="36"/>
+      <c r="H73" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="I73" s="42" t="s">
+      <c r="I73" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="30"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="36"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="48"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="42" t="s">
+      <c r="E74" s="58"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="30"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="36"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="48"/>
-      <c r="F75" s="29" t="s">
+      <c r="E75" s="58"/>
+      <c r="F75" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="67" t="s">
+      <c r="G75" s="36"/>
+      <c r="H75" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="I75" s="42" t="s">
+      <c r="I75" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="30"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="36"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="48"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="42" t="s">
+      <c r="E76" s="58"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="30"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="36"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="48"/>
-      <c r="F77" s="29" t="s">
+      <c r="E77" s="58"/>
+      <c r="F77" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="G77" s="30"/>
+      <c r="G77" s="36"/>
       <c r="H77" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="42" t="s">
+      <c r="I77" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="30"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="36"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="48"/>
-      <c r="F78" s="29" t="s">
+      <c r="E78" s="58"/>
+      <c r="F78" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="G78" s="30"/>
+      <c r="G78" s="36"/>
       <c r="H78" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I78" s="61" t="s">
+      <c r="I78" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="61"/>
-      <c r="S78" s="61"/>
-      <c r="T78" s="62"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="28"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="49"/>
-      <c r="F79" s="53" t="s">
+      <c r="E79" s="59"/>
+      <c r="F79" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G79" s="54"/>
+      <c r="G79" s="53"/>
       <c r="H79" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I79" s="63" t="s">
+      <c r="I79" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="64"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="30"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="36"/>
+      <c r="G80" s="47"/>
       <c r="H80" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="36"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="47"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="48"/>
-      <c r="F81" s="51" t="s">
+      <c r="E81" s="58"/>
+      <c r="F81" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="52"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I81" s="58" t="s">
+      <c r="I81" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="52"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="39"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="48"/>
-      <c r="F82" s="51" t="s">
+      <c r="E82" s="58"/>
+      <c r="F82" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="52"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I82" s="58" t="s">
+      <c r="I82" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="52"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="39"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="48"/>
-      <c r="F83" s="51" t="s">
+      <c r="E83" s="58"/>
+      <c r="F83" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="G83" s="52"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I83" s="58" t="s">
+      <c r="I83" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="52"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="39"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="48"/>
-      <c r="F84" s="51" t="s">
+      <c r="E84" s="58"/>
+      <c r="F84" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G84" s="52"/>
+      <c r="G84" s="39"/>
       <c r="H84" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I84" s="58" t="s">
+      <c r="I84" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="52"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="39"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="48"/>
-      <c r="F85" s="51" t="s">
+      <c r="E85" s="58"/>
+      <c r="F85" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G85" s="52"/>
+      <c r="G85" s="39"/>
       <c r="H85" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I85" s="58" t="s">
+      <c r="I85" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="52"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="39"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="49"/>
-      <c r="F86" s="44" t="s">
+      <c r="E86" s="59"/>
+      <c r="F86" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="45"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I86" s="56" t="s">
+      <c r="I86" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="57"/>
-      <c r="S86" s="57"/>
-      <c r="T86" s="45"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="42"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
@@ -3806,20 +3821,49 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="I58:T58"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="E61:E79"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
     <mergeCell ref="I85:T85"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="G50:T50"/>
@@ -3836,49 +3880,20 @@
     <mergeCell ref="I76:T76"/>
     <mergeCell ref="I77:T77"/>
     <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="I58:T58"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3891,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3901,46 +3916,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -3969,19 +3984,61 @@
         <v>36</v>
       </c>
     </row>
+    <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+    </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="3:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+    </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:T4"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="E10:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3993,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4043,11 +4100,21 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -4077,7 +4144,7 @@
   <dimension ref="B3:Z9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4258,11 +4325,11 @@
       <c r="S5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="70" t="s">
         <v>109</v>
       </c>
@@ -4276,12 +4343,8 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4309,12 +4372,8 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4339,7 +4398,9 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4366,7 +4427,9 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_location_X/Y/Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>end_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트가 발생하는 좌표 X,Y,Z 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date_2_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -897,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_location_Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e_location_Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1033,6 +1021,42 @@
   </si>
   <si>
     <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,129 +1880,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,6 +2047,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2715,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2726,50 +2765,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -2983,136 +3022,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="60" t="s">
+      <c r="F51" s="69"/>
+      <c r="G51" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="60" t="s">
+      <c r="F52" s="69"/>
+      <c r="G52" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="60" t="s">
+      <c r="F53" s="69"/>
+      <c r="G53" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="60" t="s">
+      <c r="E54" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="69"/>
+      <c r="G54" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="60" t="s">
+      <c r="F55" s="69"/>
+      <c r="G55" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3126,678 +3165,678 @@
       <c r="F58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="33"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I58" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="33"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="51"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="36"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="36"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="49"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="49"/>
-      <c r="F60" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="45"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="44"/>
       <c r="H60" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="45"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="44"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="46" t="s">
+      <c r="E61" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="37" t="s">
+      <c r="G61" s="58"/>
+      <c r="H61" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="39"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="58"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="48"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="42" t="s">
+      <c r="E62" s="60"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="30"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="48"/>
-      <c r="F63" s="29" t="s">
+      <c r="E63" s="60"/>
+      <c r="F63" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I63" s="42" t="s">
+      <c r="G63" s="38"/>
+      <c r="H63" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="30"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="48"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="42" t="s">
+      <c r="E64" s="60"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="30"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="48"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="15" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="38"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="60"/>
+      <c r="F66" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="38"/>
+      <c r="H66" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="38"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="60"/>
+      <c r="F67" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="38"/>
+      <c r="H67" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="38"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="60"/>
+      <c r="F68" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="38"/>
+      <c r="H68" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="38"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="60"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="38"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="60"/>
+      <c r="F70" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="38"/>
+      <c r="H70" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="38"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="60"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="30"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="60"/>
+      <c r="F72" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="38"/>
+      <c r="H72" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="38"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="60"/>
+      <c r="F73" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="38"/>
+      <c r="H73" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="38"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="60"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="38"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="60"/>
+      <c r="F75" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="38"/>
+      <c r="H75" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="42" t="s">
+      <c r="I75" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="38"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="60"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="38"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="60"/>
+      <c r="F77" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="38"/>
+      <c r="H77" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="38"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="60"/>
+      <c r="F78" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="30"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="48"/>
-      <c r="F66" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="23" t="s">
+      <c r="G78" s="38"/>
+      <c r="H78" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="30"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="61"/>
+      <c r="F79" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="55"/>
+      <c r="H79" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="32"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="49"/>
+      <c r="H80" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="49"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="60"/>
+      <c r="F81" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="41"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="60"/>
+      <c r="F82" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="41"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="60"/>
+      <c r="F83" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I66" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="30"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="48"/>
-      <c r="F67" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I67" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="30"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="48"/>
-      <c r="F68" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="I68" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="30"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="48"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="30"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="48"/>
-      <c r="F70" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="I70" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="30"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="48"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="62"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="48"/>
-      <c r="F72" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I72" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="30"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="48"/>
-      <c r="F73" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I73" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="30"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="48"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="30"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="48"/>
-      <c r="F75" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="67" t="s">
+      <c r="I83" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="41"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="60"/>
+      <c r="F84" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I75" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="30"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="48"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="30"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="48"/>
-      <c r="F77" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="30"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="48"/>
-      <c r="F78" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I78" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="61"/>
-      <c r="S78" s="61"/>
-      <c r="T78" s="62"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="49"/>
-      <c r="F79" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" s="54"/>
-      <c r="H79" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I79" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="64"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="36"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="48"/>
-      <c r="F81" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="52"/>
-      <c r="H81" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I81" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="52"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="48"/>
-      <c r="F82" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I82" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="52"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="48"/>
-      <c r="F83" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I83" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="52"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="48"/>
-      <c r="F84" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I84" s="58" t="s">
+      <c r="I84" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="52"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="41"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="48"/>
-      <c r="F85" s="51" t="s">
+      <c r="E85" s="60"/>
+      <c r="F85" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G85" s="52"/>
+      <c r="G85" s="41"/>
       <c r="H85" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I85" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="52"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="41"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="49"/>
-      <c r="F86" s="44" t="s">
+      <c r="E86" s="61"/>
+      <c r="F86" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="45"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I86" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I86" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="57"/>
-      <c r="S86" s="57"/>
-      <c r="T86" s="45"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="44"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
@@ -3806,20 +3845,49 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="I58:T58"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="E61:E79"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
     <mergeCell ref="I85:T85"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="G50:T50"/>
@@ -3836,49 +3904,20 @@
     <mergeCell ref="I76:T76"/>
     <mergeCell ref="I77:T77"/>
     <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="I58:T58"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3901,46 +3940,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -3994,57 +4033,61 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4074,18 +4117,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Z9"/>
+  <dimension ref="B3:Y9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
@@ -4097,182 +4142,175 @@
     <col min="26" max="26" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="14" t="s">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="11" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="T4" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="81"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="9" t="s">
+      <c r="S5" s="69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="73"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -4282,30 +4320,61 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>37.54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>127.12309999999999</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="T6" s="73"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -4321,26 +4390,29 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="71"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="72"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4348,25 +4420,26 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="72"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4375,40 +4448,39 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="72"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="1"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4437,63 +4509,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="77" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_location_X/Y/Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>end_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트가 발생하는 좌표 X,Y,Z 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date_2_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -897,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e_location_Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e_location_Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,12 +1024,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">하나와 첫 만남. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어는 화랑 어린이 공원에서 '하나'를 보고 첫 눈에 반한다. '하나'는 갑작스런 두통으로 플레이어에게 도움을 청한다. '하나'를 도와주자 고맙다며 커피를 사주고 앞으로도 함께 
-어울려줄 수 있냐며 다음을 약속한다.</t>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1783,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,6 +1880,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2027,11 +2048,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,7 +2409,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>568513</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>21192</xdr:rowOff>
+      <xdr:rowOff>21191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2730,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2741,50 +2765,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -2998,136 +3022,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="67" t="s">
+      <c r="E51" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="44" t="s">
+      <c r="F51" s="69"/>
+      <c r="G51" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="44" t="s">
+      <c r="F52" s="69"/>
+      <c r="G52" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="44" t="s">
+      <c r="F53" s="69"/>
+      <c r="G53" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="44" t="s">
+      <c r="E54" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="69"/>
+      <c r="G54" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="67" t="s">
+      <c r="E55" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="67"/>
-      <c r="G55" s="44" t="s">
+      <c r="F55" s="69"/>
+      <c r="G55" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3138,681 +3162,681 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="49"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I58" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="49"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="51"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="47"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="47"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="49"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="59"/>
-      <c r="F60" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="42"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="44"/>
       <c r="H60" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="44"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="55" t="s">
+      <c r="E61" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="65" t="s">
+      <c r="G61" s="58"/>
+      <c r="H61" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="56"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="58"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="58"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="34" t="s">
+      <c r="E62" s="60"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="36"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="58"/>
-      <c r="F63" s="51" t="s">
+      <c r="E63" s="60"/>
+      <c r="F63" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I63" s="34" t="s">
+      <c r="G63" s="38"/>
+      <c r="H63" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="36"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="58"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="34" t="s">
+      <c r="E64" s="60"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="58"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="15" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="38"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="60"/>
+      <c r="F66" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="38"/>
+      <c r="H66" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="38"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="60"/>
+      <c r="F67" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="38"/>
+      <c r="H67" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="38"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="60"/>
+      <c r="F68" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="38"/>
+      <c r="H68" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="38"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="60"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="38"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="60"/>
+      <c r="F70" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="38"/>
+      <c r="H70" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="38"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="60"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="30"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="60"/>
+      <c r="F72" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="38"/>
+      <c r="H72" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="38"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="60"/>
+      <c r="F73" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="38"/>
+      <c r="H73" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="38"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="60"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="38"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="60"/>
+      <c r="F75" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="38"/>
+      <c r="H75" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="34" t="s">
+      <c r="I75" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="38"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="60"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="38"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="60"/>
+      <c r="F77" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="38"/>
+      <c r="H77" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="38"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="60"/>
+      <c r="F78" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="36"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="58"/>
-      <c r="F66" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="23" t="s">
+      <c r="G78" s="38"/>
+      <c r="H78" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="30"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="61"/>
+      <c r="F79" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="55"/>
+      <c r="H79" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="32"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="49"/>
+      <c r="H80" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="49"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="60"/>
+      <c r="F81" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="41"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="60"/>
+      <c r="F82" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="41"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="60"/>
+      <c r="F83" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I66" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="36"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="58"/>
-      <c r="F67" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="36"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="58"/>
-      <c r="F68" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="36"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="58"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="36"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="58"/>
-      <c r="F70" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="36"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="58"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="28"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="58"/>
-      <c r="F72" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="36"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="58"/>
-      <c r="F73" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="36"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="58"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="36"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="58"/>
-      <c r="F75" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="33" t="s">
+      <c r="I83" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="41"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="60"/>
+      <c r="F84" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I75" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="36"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="58"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="36"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="58"/>
-      <c r="F77" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="36"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="58"/>
-      <c r="F78" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="28"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="59"/>
-      <c r="F79" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" s="53"/>
-      <c r="H79" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I79" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="30"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="47"/>
-      <c r="H80" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I80" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="47"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="58"/>
-      <c r="F81" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I81" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="39"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="58"/>
-      <c r="F82" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="39"/>
-      <c r="H82" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I82" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="39"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="58"/>
-      <c r="F83" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I83" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="39"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="58"/>
-      <c r="F84" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="39"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="41"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="58"/>
-      <c r="F85" s="50" t="s">
+      <c r="E85" s="60"/>
+      <c r="F85" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G85" s="39"/>
+      <c r="G85" s="41"/>
       <c r="H85" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I85" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="39"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="41"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="59"/>
-      <c r="F86" s="60" t="s">
+      <c r="E86" s="61"/>
+      <c r="F86" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="42"/>
+      <c r="G86" s="44"/>
       <c r="H86" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I86" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I86" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="42"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="44"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
@@ -3906,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3916,46 +3940,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -3984,61 +4008,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-    </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-    </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="C3:T4"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="E10:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4050,71 +4032,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -4141,18 +4117,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Z9"/>
+  <dimension ref="B3:Y9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
@@ -4164,244 +4142,277 @@
     <col min="26" max="26" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="14" t="s">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="11" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="2:26" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="T4" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="81"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="9" t="s">
+      <c r="S5" s="69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="73"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>37.54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>127.12309999999999</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="T6" s="73"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="71"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="72"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W7" s="73"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4409,24 +4420,23 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="72"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W8" s="73"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -4438,40 +4448,39 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="72"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="1"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4500,63 +4509,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="77" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -53,45 +53,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>목표</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지점</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
+T: </t>
         </r>
         <r>
           <rPr>
@@ -120,26 +82,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>표시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">표시
 </t>
         </r>
         <r>
@@ -149,45 +92,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>돌발</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이벤트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
+          <t xml:space="preserve">F: </t>
         </r>
         <r>
           <rPr>
@@ -217,15 +122,6 @@
             <charset val="129"/>
           </rPr>
           <t>비표시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
         </r>
       </text>
     </comment>
@@ -404,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,10 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">미니맵의 표시 되는지 아닌지 판단한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,6 +949,22 @@
   </si>
   <si>
     <t>e_location_X/Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,6 +1794,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1907,114 +1917,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2024,15 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,15 +1964,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2754,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V71" sqref="V71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2765,50 +2673,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -3022,136 +2930,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45" t="s">
+      <c r="F50" s="43"/>
+      <c r="G50" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="69" t="s">
+      <c r="E51" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="46" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="69" t="s">
+      <c r="E52" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="46" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="46" t="s">
+      <c r="F53" s="42"/>
+      <c r="G53" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="46" t="s">
+      <c r="E54" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="69" t="s">
+      <c r="E55" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="46" t="s">
+      <c r="F55" s="42"/>
+      <c r="G55" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3162,681 +3070,681 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="51"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="66"/>
-      <c r="T58" s="51"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="35"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="59" t="s">
+      <c r="E59" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="49"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="38"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="50"/>
+      <c r="F60" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="47"/>
+      <c r="H60" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="47"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I59" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="49"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="61"/>
-      <c r="F60" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="44"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="57" t="s">
+      <c r="I61" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="41"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="49"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="32"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="49"/>
+      <c r="F63" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="32"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="49"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="58"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="60"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="38"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="60"/>
-      <c r="F63" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="38"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="60"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="38"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="32"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="60"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="38"/>
+        <v>140</v>
+      </c>
+      <c r="I65" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="32"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="60"/>
-      <c r="F66" s="53" t="s">
+      <c r="E66" s="49"/>
+      <c r="F66" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="32"/>
+      <c r="H66" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="32"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="49"/>
+      <c r="F67" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="32"/>
+      <c r="H67" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="32"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="49"/>
+      <c r="F68" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="32"/>
+      <c r="H68" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="32"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="49"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="32"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="49"/>
+      <c r="F70" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="23" t="s">
+      <c r="G70" s="32"/>
+      <c r="H70" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="32"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="49"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="64"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="49"/>
+      <c r="F72" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="32"/>
+      <c r="H72" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="32"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="49"/>
+      <c r="F73" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="32"/>
+      <c r="H73" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="32"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="49"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="32"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="49"/>
+      <c r="F75" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="32"/>
+      <c r="H75" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="I66" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="38"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="60"/>
-      <c r="F67" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="23" t="s">
+      <c r="I75" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="32"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="49"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="32"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="49"/>
+      <c r="F77" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="32"/>
+      <c r="H77" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I67" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="38"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="60"/>
-      <c r="F68" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="38"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="60"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="38"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="60"/>
-      <c r="F70" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" s="38"/>
-      <c r="H70" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I70" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="38"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="60"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="30"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="60"/>
-      <c r="F72" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="38"/>
-      <c r="H72" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I72" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="38"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="60"/>
-      <c r="F73" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="38"/>
-      <c r="H73" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="38"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="60"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="38"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="60"/>
-      <c r="F75" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="38"/>
-      <c r="H75" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="38"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="60"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="38"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="60"/>
-      <c r="F77" s="53" t="s">
+      <c r="I77" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="32"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="49"/>
+      <c r="F78" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G77" s="38"/>
-      <c r="H77" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I77" s="36" t="s">
+      <c r="G78" s="32"/>
+      <c r="H78" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="38"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="60"/>
-      <c r="F78" s="53" t="s">
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="64"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="50"/>
+      <c r="F79" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="G78" s="38"/>
-      <c r="H78" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="30"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="61"/>
-      <c r="F79" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="G79" s="55"/>
       <c r="H79" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="32"/>
+        <v>143</v>
+      </c>
+      <c r="I79" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
+      <c r="O79" s="65"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="65"/>
+      <c r="R79" s="65"/>
+      <c r="S79" s="65"/>
+      <c r="T79" s="66"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="49"/>
+      <c r="G80" s="38"/>
       <c r="H80" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I80" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="48"/>
-      <c r="T80" s="49"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="38"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="60"/>
-      <c r="F81" s="52" t="s">
+      <c r="E81" s="49"/>
+      <c r="F81" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="41"/>
+      <c r="G81" s="52"/>
       <c r="H81" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I81" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I81" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="41"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="52"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="60"/>
-      <c r="F82" s="52" t="s">
+      <c r="E82" s="49"/>
+      <c r="F82" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="41"/>
+      <c r="G82" s="52"/>
       <c r="H82" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I82" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I82" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="41"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="52"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="60"/>
-      <c r="F83" s="52" t="s">
+      <c r="E83" s="49"/>
+      <c r="F83" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G83" s="41"/>
+      <c r="G83" s="52"/>
       <c r="H83" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="52"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="49"/>
+      <c r="F84" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="52"/>
+      <c r="H84" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I83" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="41"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="60"/>
-      <c r="F84" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I84" s="39" t="s">
+      <c r="I84" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="41"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="52"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="60"/>
-      <c r="F85" s="52" t="s">
+      <c r="E85" s="49"/>
+      <c r="F85" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G85" s="41"/>
+      <c r="G85" s="52"/>
       <c r="H85" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I85" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
-      <c r="N85" s="40"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="41"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="52"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="61"/>
-      <c r="F86" s="62" t="s">
+      <c r="E86" s="50"/>
+      <c r="F86" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="44"/>
+      <c r="G86" s="47"/>
       <c r="H86" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I86" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I86" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="44"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="47"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
@@ -3845,6 +3753,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="E61:E79"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F68:G69"/>
     <mergeCell ref="I58:T58"/>
@@ -3861,63 +3826,6 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3940,46 +3848,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -4049,36 +3957,36 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4119,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4139,183 +4047,183 @@
     <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="79" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
       <c r="V3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W3" s="20"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="I4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="L4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="O4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>127</v>
-      </c>
       <c r="R4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="82"/>
+        <v>125</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="84"/>
+      <c r="X4" s="85"/>
       <c r="Y4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="72" t="s">
+      <c r="S5" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="73"/>
-      <c r="X5" s="74"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
       <c r="Y5" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4327,59 +4235,59 @@
         <v>127.12309999999999</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="L6" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="K6" s="28" t="s">
+      <c r="N6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="P6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="R6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="S6" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="85"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="77"/>
       <c r="Y6" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
+      <c r="C7" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -4398,20 +4306,20 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="74"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="80"/>
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4428,12 +4336,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="74"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="80"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
@@ -4456,12 +4364,12 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="74"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="80"/>
       <c r="Y9" s="1"/>
     </row>
   </sheetData>
@@ -4509,63 +4417,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="79" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="155">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,38 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지 형태인 경우, 선택지 1 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지 형태가 아닌 경우에 캐릭터 기본 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지1 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지1 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지1 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형태인 경우, 선택지 1 대사에 해당 되는 캐릭터 표정 파일명을 기입한다(파일명:???)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형태인 경우, 선택지 1 대사에 해당 되는 캐릭터 모션 파일명을 기입한다(파일명:???)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 실제 주소를 기입한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,58 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">선택지 형태가 아닌 경우  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지1 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형식인 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지2 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">선택지3 대사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지3 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형태가 아닌 경우에 캐릭터 표정 파일명을 기입한다(파일명:???)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 형태가 아닌 경우에 캐릭터 모션 파일명을 기입한다(파일명:???)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">코인 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,28 +782,21 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -965,6 +874,50 @@
   </si>
   <si>
     <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/끝 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,7 +1659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1743,213 +1696,207 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1964,6 +1911,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,15 +1970,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>94130</xdr:colOff>
+      <xdr:colOff>318247</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>116836</xdr:rowOff>
+      <xdr:rowOff>128042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>575502</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116060</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>136326</xdr:rowOff>
+      <xdr:rowOff>147532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2018,8 +2001,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1618130" y="8891042"/>
-          <a:ext cx="6248399" cy="4244107"/>
+          <a:off x="2525806" y="10527101"/>
+          <a:ext cx="6241195" cy="4244107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2247,8 +2230,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116060</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>324409</xdr:rowOff>
     </xdr:from>
@@ -2256,7 +2239,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>671792</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>289067</xdr:rowOff>
+      <xdr:rowOff>300273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2274,8 +2257,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8550088" y="11698380"/>
-          <a:ext cx="1310528" cy="939569"/>
+          <a:off x="8767001" y="11698380"/>
+          <a:ext cx="1922850" cy="950775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2317,7 +2300,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>568513</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>21191</xdr:rowOff>
+      <xdr:rowOff>21192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2660,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:V87"/>
+  <dimension ref="C2:V84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2673,50 +2656,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -2867,7 +2850,7 @@
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2897,7 +2880,7 @@
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2952,114 +2935,114 @@
       <c r="T50" s="43"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="67"/>
+      <c r="G51" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+    </row>
+    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="67"/>
+      <c r="G52" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+    </row>
+    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="67"/>
+      <c r="G53" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-    </row>
-    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="42" t="s">
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+    </row>
+    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="67"/>
+      <c r="G54" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-    </row>
-    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="42"/>
-      <c r="G53" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-    </row>
-    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3070,746 +3053,617 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="35"/>
+      <c r="F58" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="49"/>
       <c r="H58" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="35"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="49"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="56" t="s">
+      <c r="F59" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="22" t="s">
+      <c r="G59" s="47"/>
+      <c r="H59" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="47"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="59"/>
+      <c r="F60" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="42"/>
+      <c r="H60" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="42"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="56"/>
+      <c r="H61" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="56"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="58"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="36"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="58"/>
+      <c r="F63" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="36"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="58"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="36"/>
+    </row>
+    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="58"/>
+      <c r="F65" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="I59" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="38"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="50"/>
-      <c r="F60" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="47"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="41"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="49"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="32"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="49"/>
-      <c r="F63" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G63" s="32"/>
-      <c r="H63" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="32"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="49"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="32"/>
-    </row>
-    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="49"/>
-      <c r="F65" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="32"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="36"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="49"/>
-      <c r="F66" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" s="44" t="s">
+      <c r="E66" s="58"/>
+      <c r="F66" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="36"/>
+      <c r="H66" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="45"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="32"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="36"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="49"/>
-      <c r="F67" s="31" t="s">
+      <c r="E67" s="58"/>
+      <c r="F67" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="32"/>
-      <c r="H67" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="45"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="32"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="36"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="49"/>
-      <c r="F68" s="31" t="s">
+      <c r="E68" s="58"/>
+      <c r="F68" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="45"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="32"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="36"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="49"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="45"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="32"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="36"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="49"/>
-      <c r="F70" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" s="32"/>
-      <c r="H70" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="I70" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="32"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="36"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="49"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="64"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="28"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="49"/>
-      <c r="F72" s="31" t="s">
+      <c r="E72" s="58"/>
+      <c r="F72" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I72" s="44" t="s">
+      <c r="G72" s="36"/>
+      <c r="H72" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I72" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="45"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="32"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="36"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="49"/>
-      <c r="F73" s="31" t="s">
+      <c r="E73" s="58"/>
+      <c r="F73" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="32"/>
-      <c r="H73" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="I73" s="44" t="s">
+      <c r="G73" s="36"/>
+      <c r="H73" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I73" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="45"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="32"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="36"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="49"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="44" t="s">
+      <c r="E74" s="58"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="45"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="32"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="36"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="49"/>
-      <c r="F75" s="31" t="s">
+      <c r="E75" s="58"/>
+      <c r="F75" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="I75" s="44" t="s">
+      <c r="G75" s="36"/>
+      <c r="H75" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="45"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="32"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="36"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="49"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="44" t="s">
+      <c r="E76" s="58"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="45"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="32"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="36"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="49"/>
-      <c r="F77" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="32"/>
-      <c r="H77" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I77" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="32"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="36"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="49"/>
-      <c r="F78" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I78" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="64"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="36"/>
+      <c r="H78" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="28"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="50"/>
-      <c r="F79" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" s="55"/>
-      <c r="H79" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I79" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="65"/>
-      <c r="T79" s="66"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="53"/>
+      <c r="H79" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I79" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="30"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="56" t="s">
+      <c r="F80" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="38"/>
-      <c r="H80" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I80" s="36" t="s">
+      <c r="G80" s="47"/>
+      <c r="H80" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="38"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="47"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="49"/>
-      <c r="F81" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="52"/>
-      <c r="H81" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I81" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
-      <c r="S81" s="61"/>
-      <c r="T81" s="52"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="39"/>
+      <c r="H81" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="39"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="49"/>
-      <c r="F82" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I82" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="61"/>
-      <c r="T82" s="52"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="87"/>
+      <c r="H82" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="I82" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="90"/>
+      <c r="K82" s="90"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="90"/>
+      <c r="N82" s="90"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="90"/>
+      <c r="Q82" s="90"/>
+      <c r="R82" s="90"/>
+      <c r="S82" s="90"/>
+      <c r="T82" s="87"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="49"/>
-      <c r="F83" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I83" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
-      <c r="Q83" s="61"/>
-      <c r="R83" s="61"/>
-      <c r="S83" s="61"/>
-      <c r="T83" s="52"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="92"/>
+      <c r="H83" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="J83" s="95"/>
+      <c r="K83" s="95"/>
+      <c r="L83" s="95"/>
+      <c r="M83" s="95"/>
+      <c r="N83" s="95"/>
+      <c r="O83" s="95"/>
+      <c r="P83" s="95"/>
+      <c r="Q83" s="95"/>
+      <c r="R83" s="95"/>
+      <c r="S83" s="95"/>
+      <c r="T83" s="92"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="49"/>
-      <c r="F84" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I84" s="60" t="s">
+      <c r="F84" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="61"/>
-      <c r="T84" s="52"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="49"/>
-      <c r="F85" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I85" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-      <c r="T85" s="52"/>
-    </row>
-    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="50"/>
-      <c r="F86" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G86" s="47"/>
-      <c r="H86" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I86" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="47"/>
-    </row>
-    <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F87" s="7" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="E61:E79"/>
+  <mergeCells count="67">
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F68:G69"/>
     <mergeCell ref="I58:T58"/>
@@ -3826,6 +3680,57 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E79"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3848,46 +3753,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -3916,19 +3821,61 @@
         <v>36</v>
       </c>
     </row>
+    <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+    </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+    </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:T4"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="E10:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3941,52 +3888,52 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>136</v>
+      <c r="B3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3996,9 +3943,15 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -4028,7 +3981,7 @@
   <dimension ref="B3:Y9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4051,179 +4004,181 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" s="20"/>
+      <c r="B3" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="19"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="T4" s="84"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="W4" s="84"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="18" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="82"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" s="82"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
+        <v>87</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="77"/>
+      <c r="X5" s="78"/>
       <c r="Y5" s="9" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4235,59 +4190,61 @@
         <v>127.12309999999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="T6" s="79"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="27" t="s">
-        <v>155</v>
+        <v>137</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="77"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="73">
+        <v>0</v>
+      </c>
+      <c r="W6" s="74"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -4298,7 +4255,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4306,29 +4263,31 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="80"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="78"/>
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4336,27 +4295,31 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="80"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="78"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4364,17 +4327,17 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="80"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
       <c r="Y9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B3:J3"/>
+  <mergeCells count="16">
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V8:X8"/>
@@ -4389,6 +4352,7 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4398,206 +4362,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:N2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -299,8 +299,72 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>KGA_25</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_25:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+T: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">플레이어
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">F: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="237">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,10 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date_4_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date_3_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,187 +737,411 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>end_CharID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType4(캐릭터 대화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 발생 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/끝 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것 처럼 밝아졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마치 다른 세상에 온 것 처럼…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야~ 내가 왔는데 멍때리기나하고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 다시 돌아간다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐아냐! 그게 아니라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(너무 이뻐서 멍때리고 본건데… 이런 부끄러운 말을 어떻게 해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(민망함에 거짓말을 해버렸다…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은? 아직도 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴… 다행이다. 큰일날뻔했네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… …저쪽에 말벌이 나타나서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 그럼 오늘은 그냥 집에가서 쉬는게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜 괜찮아! 집에 안가도 괜찮아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 우리 첫 데이트잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아? 어디 아픈거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 꺄악!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나는 끝까지 심한게 아니라며 고집을 부렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침부터 두통이 조금 있었거든. 하지만 심한건 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 설득끝에 약국에 먼저 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>choose_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end_CharID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrsss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType4(캐릭터 대화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 발생 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화랑 어린이 공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 431-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X/Y</t>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…있잖아.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -865,15 +1149,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아까는 말벌때문에 정신이 없었다지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 말도 안해줄거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 산 옷이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <t>(난 열심히 머리를 굴렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -881,43 +1197,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작/끝 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
+    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시… 새로 산 옷이야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 알아볼줄 알았는데, 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정답이었나보다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야, 못 보던 옷 같았거든… 잘어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 잘 어울린단말 듣고 싶었거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다음엔… 이,이쁘다는 말부터 해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한걸까…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안, 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 아니, 아니야. 그런게 아니라….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 내가 말한건… 그게… 그러니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한참을 망설이더니 조용히 말했다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1653,13 +2045,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,222 +2153,258 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1912,41 +2414,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2645,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73:T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2656,50 +3137,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -2913,136 +3394,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43" t="s">
+      <c r="F50" s="51"/>
+      <c r="G50" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="67" t="s">
+      <c r="E51" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="67"/>
-      <c r="G51" s="44" t="s">
+      <c r="F51" s="76"/>
+      <c r="G51" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="44" t="s">
+      <c r="F52" s="76"/>
+      <c r="G52" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="44" t="s">
+      <c r="F53" s="76"/>
+      <c r="G53" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="44" t="s">
+      <c r="E54" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="76"/>
+      <c r="G54" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="67" t="s">
+      <c r="E55" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="67"/>
-      <c r="G55" s="44" t="s">
+      <c r="F55" s="76"/>
+      <c r="G55" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3053,609 +3534,609 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="49"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="63"/>
+    </row>
+    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="41"/>
+      <c r="H59" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="41"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="61"/>
+      <c r="F60" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="58"/>
+      <c r="H60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="58"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="55"/>
+      <c r="H61" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="49"/>
-    </row>
-    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="21" t="s">
+      <c r="I61" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="55"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="60"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="60"/>
+      <c r="F63" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="31"/>
+      <c r="H63" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="60"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
+    </row>
+    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="60"/>
+      <c r="F65" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I59" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="47"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="59"/>
-      <c r="F60" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="42"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="31" t="s">
+      <c r="I65" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="60"/>
+      <c r="F66" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I61" s="65" t="s">
+      <c r="I66" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="60"/>
+      <c r="F67" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="31"/>
+      <c r="H67" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="60"/>
+      <c r="F68" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="31"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="60"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="31"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="60"/>
+      <c r="F70" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="31"/>
+      <c r="H70" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="31"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="60"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="33"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="60"/>
+      <c r="F72" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="31"/>
+      <c r="H72" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="31"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="60"/>
+      <c r="F73" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="31"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="60"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="31"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="60"/>
+      <c r="F75" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="31"/>
+      <c r="H75" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="31"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="60"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="31"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="60"/>
+      <c r="F77" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="31"/>
+      <c r="H77" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="31"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="60"/>
+      <c r="F78" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="31"/>
+      <c r="H78" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="33"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="61"/>
+      <c r="F79" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="68"/>
+      <c r="H79" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I79" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="35"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="41"/>
+      <c r="H80" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="41"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="60"/>
+      <c r="F81" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G81" s="44"/>
+      <c r="H81" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="44"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="60"/>
+      <c r="F82" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="56"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="58"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="36"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="58"/>
-      <c r="F63" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="36"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="58"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="36"/>
-    </row>
-    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="58"/>
-      <c r="F65" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="36"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="58"/>
-      <c r="F66" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="36"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="58"/>
-      <c r="F67" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="36"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="58"/>
-      <c r="F68" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="36"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="58"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="36"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="58"/>
-      <c r="F70" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="36"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="58"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="28"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="58"/>
-      <c r="F72" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="36"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="58"/>
-      <c r="F73" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="36"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="58"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="36"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="58"/>
-      <c r="F75" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="33" t="s">
+      <c r="G82" s="47"/>
+      <c r="H82" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="47"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="61"/>
+      <c r="F83" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="50"/>
+      <c r="H83" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I75" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="36"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="58"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="36"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="58"/>
-      <c r="F77" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="36"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="58"/>
-      <c r="F78" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="28"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="59"/>
-      <c r="F79" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="53"/>
-      <c r="H79" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I79" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="30"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="47"/>
-      <c r="H80" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I80" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="47"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="58"/>
-      <c r="F81" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I81" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="39"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="58"/>
-      <c r="F82" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="G82" s="87"/>
-      <c r="H82" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="I82" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="90"/>
-      <c r="M82" s="90"/>
-      <c r="N82" s="90"/>
-      <c r="O82" s="90"/>
-      <c r="P82" s="90"/>
-      <c r="Q82" s="90"/>
-      <c r="R82" s="90"/>
-      <c r="S82" s="90"/>
-      <c r="T82" s="87"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="59"/>
-      <c r="F83" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="G83" s="92"/>
-      <c r="H83" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="I83" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="J83" s="95"/>
-      <c r="K83" s="95"/>
-      <c r="L83" s="95"/>
-      <c r="M83" s="95"/>
-      <c r="N83" s="95"/>
-      <c r="O83" s="95"/>
-      <c r="P83" s="95"/>
-      <c r="Q83" s="95"/>
-      <c r="R83" s="95"/>
-      <c r="S83" s="95"/>
-      <c r="T83" s="92"/>
+      <c r="I83" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="50"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F84" s="7" t="s">
@@ -3696,12 +4177,6 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F70:G71"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
     <mergeCell ref="I69:T69"/>
     <mergeCell ref="I62:T62"/>
     <mergeCell ref="G50:T50"/>
@@ -3710,6 +4185,11 @@
     <mergeCell ref="G53:T53"/>
     <mergeCell ref="G54:T54"/>
     <mergeCell ref="G55:T55"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
     <mergeCell ref="I80:T80"/>
     <mergeCell ref="I81:T81"/>
     <mergeCell ref="I82:T82"/>
@@ -3731,6 +4211,7 @@
     <mergeCell ref="I72:T72"/>
     <mergeCell ref="I73:T73"/>
     <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I68:T68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,46 +4234,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -3822,24 +4303,24 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
+      <c r="E8" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -3847,24 +4328,24 @@
       </c>
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
+      <c r="E10" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -3888,52 +4369,52 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3941,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -3978,10 +4459,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Y9"/>
+  <dimension ref="B3:AD9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3993,192 +4474,232 @@
     <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="13" width="14.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="80" t="s">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="13" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="84"/>
+      <c r="K3" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="11" t="s">
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="91" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="2:25" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="T3" s="90"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+    </row>
+    <row r="4" spans="2:30" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="W4" s="82"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="J4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="94"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="94"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="O5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="67" t="s">
+      <c r="R5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="76" t="s">
+      <c r="S5" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="W5" s="77"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="9" t="s">
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="W5" s="87"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4190,61 +4711,46 @@
         <v>127.12309999999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="73">
+        <v>130</v>
+      </c>
+      <c r="I6" s="17">
         <v>0</v>
       </c>
-      <c r="W6" s="74"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="J6" s="17">
+        <v>2</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="86">
+        <v>1</v>
+      </c>
+      <c r="W6" s="87"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -4253,9 +4759,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="21">
+        <v>3</v>
+      </c>
+      <c r="J7" s="21">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4263,20 +4773,37 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="S7" s="86"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -4285,9 +4812,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="21">
+        <v>7</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4295,20 +4824,25 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -4319,7 +4853,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4327,19 +4861,22 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="1"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
+  <mergeCells count="18">
+    <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="K3:R3"/>
@@ -4353,6 +4890,10 @@
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4361,61 +4902,661 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9" style="27"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="C3" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C5" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="28">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="28">
+        <v>1</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="28">
+        <v>1</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="28">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="28">
+        <v>1</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="28">
+        <v>1</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="28">
+        <v>2</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="28">
+        <v>2</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="28">
+        <v>3</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="28">
+        <v>3</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="28">
+        <v>3</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="28">
+        <v>3</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="28">
+        <v>3</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="28">
+        <v>3</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="28">
+        <v>4</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="28">
+        <v>4</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="28">
+        <v>4</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="28">
+        <v>4</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="28">
+        <v>4</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="28">
+        <v>4</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="28">
+        <v>4</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="28">
+        <v>4</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="28">
+        <v>4</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="28">
+        <v>4</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="28">
+        <v>4</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="28">
+        <v>4</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="28">
+        <v>5</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="28">
+        <v>5</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="28">
+        <v>5</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="28">
+        <v>5</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="28">
+        <v>5</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="28">
+        <v>5</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="28">
+        <v>5</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="28">
+        <v>5</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="28">
+        <v>5</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="28">
+        <v>6</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="28">
+        <v>6</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="241">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,6 +1310,22 @@
   </si>
   <si>
     <t>(한참을 망설이더니 조용히 말했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사를 진행하는 주체를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T= 플레이어 / F = 하나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2119,13 +2135,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2213,13 +2286,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2243,123 +2436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2372,9 +2448,51 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2384,50 +2502,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3124,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:V84"/>
+  <dimension ref="C2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73:T73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74:T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3137,50 +3228,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -3394,136 +3485,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51" t="s">
+      <c r="F50" s="44"/>
+      <c r="G50" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="76"/>
-      <c r="G51" s="52" t="s">
+      <c r="F51" s="43"/>
+      <c r="G51" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="76" t="s">
+      <c r="E52" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="76"/>
-      <c r="G52" s="52" t="s">
+      <c r="F52" s="43"/>
+      <c r="G52" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="76" t="s">
+      <c r="E53" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="52" t="s">
+      <c r="F53" s="43"/>
+      <c r="G53" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="52" t="s">
+      <c r="F54" s="43"/>
+      <c r="G54" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="76" t="s">
+      <c r="E55" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="52" t="s">
+      <c r="F55" s="43"/>
+      <c r="G55" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -3534,170 +3625,170 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="63"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="72" t="s">
+      <c r="I58" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="63"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="36"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="59" t="s">
+      <c r="E59" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="41"/>
+      <c r="G59" s="39"/>
       <c r="H59" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="41"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="39"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="61"/>
-      <c r="F60" s="77" t="s">
+      <c r="E60" s="51"/>
+      <c r="F60" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="58"/>
+      <c r="G60" s="48"/>
       <c r="H60" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I60" s="56" t="s">
+      <c r="I60" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="58"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="48"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="36" t="s">
+      <c r="G61" s="42"/>
+      <c r="H61" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="I61" s="74" t="s">
+      <c r="I61" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="55"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="42"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="60"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="29" t="s">
+      <c r="E62" s="50"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="33"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="60"/>
-      <c r="F63" s="53" t="s">
+      <c r="E63" s="50"/>
+      <c r="F63" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="38" t="s">
+      <c r="G63" s="33"/>
+      <c r="H63" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="33"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="60"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="29" t="s">
+      <c r="E64" s="50"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="33"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="60"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="10" t="s">
         <v>132</v>
       </c>
@@ -3705,446 +3796,545 @@
       <c r="H65" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="33"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="60"/>
-      <c r="F66" s="53" t="s">
+      <c r="E66" s="50"/>
+      <c r="F66" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G66" s="31"/>
+      <c r="G66" s="33"/>
       <c r="H66" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I66" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="33"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="60"/>
-      <c r="F67" s="53" t="s">
+      <c r="E67" s="50"/>
+      <c r="F67" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="31"/>
+      <c r="G67" s="33"/>
       <c r="H67" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I67" s="29" t="s">
+      <c r="I67" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="33"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="60"/>
-      <c r="F68" s="53" t="s">
+      <c r="E68" s="50"/>
+      <c r="F68" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="38" t="s">
+      <c r="G68" s="33"/>
+      <c r="H68" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="I68" s="29" t="s">
+      <c r="I68" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="31"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="33"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="60"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="29" t="s">
+      <c r="E69" s="50"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="31"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="33"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="60"/>
-      <c r="F70" s="53" t="s">
+      <c r="E70" s="50"/>
+      <c r="F70" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="38" t="s">
+      <c r="G70" s="33"/>
+      <c r="H70" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="31"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="33"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="60"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="32" t="s">
+      <c r="E71" s="50"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="33"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="73"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="60"/>
-      <c r="F72" s="53" t="s">
+      <c r="E72" s="50"/>
+      <c r="F72" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="31"/>
+      <c r="G72" s="33"/>
       <c r="H72" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="31"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="33"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="60"/>
-      <c r="F73" s="53" t="s">
+      <c r="E73" s="50"/>
+      <c r="F73" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="38" t="s">
+      <c r="G73" s="33"/>
+      <c r="H73" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="31"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="33"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="60"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="29" t="s">
+      <c r="E74" s="50"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
-      <c r="T74" s="31"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="33"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="60"/>
-      <c r="F75" s="53" t="s">
+      <c r="E75" s="50"/>
+      <c r="F75" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="38" t="s">
+      <c r="G75" s="33"/>
+      <c r="H75" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
-      <c r="T75" s="31"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="33"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="60"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="29" t="s">
+      <c r="E76" s="50"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="31"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="33"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="60"/>
-      <c r="F77" s="53" t="s">
+      <c r="E77" s="50"/>
+      <c r="F77" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="31"/>
+      <c r="G77" s="33"/>
       <c r="H77" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="31"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="46"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="33"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="60"/>
-      <c r="F78" s="53" t="s">
+      <c r="E78" s="50"/>
+      <c r="F78" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="31"/>
+      <c r="G78" s="33"/>
       <c r="H78" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="33"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="72"/>
+      <c r="T78" s="73"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="61"/>
-      <c r="F79" s="67" t="s">
+      <c r="E79" s="51"/>
+      <c r="F79" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G79" s="68"/>
+      <c r="G79" s="60"/>
       <c r="H79" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="35"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="74"/>
+      <c r="T79" s="75"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="41"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I80" s="39" t="s">
+      <c r="I80" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="41"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="39"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="60"/>
-      <c r="F81" s="64" t="s">
+      <c r="E81" s="101"/>
+      <c r="F81" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="103"/>
+      <c r="H81" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="I81" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
+      <c r="P81" s="72"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
+      <c r="S81" s="72"/>
+      <c r="T81" s="73"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="101"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="73"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="50"/>
+      <c r="F83" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="44"/>
-      <c r="H81" s="15" t="s">
+      <c r="G83" s="54"/>
+      <c r="H83" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I81" s="42" t="s">
+      <c r="I83" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="44"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="60"/>
-      <c r="F82" s="65" t="s">
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="54"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="50"/>
+      <c r="F84" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G82" s="47"/>
-      <c r="H82" s="19" t="s">
+      <c r="G84" s="56"/>
+      <c r="H84" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I82" s="45" t="s">
+      <c r="I84" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="47"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="61"/>
-      <c r="F83" s="66" t="s">
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="69"/>
+      <c r="Q84" s="69"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="69"/>
+      <c r="T84" s="56"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="51"/>
+      <c r="F85" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="G83" s="50"/>
-      <c r="H83" s="20" t="s">
+      <c r="G85" s="58"/>
+      <c r="H85" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="48" t="s">
+      <c r="I85" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="49"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="50"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F84" s="7" t="s">
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+      <c r="T85" s="58"/>
+    </row>
+    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="7" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="71">
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="F81:G82"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="E80:E85"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E79"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F68:G69"/>
     <mergeCell ref="I58:T58"/>
@@ -4161,57 +4351,6 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I68:T68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4225,7 +4364,7 @@
   <dimension ref="C3:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4234,46 +4373,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -4303,24 +4442,24 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -4328,24 +4467,24 @@
       </c>
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -4369,19 +4508,19 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
@@ -4461,8 +4600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4490,49 +4629,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="89" t="s">
+      <c r="J3" s="99"/>
+      <c r="K3" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="82"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="90"/>
       <c r="S3" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="90"/>
+      <c r="T3" s="89"/>
       <c r="U3" s="92"/>
-      <c r="V3" s="85" t="s">
+      <c r="V3" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="96" t="s">
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-    </row>
-    <row r="4" spans="2:30" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+    </row>
+    <row r="4" spans="2:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>102</v>
       </c>
@@ -4588,12 +4727,12 @@
         <v>102</v>
       </c>
       <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
+      <c r="U4" s="97"/>
       <c r="V4" s="93" t="s">
         <v>102</v>
       </c>
       <c r="W4" s="94"/>
-      <c r="X4" s="98"/>
+      <c r="X4" s="95"/>
       <c r="Y4" s="23" t="s">
         <v>103</v>
       </c>
@@ -4665,16 +4804,16 @@
       <c r="R5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="76" t="s">
+      <c r="S5" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="86" t="s">
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="W5" s="87"/>
-      <c r="X5" s="99"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="87"/>
       <c r="Y5" s="22" t="s">
         <v>192</v>
       </c>
@@ -4730,14 +4869,14 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="86">
+      <c r="S6" s="85"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="85">
         <v>1</v>
       </c>
-      <c r="W6" s="87"/>
-      <c r="X6" s="99"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="87"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
@@ -4773,12 +4912,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="99"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="87"/>
       <c r="Y7" s="9" t="s">
         <v>202</v>
       </c>
@@ -4824,12 +4963,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="99"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="87"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -4861,12 +5000,12 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="99"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="87"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -4876,6 +5015,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
@@ -4889,11 +5033,6 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4905,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -295,6 +295,2566 @@
         </r>
       </text>
     </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌표</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Y</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리까지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정보</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>中</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+상호작용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝났을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+상호작용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝났을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3D GUI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+플레이어가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택했을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3D GUI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+플레이어가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택했을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3D GUI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일명을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+플레이어가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택했을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -325,6 +2885,84 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주체를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 T: </t>
         </r>
         <r>
@@ -364,7 +3002,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="243">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,807 +3163,815 @@
     <t>charID</t>
   </si>
   <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 선택지의 3D GUI 에셋 파일명을 기입한다 / 파일명: ???  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 선택지의 Type을 기재한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 1 = Like / 2 = Hate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 첫번째 선택지를 선택했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">▶ 세부 설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char 인덱스를 순서대로 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 실제 주소를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 표정과 모션 칼럼 같은 경우 향후 캐릭터 표정, 모션 기획에 따라 사라지거나 추가될 수 있음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docu_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docu_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "스테이지" 에 대한 기획의도 및 전체적인 시스템적 개념을 정의하고, 해당 문서에 대한 sheet 및 칼럼 설명을 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 "스테이지" 에 대한 컨셉, 스토리, 플로우를 정리한 기획서. 현재 1차 프로토타입까지만 갱신한 상태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상황별 필요한 캐릭터 대사, 모션, 표정을 칼럼 형식으로 정리한 시스템 기획서. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물들이 구성을 이루어 스테이지가 되고, 그 스테이지가 모여서 챕터가 된다. 아래 예시 그림 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트가 포함되어 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상호작용, 돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"event" sheet 中 ID 항목을 기입한다. 스테이지 내 event 발생 순서대로 기재한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 or 경로 이동 상호작용의 유형을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1= 취향 맞추기 / 2 = 방명록 / 3= 특별 VPS 이벤트 / 4= 캐릭터와 대화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용/이벤트가 시작했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용/이벤트가 끝났을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_4_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(방명록 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(캐릭터 대화) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_CharID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType4(캐릭터 대화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 발생 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/끝 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것 처럼 밝아졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마치 다른 세상에 온 것 처럼…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야~ 내가 왔는데 멍때리기나하고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 다시 돌아간다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐아냐! 그게 아니라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(너무 이뻐서 멍때리고 본건데… 이런 부끄러운 말을 어떻게 해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(민망함에 거짓말을 해버렸다…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은? 아직도 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴… 다행이다. 큰일날뻔했네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… …저쪽에 말벌이 나타나서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 그럼 오늘은 그냥 집에가서 쉬는게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜 괜찮아! 집에 안가도 괜찮아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 우리 첫 데이트잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아? 어디 아픈거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 꺄악!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나는 끝까지 심한게 아니라며 고집을 부렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침부터 두통이 조금 있었거든. 하지만 심한건 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 설득끝에 약국에 먼저 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…있잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까는 말벌때문에 정신이 없었다지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 말도 안해줄거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 산 옷이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 열심히 머리를 굴렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시… 새로 산 옷이야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 알아볼줄 알았는데, 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정답이었나보다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야, 못 보던 옷 같았거든… 잘어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 잘 어울린단말 듣고 싶었거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다음엔… 이,이쁘다는 말부터 해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한걸까…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안, 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 아니, 아니야. 그런게 아니라….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 내가 말한건… 그게… 그러니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한참을 망설이더니 조용히 말했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사를 진행하는 주체를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T= 플레이어 / F = 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stage 인덱스를 순서대로 기입한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫번째 선택지의 3D GUI 에셋 파일명을 기입한다 / 파일명: ???  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫번째 선택지의 Type을 기재한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ 1 = Like / 2 = Hate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어가 첫번째 선택지를 선택했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>▶ 개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">▶ 세부 설명 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">소개 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char 인덱스를 순서대로 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 실제 주소를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 표정과 모션 칼럼 같은 경우 향후 캐릭터 표정, 모션 기획에 따라 사라지거나 추가될 수 있음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docu_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docu_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "스테이지" 에 대한 기획의도 및 전체적인 시스템적 개념을 정의하고, 해당 문서에 대한 sheet 및 칼럼 설명을 진행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 "스테이지" 에 대한 컨셉, 스토리, 플로우를 정리한 기획서. 현재 1차 프로토타입까지만 갱신한 상태.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상황별 필요한 캐릭터 대사, 모션, 표정을 칼럼 형식으로 정리한 시스템 기획서. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물들이 구성을 이루어 스테이지가 되고, 그 스테이지가 모여서 챕터가 된다. 아래 예시 그림 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">코인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스테이지에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트가 포함되어 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상호작용, 돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"event" sheet 中 ID 항목을 기입한다. 스테이지 내 event 발생 순서대로 기재한다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 or 경로 이동 상호작용의 유형을 기입한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1= 취향 맞추기 / 2 = 방명록 / 3= 특별 VPS 이벤트 / 4= 캐릭터와 대화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용/이벤트가 시작했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용/이벤트가 끝났을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_4_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(방명록 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(캐릭터 대화) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose1_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_CharID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrsss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType4(캐릭터 대화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 발생 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화랑 어린이 공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 431-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X/Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작/끝 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 생각 해?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것 처럼 밝아졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(마치 다른 세상에 온 것 처럼…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야~ 내가 왔는데 멍때리기나하고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 다시 돌아간다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐아냐! 그게 아니라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(너무 이뻐서 멍때리고 본건데… 이런 부끄러운 말을 어떻게 해!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(민망함에 거짓말을 해버렸다…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은? 아직도 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴… 다행이다. 큰일날뻔했네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>… …저쪽에 말벌이 나타나서…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 그럼 오늘은 그냥 집에가서 쉬는게…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐, 진짜 괜찮아! 집에 안가도 괜찮아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 우리 첫 데이트잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아? 어디 아픈거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 꺄악!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나는 끝까지 심한게 아니라며 고집을 부렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침부터 두통이 조금 있었거든. 하지만 심한건 아니야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 설득끝에 약국에 먼저 가자고 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…있잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까는 말벌때문에 정신이 없었다지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 말도 안해줄거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 산 옷이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 열심히 머리를 굴렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시… 새로 산 옷이야…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못 알아볼줄 알았는데, 어떻게 알았어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정답이었나보다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그야, 못 보던 옷 같았거든… 잘어울린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워. 잘 어울린단말 듣고 싶었거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 다음엔… 이,이쁘다는 말부터 해줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한걸까…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안, 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐? 아니, 아니야. 그런게 아니라….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 내가 말한건… 그게… 그러니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(한참을 망설이더니 조용히 말했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사를 진행하는 주체를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T= 플레이어 / F = 하나</t>
+    <t>choose_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,7 +4844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2289,153 +4935,174 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2448,30 +5115,39 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,33 +5168,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3217,8 +5866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74:T74"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3228,50 +5877,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -3422,7 +6071,7 @@
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3452,7 +6101,7 @@
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3481,844 +6130,821 @@
     </row>
     <row r="49" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="84"/>
+      <c r="G51" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="62" t="s">
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+    </row>
+    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="84"/>
+      <c r="G52" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+    </row>
+    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="84"/>
+      <c r="G53" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+    </row>
+    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="84"/>
+      <c r="G54" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+    </row>
+    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="84"/>
+      <c r="G55" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-    </row>
-    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-    </row>
-    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-    </row>
-    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-    </row>
-    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="36"/>
+      <c r="F58" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="71"/>
       <c r="H58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="81"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="71"/>
+    </row>
+    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="48"/>
+      <c r="H59" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="48"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="69"/>
+      <c r="F60" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="65"/>
+      <c r="H60" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="65"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="62"/>
+      <c r="H61" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="36"/>
-    </row>
-    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="39"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="51"/>
-      <c r="F60" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I60" s="64" t="s">
+      <c r="I61" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="62"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="68"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="42"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="68"/>
+      <c r="F63" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="42"/>
+      <c r="H63" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I63" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="48"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="42"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="50"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="45" t="s">
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="42"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="68"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="33"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="50"/>
-      <c r="F63" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="I63" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="33"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="50"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="33"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="42"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="50"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="42"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="68"/>
+      <c r="F66" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="42"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="68"/>
+      <c r="F67" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="42"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="68"/>
+      <c r="F68" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="42"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="68"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="42"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="68"/>
+      <c r="F70" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="42"/>
+      <c r="H70" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="42"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="68"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="33"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="68"/>
+      <c r="F72" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="42"/>
+      <c r="H72" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="42"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="68"/>
+      <c r="F73" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="H73" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="42"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="68"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="42"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="68"/>
+      <c r="F75" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="42"/>
+      <c r="H75" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="I65" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="33"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="50"/>
-      <c r="F66" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I66" s="45" t="s">
+      <c r="I75" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="42"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="68"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="42"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="68"/>
+      <c r="F77" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="42"/>
+      <c r="H77" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="42"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="68"/>
+      <c r="F78" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78" s="42"/>
+      <c r="H78" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="33"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="69"/>
+      <c r="F79" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="76"/>
+      <c r="H79" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="44"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="48"/>
+      <c r="H80" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="33"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="50"/>
-      <c r="F67" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I67" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="33"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="50"/>
-      <c r="F68" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="I68" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="33"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="50"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="33"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="50"/>
-      <c r="F70" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="33"/>
-      <c r="H70" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="I70" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="33"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="50"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="73"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="50"/>
-      <c r="F72" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="33"/>
-      <c r="H72" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I72" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="33"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="50"/>
-      <c r="F73" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="33"/>
-      <c r="H73" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="I73" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="33"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="50"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="33"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="50"/>
-      <c r="F75" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="78" t="s">
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="48"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="67"/>
+      <c r="F81" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="33"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="67"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="33"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="68"/>
+      <c r="F83" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="51"/>
+      <c r="H83" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="50"/>
+      <c r="Q83" s="50"/>
+      <c r="R83" s="50"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="51"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="68"/>
+      <c r="F84" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="54"/>
+      <c r="H84" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="53"/>
+      <c r="T84" s="54"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="69"/>
+      <c r="F85" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="57"/>
+      <c r="H85" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I75" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="33"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="50"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="33"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="50"/>
-      <c r="F77" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I77" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="33"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="50"/>
-      <c r="F78" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I78" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="J78" s="72"/>
-      <c r="K78" s="72"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="73"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="51"/>
-      <c r="F79" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="60"/>
-      <c r="H79" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I79" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74"/>
-      <c r="T79" s="75"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="39"/>
-      <c r="H80" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I80" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="39"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="101"/>
-      <c r="F81" s="102" t="s">
-        <v>237</v>
-      </c>
-      <c r="G81" s="103"/>
-      <c r="H81" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="I81" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="J81" s="72"/>
-      <c r="K81" s="72"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
-      <c r="N81" s="72"/>
-      <c r="O81" s="72"/>
-      <c r="P81" s="72"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="73"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="101"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="73"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="50"/>
-      <c r="F83" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G83" s="54"/>
-      <c r="H83" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I83" s="66" t="s">
+      <c r="I85" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="54"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="50"/>
-      <c r="F84" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G84" s="56"/>
-      <c r="H84" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="I84" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
-      <c r="P84" s="69"/>
-      <c r="Q84" s="69"/>
-      <c r="R84" s="69"/>
-      <c r="S84" s="69"/>
-      <c r="T84" s="56"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="51"/>
-      <c r="F85" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="G85" s="58"/>
-      <c r="H85" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I85" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="58"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="57"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F86" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="F81:G82"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="I58:T58"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
     <mergeCell ref="E80:E85"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="E61:E79"/>
@@ -4335,22 +6961,45 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F70:G71"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="I58:T58"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="F81:G82"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I80:T80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4373,46 +7022,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -4442,24 +7091,24 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
+      <c r="E8" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -4467,24 +7116,24 @@
       </c>
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
+      <c r="E10" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -4507,53 +7156,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4598,10 +7247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AD9"/>
+  <dimension ref="B3:AE9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4617,228 +7266,236 @@
     <col min="12" max="13" width="14.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B3" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="100" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="83" t="s">
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-    </row>
-    <row r="4" spans="2:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="100"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+    </row>
+    <row r="4" spans="2:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" s="94"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="W4" s="94"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="104"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="AC5" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="AD5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="86"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC5" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -4850,10 +7507,10 @@
         <v>127.12309999999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -4867,29 +7524,30 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="85">
+      <c r="S6" s="17"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="94">
         <v>1</v>
       </c>
-      <c r="W6" s="86"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="21"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="22"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AE6" s="21"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -4912,37 +7570,38 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="S7" s="1"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA7" s="1">
         <v>1</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>4</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD7" s="1">
         <v>2</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -4963,25 +7622,26 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="9"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -5000,43 +7660,45 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W7:Y7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5044,8 +7706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5056,13 +7718,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -5070,10 +7732,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -5081,10 +7743,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -5092,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -5103,10 +7765,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -5114,10 +7776,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -5125,10 +7787,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -5136,10 +7798,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -5147,10 +7809,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -5158,10 +7820,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -5169,10 +7831,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -5180,10 +7842,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -5191,10 +7853,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -5202,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -5213,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -5224,10 +7886,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -5235,10 +7897,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -5246,10 +7908,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -5257,10 +7919,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -5268,10 +7930,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -5279,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -5290,10 +7952,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -5301,10 +7963,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -5312,10 +7974,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -5323,10 +7985,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -5334,10 +7996,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -5345,10 +8007,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -5356,10 +8018,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -5367,10 +8029,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -5378,10 +8040,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -5389,10 +8051,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -5400,10 +8062,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -5411,10 +8073,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -5422,10 +8084,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -5433,10 +8095,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -5444,10 +8106,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -5455,10 +8117,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -5466,10 +8128,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -5477,10 +8139,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -5488,10 +8150,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -5499,10 +8161,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -5510,10 +8172,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -5521,10 +8183,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -5532,10 +8194,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -5543,10 +8205,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -5554,10 +8216,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -5565,10 +8227,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -5576,10 +8238,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -5587,10 +8249,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -5598,10 +8260,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -5609,10 +8271,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -5620,10 +8282,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -5631,10 +8293,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -5642,10 +8304,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -5653,10 +8315,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -5664,10 +8326,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -5675,10 +8337,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -5686,10 +8348,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -853,6 +853,63 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>인식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시될</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>실제</t>
         </r>
         <r>
@@ -2681,6 +2738,1896 @@
             <charset val="129"/>
           </rPr>
           <t>세번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택했을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+dateType2(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방명록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성공</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+dateType2(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방명록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실패</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+dateType3(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>특별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> VPS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이벤트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활성화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>될</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다
+자세한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> VPS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연출</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참고</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>텍스트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+플레이어가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택했을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>텍스트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기재한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+1: Like
+2: Hate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KGA_23:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"char"sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>항목을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한다
+플레이어가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두번째</t>
         </r>
         <r>
           <rPr>
@@ -3002,7 +4949,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="250">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3163,19 +5110,807 @@
     <t>charID</t>
   </si>
   <si>
+    <t xml:space="preserve">첫번째 선택지의 3D GUI 에셋 파일명을 기입한다 / 파일명: ???  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 선택지의 Type을 기재한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 1 = Like / 2 = Hate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">▶ 세부 설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char 인덱스를 순서대로 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 실제 주소를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 표정과 모션 칼럼 같은 경우 향후 캐릭터 표정, 모션 기획에 따라 사라지거나 추가될 수 있음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docu_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docu_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "스테이지" 에 대한 기획의도 및 전체적인 시스템적 개념을 정의하고, 해당 문서에 대한 sheet 및 칼럼 설명을 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 "스테이지" 에 대한 컨셉, 스토리, 플로우를 정리한 기획서. 현재 1차 프로토타입까지만 갱신한 상태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상황별 필요한 캐릭터 대사, 모션, 표정을 칼럼 형식으로 정리한 시스템 기획서. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물들이 구성을 이루어 스테이지가 되고, 그 스테이지가 모여서 챕터가 된다. 아래 예시 그림 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">코인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트가 포함되어 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상호작용, 돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"event" sheet 中 ID 항목을 기입한다. 스테이지 내 event 발생 순서대로 기재한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 or 경로 이동 상호작용의 유형을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1= 취향 맞추기 / 2 = 방명록 / 3= 특별 VPS 이벤트 / 4= 캐릭터와 대화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"char"sheet 중 ID 항목을 기입한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">첫번째 선택지의 3D GUI 에셋 파일명을 기입한다 / 파일명: ???  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫번째 선택지의 Type을 기재한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ 1 = Like / 2 = Hate</t>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용/이벤트가 시작했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용/이벤트가 끝났을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_CharID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType4(캐릭터 대화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 발생 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/끝 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것 처럼 밝아졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마치 다른 세상에 온 것 처럼…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야~ 내가 왔는데 멍때리기나하고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 다시 돌아간다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐아냐! 그게 아니라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(너무 이뻐서 멍때리고 본건데… 이런 부끄러운 말을 어떻게 해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(민망함에 거짓말을 해버렸다…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은? 아직도 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴… 다행이다. 큰일날뻔했네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… …저쪽에 말벌이 나타나서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 그럼 오늘은 그냥 집에가서 쉬는게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜 괜찮아! 집에 안가도 괜찮아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 우리 첫 데이트잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아? 어디 아픈거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 꺄악!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나는 끝까지 심한게 아니라며 고집을 부렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침부터 두통이 조금 있었거든. 하지만 심한건 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 설득끝에 약국에 먼저 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…있잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까는 말벌때문에 정신이 없었다지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 말도 안해줄거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 열심히 머리를 굴렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시… 새로 산 옷이야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 알아볼줄 알았는데, 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정답이었나보다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야, 못 보던 옷 같았거든… 잘어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 잘 어울린단말 듣고 싶었거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다음엔… 이,이쁘다는 말부터 해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한걸까…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안, 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 아니, 아니야. 그런게 아니라….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 내가 말한건… 그게… 그러니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한참을 망설이더니 조용히 말했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사를 진행하는 주체를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T= 플레이어 / F = 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage 인덱스를 순서대로 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 산 옷이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bad_charID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3183,131 +5918,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>▶ 개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">▶ 세부 설명 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소개 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char 인덱스를 순서대로 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 실제 주소를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 표정과 모션 칼럼 같은 경우 향후 캐릭터 표정, 모션 기획에 따라 사라지거나 추가될 수 있음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docu_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docu_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "스테이지" 에 대한 기획의도 및 전체적인 시스템적 개념을 정의하고, 해당 문서에 대한 sheet 및 칼럼 설명을 진행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 "스테이지" 에 대한 컨셉, 스토리, 플로우를 정리한 기획서. 현재 1차 프로토타입까지만 갱신한 상태.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상황별 필요한 캐릭터 대사, 모션, 표정을 칼럼 형식으로 정리한 시스템 기획서. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물들이 구성을 이루어 스테이지가 되고, 그 스테이지가 모여서 챕터가 된다. 아래 예시 그림 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">코인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스테이지에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트가 포함되어 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상호작용, 돌발 이벤트에 필요한 내용을 칼럼 형식으로 정리한 시스템 기획서. 이벤트 탸입 정의와 타입에 따른 정보가 포함되어 있다  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"event" sheet 中 ID 항목을 기입한다. 스테이지 내 event 발생 순서대로 기재한다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 or 경로 이동 상호작용의 유형을 기입한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T = 미니맵 표시 / F = 미니맵 비표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1= 취향 맞추기 / 2 = 방명록 / 3= 특별 VPS 이벤트 / 4= 캐릭터와 대화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용/이벤트가 시작했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용/이벤트가 끝났을 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_2_charID</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType3(특별 VPS 이벤트) 가 활성화 될 때 10초 동안 출력되는 캐릭터 대사를 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 성공 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3315,663 +5934,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date_4_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(방명록 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(캐릭터 대화) 가 활성화 될 때 출력되는 캐릭터 대사/표정/모션을 지정한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose1_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_CharID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrsss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType4(캐릭터 대화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 발생 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화랑 어린이 공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 431-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X/Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작/끝 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 생각 해?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것 처럼 밝아졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(마치 다른 세상에 온 것 처럼…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야~ 내가 왔는데 멍때리기나하고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 다시 돌아간다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐아냐! 그게 아니라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(너무 이뻐서 멍때리고 본건데… 이런 부끄러운 말을 어떻게 해!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(민망함에 거짓말을 해버렸다…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은? 아직도 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴… 다행이다. 큰일날뻔했네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>… …저쪽에 말벌이 나타나서…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 그럼 오늘은 그냥 집에가서 쉬는게…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐, 진짜 괜찮아! 집에 안가도 괜찮아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 우리 첫 데이트잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아? 어디 아픈거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 꺄악!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나는 끝까지 심한게 아니라며 고집을 부렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침부터 두통이 조금 있었거든. 하지만 심한건 아니야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 설득끝에 약국에 먼저 가자고 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…있잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까는 말벌때문에 정신이 없었다지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 말도 안해줄거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 산 옷이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 열심히 머리를 굴렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시… 새로 산 옷이야…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못 알아볼줄 알았는데, 어떻게 알았어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정답이었나보다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그야, 못 보던 옷 같았거든… 잘어울린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워. 잘 어울린단말 듣고 싶었거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 다음엔… 이,이쁘다는 말부터 해줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한걸까…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안, 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐? 아니, 아니야. 그런게 아니라….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 내가 말한건… 그게… 그러니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(한참을 망설이더니 조용히 말했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사를 진행하는 주체를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T= 플레이어 / F = 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage 인덱스를 순서대로 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3</t>
+    <t>choose_1_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(캐릭터 대화) 가 활성화 될 때 첫번째 선택지의 텍스트 내용을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 실패 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4708,21 +6683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -4838,13 +6798,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4938,21 +6907,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4962,212 +7087,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5864,10 +7851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:V86"/>
+  <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5877,50 +7864,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -6071,7 +8058,7 @@
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6101,7 +8088,7 @@
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6130,805 +8117,885 @@
     </row>
     <row r="49" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="58" t="s">
+      <c r="E50" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="84"/>
-      <c r="G51" s="59" t="s">
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+    </row>
+    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+    </row>
+    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+    </row>
+    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="49"/>
+      <c r="G54" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+    </row>
+    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-    </row>
-    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="84"/>
-      <c r="G52" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
-    </row>
-    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="84"/>
-      <c r="G53" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
-    </row>
-    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="84"/>
-      <c r="G54" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
-    </row>
-    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="84"/>
-      <c r="G55" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="71"/>
+      <c r="F58" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="42"/>
       <c r="H58" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="81"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="71"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="42"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="66" t="s">
+      <c r="E59" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="77" t="s">
+      <c r="F59" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="48"/>
+      <c r="G59" s="45"/>
       <c r="H59" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="48"/>
+        <v>103</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="45"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="69"/>
-      <c r="F60" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" s="65"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="54"/>
       <c r="H60" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="54"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="48"/>
+      <c r="H61" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="48"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="57"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="39"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="57"/>
+      <c r="F63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="39"/>
+      <c r="H63" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="65"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="66" t="s">
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="39"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="57"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="39"/>
+    </row>
+    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="57"/>
+      <c r="F65" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I61" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="62"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="68"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="42"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="68"/>
-      <c r="F63" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="42"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="68"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="42"/>
-    </row>
-    <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="68"/>
-      <c r="F65" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="42"/>
+        <v>105</v>
+      </c>
+      <c r="I65" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="39"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="68"/>
-      <c r="F66" s="60" t="s">
+      <c r="E66" s="57"/>
+      <c r="F66" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="39"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="57"/>
+      <c r="F67" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="39"/>
+      <c r="H67" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="39"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="57"/>
+      <c r="F68" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="39"/>
+      <c r="H68" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I68" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I66" s="40" t="s">
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="39"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="57"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="39"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="57"/>
+      <c r="F70" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="39"/>
+      <c r="H70" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I70" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="39"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="57"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="80"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="57"/>
+      <c r="F72" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="39"/>
+      <c r="H72" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I72" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="39"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="57"/>
+      <c r="F73" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39"/>
+      <c r="H73" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="I73" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="39"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="57"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="39"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="57"/>
+      <c r="F75" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="39"/>
+      <c r="H75" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I75" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="42"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="68"/>
-      <c r="F67" s="60" t="s">
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="39"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="57"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="39"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="57"/>
+      <c r="F77" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" s="39"/>
+      <c r="H77" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="52"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="39"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="57"/>
+      <c r="F78" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" s="39"/>
+      <c r="H78" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="79"/>
+      <c r="P78" s="79"/>
+      <c r="Q78" s="79"/>
+      <c r="R78" s="79"/>
+      <c r="S78" s="79"/>
+      <c r="T78" s="80"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="112"/>
+      <c r="F79" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="G79" s="80"/>
+      <c r="H79" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="I79" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="32"/>
+    </row>
+    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="58"/>
+      <c r="F80" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" s="67"/>
+      <c r="H80" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="J80" s="81"/>
+      <c r="K80" s="81"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="81"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="81"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="81"/>
+      <c r="S80" s="81"/>
+      <c r="T80" s="82"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="45"/>
+      <c r="H81" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="42"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="68"/>
-      <c r="F68" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="42"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="68"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="42"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="68"/>
-      <c r="F70" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" s="42"/>
-      <c r="H70" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I70" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="41"/>
-      <c r="T70" s="42"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="68"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="33"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="68"/>
-      <c r="F72" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="42"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="68"/>
-      <c r="F73" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I73" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="42"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="68"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="41"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="42"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="68"/>
-      <c r="F75" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="I75" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="42"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="68"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="42"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="68"/>
-      <c r="F77" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" s="42"/>
-      <c r="H77" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="42"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="68"/>
-      <c r="F78" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I78" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="33"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="69"/>
-      <c r="F79" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" s="76"/>
-      <c r="H79" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I79" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="44"/>
-    </row>
-    <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="48"/>
-      <c r="H80" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I80" s="46" t="s">
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="45"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="56"/>
+      <c r="F82" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="G82" s="88"/>
+      <c r="H82" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="I82" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
+      <c r="O82" s="79"/>
+      <c r="P82" s="79"/>
+      <c r="Q82" s="79"/>
+      <c r="R82" s="79"/>
+      <c r="S82" s="79"/>
+      <c r="T82" s="80"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="56"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="79"/>
+      <c r="Q83" s="79"/>
+      <c r="R83" s="79"/>
+      <c r="S83" s="79"/>
+      <c r="T83" s="80"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="57"/>
+      <c r="F84" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="61"/>
+      <c r="H84" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="74"/>
+      <c r="S84" s="74"/>
+      <c r="T84" s="61"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="57"/>
+      <c r="F85" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="63"/>
+      <c r="H85" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
+      <c r="P85" s="76"/>
+      <c r="Q85" s="76"/>
+      <c r="R85" s="76"/>
+      <c r="S85" s="76"/>
+      <c r="T85" s="63"/>
+    </row>
+    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="58"/>
+      <c r="F86" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="65"/>
+      <c r="H86" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+      <c r="O86" s="78"/>
+      <c r="P86" s="78"/>
+      <c r="Q86" s="78"/>
+      <c r="R86" s="78"/>
+      <c r="S86" s="78"/>
+      <c r="T86" s="65"/>
+    </row>
+    <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="48"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="67"/>
-      <c r="F81" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="I81" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="33"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="67"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="33"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="68"/>
-      <c r="F83" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="G83" s="51"/>
-      <c r="H83" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I83" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
-      <c r="Q83" s="50"/>
-      <c r="R83" s="50"/>
-      <c r="S83" s="50"/>
-      <c r="T83" s="51"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="68"/>
-      <c r="F84" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="54"/>
-      <c r="H84" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I84" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="53"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="54"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="69"/>
-      <c r="F85" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" s="57"/>
-      <c r="H85" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I85" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="57"/>
-    </row>
-    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F86" s="7" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="72">
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E80"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F68:G69"/>
     <mergeCell ref="I58:T58"/>
@@ -6945,61 +9012,6 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="E80:E85"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E79"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="F81:G82"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I80:T80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7022,46 +9034,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -7091,24 +9103,24 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
+      <c r="E8" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -7116,24 +9128,24 @@
       </c>
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
+      <c r="E10" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -7163,46 +9175,46 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="B2" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -7247,10 +9259,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AE9"/>
+  <dimension ref="B3:AD9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7269,233 +9281,235 @@
     <col min="17" max="17" width="14.375" customWidth="1"/>
     <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" s="100"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-    </row>
-    <row r="4" spans="2:31" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="108"/>
+      <c r="K3" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="U3" s="102"/>
+      <c r="V3" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+    </row>
+    <row r="4" spans="2:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="T4" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" s="104"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="V4" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="105"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="22" t="s">
-        <v>190</v>
+        <v>75</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="V5" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="98"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE5" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -7507,10 +9521,10 @@
         <v>127.12309999999999</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -7527,27 +9541,26 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="94">
+      <c r="T6" s="110"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="97">
         <v>1</v>
       </c>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="22"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -7571,37 +9584,36 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="9" t="s">
-        <v>200</v>
+      <c r="T7" s="110"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
         <v>4</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>203</v>
+      <c r="AB7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
       </c>
       <c r="AD7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -7623,25 +9635,24 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="9"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -7661,39 +9672,32 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="9"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="W9:Y9"/>
+  <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
     <mergeCell ref="K3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7706,8 +9710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7718,13 +9722,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -7732,10 +9736,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -7743,10 +9747,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -7754,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -7765,10 +9769,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -7776,10 +9780,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -7787,10 +9791,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -7798,10 +9802,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -7809,10 +9813,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -7820,10 +9824,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -7831,10 +9835,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -7842,10 +9846,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -7853,10 +9857,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -7864,10 +9868,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -7875,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -7886,10 +9890,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -7897,10 +9901,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -7908,10 +9912,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -7919,10 +9923,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -7930,10 +9934,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -7941,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -7952,10 +9956,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -7963,10 +9967,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -7974,10 +9978,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -7985,10 +9989,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -7996,10 +10000,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -8007,10 +10011,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -8018,10 +10022,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -8029,10 +10033,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -8040,10 +10044,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -8051,10 +10055,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -8062,10 +10066,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -8073,10 +10077,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -8084,10 +10088,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -8095,10 +10099,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -8106,10 +10110,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -8117,10 +10121,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -8128,10 +10132,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -8139,10 +10143,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -8150,10 +10154,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -8161,10 +10165,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -8172,10 +10176,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -8183,10 +10187,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -8194,10 +10198,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -8205,10 +10209,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -8216,10 +10220,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -8227,10 +10231,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -8238,10 +10242,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -8249,10 +10253,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -8260,10 +10264,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -8271,10 +10275,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -8282,10 +10286,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -8293,10 +10297,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -8304,10 +10308,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -8315,10 +10319,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -8326,10 +10330,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -8337,10 +10341,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -8348,10 +10352,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -4949,7 +4949,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="254">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5947,6 +5947,22 @@
   </si>
   <si>
     <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 실패 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새봄 약국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야 커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 올림픽로 665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 올림픽로 663</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6922,171 +6938,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7099,30 +7127,39 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7134,27 +7171,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7853,7 +7869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7864,50 +7880,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -8121,136 +8137,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50" t="s">
+      <c r="F50" s="67"/>
+      <c r="G50" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="72" t="s">
+      <c r="F51" s="93"/>
+      <c r="G51" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="72" t="s">
+      <c r="F52" s="93"/>
+      <c r="G52" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="72" t="s">
+      <c r="F53" s="93"/>
+      <c r="G53" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72"/>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="72" t="s">
+      <c r="F54" s="93"/>
+      <c r="G54" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="72" t="s">
+      <c r="F55" s="93"/>
+      <c r="G55" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -8261,170 +8277,170 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="42"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="42"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="80"/>
     </row>
     <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="G59" s="45"/>
+      <c r="G59" s="53"/>
       <c r="H59" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="45"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="53"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="58"/>
-      <c r="F60" s="53" t="s">
+      <c r="E60" s="77"/>
+      <c r="F60" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="G60" s="54"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I60" s="70" t="s">
+      <c r="I60" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="54"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="73"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="74" t="s">
         <v>110</v>
       </c>
       <c r="F61" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="83" t="s">
+      <c r="G61" s="70"/>
+      <c r="H61" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="48"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="92"/>
+      <c r="N61" s="92"/>
+      <c r="O61" s="92"/>
+      <c r="P61" s="92"/>
+      <c r="Q61" s="92"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="92"/>
+      <c r="T61" s="70"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="57"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="51" t="s">
+      <c r="E62" s="76"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="39"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="50"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="57"/>
-      <c r="F63" s="38" t="s">
+      <c r="E63" s="76"/>
+      <c r="F63" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="85" t="s">
+      <c r="G63" s="50"/>
+      <c r="H63" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="I63" s="51" t="s">
+      <c r="I63" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="39"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="50"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="57"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="51" t="s">
+      <c r="E64" s="76"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="39"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="50"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="57"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="10" t="s">
         <v>120</v>
       </c>
@@ -8432,506 +8448,506 @@
       <c r="H65" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="39"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="50"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="57"/>
-      <c r="F66" s="38" t="s">
+      <c r="E66" s="76"/>
+      <c r="F66" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="39"/>
+      <c r="G66" s="50"/>
       <c r="H66" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I66" s="51" t="s">
+      <c r="I66" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="39"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="50"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="57"/>
-      <c r="F67" s="38" t="s">
+      <c r="E67" s="76"/>
+      <c r="F67" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="G67" s="39"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I67" s="51" t="s">
+      <c r="I67" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="39"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="50"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="57"/>
-      <c r="F68" s="38" t="s">
+      <c r="E68" s="76"/>
+      <c r="F68" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="85" t="s">
+      <c r="G68" s="50"/>
+      <c r="H68" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="I68" s="51" t="s">
+      <c r="I68" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="39"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="50"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="57"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="51" t="s">
+      <c r="E69" s="76"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="39"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="50"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="57"/>
-      <c r="F70" s="38" t="s">
+      <c r="E70" s="76"/>
+      <c r="F70" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="39"/>
-      <c r="H70" s="85" t="s">
+      <c r="G70" s="50"/>
+      <c r="H70" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="I70" s="51" t="s">
+      <c r="I70" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="39"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="50"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="57"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="79" t="s">
+      <c r="E71" s="76"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="79"/>
-      <c r="P71" s="79"/>
-      <c r="Q71" s="79"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="79"/>
-      <c r="T71" s="80"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="41"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="57"/>
-      <c r="F72" s="38" t="s">
+      <c r="E72" s="76"/>
+      <c r="F72" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="39"/>
+      <c r="G72" s="50"/>
       <c r="H72" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I72" s="51" t="s">
+      <c r="I72" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="39"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="50"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="57"/>
-      <c r="F73" s="38" t="s">
+      <c r="E73" s="76"/>
+      <c r="F73" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="39"/>
-      <c r="H73" s="85" t="s">
+      <c r="G73" s="50"/>
+      <c r="H73" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="I73" s="51" t="s">
+      <c r="I73" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="39"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="50"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="57"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="51" t="s">
+      <c r="E74" s="76"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="39"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="50"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="57"/>
-      <c r="F75" s="38" t="s">
+      <c r="E75" s="76"/>
+      <c r="F75" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="85" t="s">
+      <c r="G75" s="50"/>
+      <c r="H75" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I75" s="51" t="s">
+      <c r="I75" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="39"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="50"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="57"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="51" t="s">
+      <c r="E76" s="76"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="39"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
+      <c r="T76" s="50"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="57"/>
-      <c r="F77" s="38" t="s">
+      <c r="E77" s="76"/>
+      <c r="F77" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="G77" s="39"/>
+      <c r="G77" s="50"/>
       <c r="H77" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="39"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="49"/>
+      <c r="T77" s="50"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="57"/>
-      <c r="F78" s="38" t="s">
+      <c r="E78" s="76"/>
+      <c r="F78" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="G78" s="39"/>
+      <c r="G78" s="50"/>
       <c r="H78" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="79" t="s">
+      <c r="I78" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="79"/>
-      <c r="Q78" s="79"/>
-      <c r="R78" s="79"/>
-      <c r="S78" s="79"/>
-      <c r="T78" s="80"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="41"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="112"/>
-      <c r="F79" s="86" t="s">
+      <c r="E79" s="78"/>
+      <c r="F79" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="G79" s="80"/>
+      <c r="G79" s="41"/>
       <c r="H79" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="I79" s="113" t="s">
+      <c r="I79" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="J79" s="113"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="113"/>
-      <c r="M79" s="113"/>
-      <c r="N79" s="113"/>
-      <c r="O79" s="113"/>
-      <c r="P79" s="113"/>
-      <c r="Q79" s="113"/>
-      <c r="R79" s="113"/>
-      <c r="S79" s="113"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
       <c r="T79" s="32"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="58"/>
-      <c r="F80" s="66" t="s">
+      <c r="E80" s="77"/>
+      <c r="F80" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="G80" s="67"/>
+      <c r="G80" s="85"/>
       <c r="H80" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I80" s="81" t="s">
+      <c r="I80" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="J80" s="81"/>
-      <c r="K80" s="81"/>
-      <c r="L80" s="81"/>
-      <c r="M80" s="81"/>
-      <c r="N80" s="81"/>
-      <c r="O80" s="81"/>
-      <c r="P80" s="81"/>
-      <c r="Q80" s="81"/>
-      <c r="R80" s="81"/>
-      <c r="S80" s="81"/>
-      <c r="T80" s="82"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64"/>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="64"/>
+      <c r="R80" s="64"/>
+      <c r="S80" s="64"/>
+      <c r="T80" s="65"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="55" t="s">
+      <c r="E81" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="68" t="s">
+      <c r="F81" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="45"/>
+      <c r="G81" s="53"/>
       <c r="H81" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
-      <c r="T81" s="45"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="52"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
+      <c r="R81" s="52"/>
+      <c r="S81" s="52"/>
+      <c r="T81" s="53"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="56"/>
-      <c r="F82" s="87" t="s">
+      <c r="E82" s="75"/>
+      <c r="F82" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="G82" s="88"/>
-      <c r="H82" s="85" t="s">
+      <c r="G82" s="45"/>
+      <c r="H82" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="I82" s="86" t="s">
+      <c r="I82" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="J82" s="79"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
-      <c r="O82" s="79"/>
-      <c r="P82" s="79"/>
-      <c r="Q82" s="79"/>
-      <c r="R82" s="79"/>
-      <c r="S82" s="79"/>
-      <c r="T82" s="80"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="41"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="56"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="86" t="s">
+      <c r="E83" s="75"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="J83" s="79"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
-      <c r="O83" s="79"/>
-      <c r="P83" s="79"/>
-      <c r="Q83" s="79"/>
-      <c r="R83" s="79"/>
-      <c r="S83" s="79"/>
-      <c r="T83" s="80"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="41"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="57"/>
-      <c r="F84" s="60" t="s">
+      <c r="E84" s="76"/>
+      <c r="F84" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="61"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="73" t="s">
+      <c r="I84" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J84" s="74"/>
-      <c r="K84" s="74"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="74"/>
-      <c r="O84" s="74"/>
-      <c r="P84" s="74"/>
-      <c r="Q84" s="74"/>
-      <c r="R84" s="74"/>
-      <c r="S84" s="74"/>
-      <c r="T84" s="61"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="57"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="57"/>
-      <c r="F85" s="62" t="s">
+      <c r="E85" s="76"/>
+      <c r="F85" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="G85" s="63"/>
+      <c r="G85" s="60"/>
       <c r="H85" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I85" s="75" t="s">
+      <c r="I85" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="76"/>
-      <c r="R85" s="76"/>
-      <c r="S85" s="76"/>
-      <c r="T85" s="63"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="60"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="58"/>
-      <c r="F86" s="64" t="s">
+      <c r="E86" s="77"/>
+      <c r="F86" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="G86" s="65"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I86" s="77" t="s">
+      <c r="I86" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="78"/>
-      <c r="M86" s="78"/>
-      <c r="N86" s="78"/>
-      <c r="O86" s="78"/>
-      <c r="P86" s="78"/>
-      <c r="Q86" s="78"/>
-      <c r="R86" s="78"/>
-      <c r="S86" s="78"/>
-      <c r="T86" s="65"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
+      <c r="O86" s="62"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="62"/>
+      <c r="S86" s="62"/>
+      <c r="T86" s="63"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
@@ -8940,19 +8956,49 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="I58:T58"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E80"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
     <mergeCell ref="G55:T55"/>
     <mergeCell ref="I84:T84"/>
     <mergeCell ref="I85:T85"/>
@@ -8969,49 +9015,19 @@
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="I65:T65"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="E81:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E80"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="I58:T58"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="F79:G79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9034,46 +9050,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -9103,24 +9119,24 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -9128,24 +9144,24 @@
       </c>
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -9169,19 +9185,19 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
@@ -9261,8 +9277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9271,7 +9287,7 @@
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
@@ -9292,47 +9308,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="100" t="s">
+      <c r="J3" s="101"/>
+      <c r="K3" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="103" t="s">
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="U3" s="102"/>
-      <c r="V3" s="109" t="s">
+      <c r="U3" s="99"/>
+      <c r="V3" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="107"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="95" t="s">
+      <c r="W3" s="100"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
     </row>
     <row r="4" spans="2:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -9395,11 +9411,11 @@
       <c r="U4" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="105"/>
-      <c r="X4" s="106"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113"/>
       <c r="Y4" s="23" t="s">
         <v>92</v>
       </c>
@@ -9480,11 +9496,11 @@
       <c r="U5" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="V5" s="97" t="s">
+      <c r="V5" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="98"/>
-      <c r="X5" s="99"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="105"/>
       <c r="Y5" s="22" t="s">
         <v>246</v>
       </c>
@@ -9515,10 +9531,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>37.54</v>
+        <v>37.540004000000003</v>
       </c>
       <c r="F6" s="1">
-        <v>127.12309999999999</v>
+        <v>127.1231123</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>117</v>
@@ -9541,13 +9557,13 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="97">
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="103">
         <v>1</v>
       </c>
-      <c r="W6" s="98"/>
-      <c r="X6" s="99"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="105"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
@@ -9584,11 +9600,11 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="99"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="105"/>
       <c r="Y7" s="9" t="s">
         <v>232</v>
       </c>
@@ -9618,10 +9634,18 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1">
+        <v>37.540762000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>127.12388799999999</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="I8" s="21">
         <v>7</v>
       </c>
@@ -9635,11 +9659,11 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="99"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="105"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -9657,10 +9681,18 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="1">
+        <v>37.540891000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>127.12374699999999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="9"/>
@@ -9672,11 +9704,11 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="99"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="105"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -9686,11 +9718,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
@@ -9698,6 +9725,11 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="V5:X5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -429,7 +429,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 4</t>
+          <t xml:space="preserve"> 6</t>
         </r>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 4</t>
+          <t xml:space="preserve"> 6</t>
         </r>
         <r>
           <rPr>
@@ -1059,7 +1059,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>끝났을</t>
+          <t>시작할</t>
         </r>
         <r>
           <rPr>
@@ -1599,7 +1599,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선택지의</t>
+          <t>선택지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향</t>
         </r>
         <r>
           <rPr>
@@ -2083,45 +2140,83 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>두</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지의</t>
+          <t>두번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향</t>
         </r>
         <r>
           <rPr>
@@ -2596,7 +2691,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선택지의</t>
+          <t>선택지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향</t>
         </r>
         <r>
           <rPr>
@@ -3973,7 +4125,64 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>선택지의</t>
+          <t>선택지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향</t>
         </r>
         <r>
           <rPr>
@@ -4448,45 +4657,83 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>두</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지의</t>
+          <t>두번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>취향</t>
         </r>
         <r>
           <rPr>
@@ -4949,7 +5196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="383">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5114,10 +5361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">첫번째 선택지의 Type을 기재한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴ 1 = Like / 2 = Hate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5282,171 +5525,663 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addrsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType4(캐릭터 대화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 발생 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/끝 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 다시 돌아간다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(민망함에 거짓말을 해버렸다…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은? 아직도 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… …저쪽에 말벌이 나타나서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 우리 첫 데이트잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…있잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 열심히 머리를 굴렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시… 새로 산 옷이야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한참을 망설이더니 조용히 말했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사를 진행하는 주체를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T= 플레이어 / F = 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage 인덱스를 순서대로 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 산 옷이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bad_charID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 첫번째 선택지를 선택했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType3(특별 VPS 이벤트) 가 활성화 될 때 10초 동안 출력되는 캐릭터 대사를 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 성공 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(캐릭터 대화) 가 활성화 될 때 첫번째 선택지의 텍스트 내용을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 실패 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새봄 약국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야 커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 올림픽로 665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 올림픽로 663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(근처에 있던 약국에 도착했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(두통이 다시 심해졌는지 하나의 표정이 좋지 않다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… ….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나야 여기 앉아서 기다려! 내가 얼른 약 사올게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>start_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addrsss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType4(캐릭터 대화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 발생 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화랑 어린이 공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 431-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X/Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">첫번째 선택지에 대한 하나의 취향 Type을 기재한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(약국에 들어가자마자 보인 붕대를 사서 나왔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(머리를 꽉 잡아주면 두통이 멈춘다는 글을 인터넷에서 본 것 같아!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>풉!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 진지하게 설명을 시작하자 하나가 작게 웃었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <t>하나야, 내가 인터넷에서 봤는데 붕대는 잘만 사용하면 두통부터 골절까지 만병통치약으로 사용할 수 있는….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러더니 한참을 즐겁게 웃었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5454,51 +6189,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작/끝 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
+    <t>으, 응!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(진통제…! 난 약국에 들어가자마자 진통제를 사서 나왔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5510,11 +6213,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그 말을 듣자 가슴이 콩닥콩닥 뛰었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(편하게 웃는 하나의 얼굴을 보니 마음이 놓였다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5522,83 +6229,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>안약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(안약을 본 하나는 화를 참는 듯 입을 꾹 다물었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두통인 것 정도는 기억해주지….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(약을 먹은 하나는 두통이 가라앉았는지 근처의 카페에 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(우리는 금방 근처 카페에 도착했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신, 음료는 내 맘대로 고른다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 내가 추천하는 커피야. 빨리 마셔봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(복잡했던 주문에 비해 커피는 생각보다 금방 나왔다. 하나가 나에게 한 잔 내밀었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나의 재촉에 재빨리 마셔본 커피는 너무너무 뜨거웠지만…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나몬 향이 은은하게 퍼지는 부드러운 맛이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때? 네 취향일 것 같아서 사주고 싶었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치? 너 여전히 시나몬 좋아하는구나. 다행이다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미있는 사연을 적어두면 추첨을 통해 여행 상품권을 준대. 재밌겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(재미있어 보이긴 하지만… 딱히 쓸 말도 없고 귀찮기도 하고…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 포스트잇을 내려놓았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 실망한 눈치였다. 이런걸… 좋아하는 건가..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(벽에 포스트잇을 붙이고 나니까 부끄러움이 몰려왔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알록달록한 포스트잇이 모여있으니까 너무 귀엽다~!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이러다 막 진짜로 당첨되면 어쩌지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※GPS오차 범위를 감안하여 ±3m를 오차 범위로 지정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(우리는 카페를 나섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 묻자 하나가 묘한 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄, 어떻게 알았을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내 오랜 친구들도 잘 모르는 사실인데…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭐, 앞으로 천천히 알아가면 되겠지.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나와의 연애는 이제 시작이니까…!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호동 문구완구거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>무슨 생각 해?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것 처럼 밝아졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(마치 다른 세상에 온 것 처럼…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야~ 내가 왔는데 멍때리기나하고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 다시 돌아간다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐아냐! 그게 아니라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(너무 이뻐서 멍때리고 본건데… 이런 부끄러운 말을 어떻게 해!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(민망함에 거짓말을 해버렸다…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은? 아직도 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴… 다행이다. 큰일날뻔했네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
+    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것처럼 밝아졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마치 다른 세상에 온 것처럼…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야~ 내가 왔는데 멍때리기나 하고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 아냐! 그게 아니라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(너무 이뻐서 멍때리고 본 건데… 이런 부끄러운 말을 어떻게 해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 꺄악!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴… 다행이다. 큰일 날뻔했네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5606,103 +6461,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>… …저쪽에 말벌이 나타나서…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 그럼 오늘은 그냥 집에가서 쉬는게…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐, 진짜 괜찮아! 집에 안가도 괜찮아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 우리 첫 데이트잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아? 어디 아픈거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 꺄악!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나는 끝까지 심한게 아니라며 고집을 부렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침부터 두통이 조금 있었거든. 하지만 심한건 아니야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 설득끝에 약국에 먼저 가자고 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…있잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까는 말벌때문에 정신이 없었다지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 말도 안해줄거야?</t>
+    <t>괜찮아? 어디 아픈 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침부터 두통이 조금 있었거든. 하지만 심한 건 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 그럼 오늘은 그냥 집에 가서 쉬는 게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜 괜찮아! 집에 안 가도 괜찮아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나는 끝까지 심한 게 아니라며 고집을 부렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 설득 끝에 약국에 먼저 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까는 말벌 때문에 정신이 없었다지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 말도 안 해줄 거야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5710,91 +6501,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 열심히 머리를 굴렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시… 새로 산 옷이야…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못 알아볼줄 알았는데, 어떻게 알았어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정답이었나보다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그야, 못 보던 옷 같았거든… 잘어울린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워. 잘 어울린단말 듣고 싶었거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 다음엔… 이,이쁘다는 말부터 해줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한걸까…?)</t>
+    <t>못 알아볼 줄 알았는데, 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정답이었나보다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야, 못 보던 옷 같았거든… 잘 어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 잘 어울린단 말 듣고 싶었거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다음엔… 이, 이쁘다는 말부터 해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한 걸까…?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5802,23 +6533,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐? 아니, 아니야. 그런게 아니라….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
+    <t>뭐? 아니, 아니야. 그런 게 아니라….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 내가 말한 건… 그게… 그러니까….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5830,139 +6549,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 내가 말한건… 그게… 그러니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(한참을 망설이더니 조용히 말했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사를 진행하는 주체를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T= 플레이어 / F = 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage 인덱스를 순서대로 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 산 옷이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>good_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bad_charID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>good_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어가 첫번째 선택지를 선택했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType3(특별 VPS 이벤트) 가 활성화 될 때 10초 동안 출력되는 캐릭터 대사를 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 성공 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(캐릭터 대화) 가 활성화 될 때 첫번째 선택지의 텍스트 내용을 기입한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 실패 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새봄 약국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이디야 커피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 올림픽로 665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 올림픽로 663</t>
+    <t>(뭘 사갈까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(힘없이 웃는 하나를 뒤로 하고 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕대를… 사 온 거야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 황당한 얼굴로 붕대를 내려다봤다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 나 웃기려고 붕대로 사 온 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸하하하…!! 이렇게 황당하고 웃긴 적은 처음이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이렇게 웃어줄 줄은 몰랐지만 하나가 웃자 나도 기분이 좋았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하하… 아~ 정말 넌 재밌다니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 머리는 계속 아프니까 이번엔 제대로 진통제로 사 와줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 다시 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 내가 사 온 약을 바로 먹고 안심한 표정을 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 이렇게 빨리 사다 주다니. 그렇게 빨리 뛰어가는 건 처음 봤어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야. 또…필요한 거 있으면 언제든 말해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어. 이제 무슨 일 있어도 네가 있으니까 안심된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그래도 이번 데이트.. 꽤 잘하고 있는 게 아닐까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 약국에 뛰어 들어가서… 어라, 뭘 사려고 했더라?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(에라이, 이거라도 사 가자!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아무거나 집어서 사 온 것은…안약이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안약을… 사 온 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하…있잖아 정신없이 약국에 들어갔더니 아무것도 기억이 안 나는 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 아무거나 집어 왔더니…웃기지? 하하하하하하하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런, 기분이 많이 안 좋아 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안미안~ 이번엔 꼭 잊지 말고! 두통약으로 사 올게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 다시 진통제를 사러 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아파도 이번에 나온 신메뉴를 꼭 먹어야 한다면서…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국에서 약 사다 줬으니까 이번엔 내가 살게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 대답도 하기 전에 하나는 계산대로 갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(길고 복잡하고 난생처음 보는 커피 이름이 지나갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 마법 주문을 외우는 건지 커피를 주문하는 건지…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와 정말 맛있다…! 이런 커피는 처음 마셔봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(응…? 그런데 내가 하나한테 시나몬 좋아한다고 말한 적이 있던가…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와, 여기 봐! 카페에서 이벤트 중인가 봐…! 우리도 참여하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고민 중이던 나를 하나는 한쪽 벽으로 이끌었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그곳엔 포스트잇이 잔뜩 붙어있었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨될 확률도 낮을 텐데… 굳이 참여할 필요가 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래…? 그래도 재밌어 보이는데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런 바보 같은 이벤트에 참여하다니. 당첨될 확률도 거의 없는데…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~ 오랜만에 여행 떠나고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 어딜 여행 가고 싶은지 즐겁게 떠들기 시작했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(바보 같은 이벤트지만 하나의 이런 모습을 볼 수 있다면 참여할 가치가 있었는걸...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데… 하나야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 왜 불러?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 시나몬 좋아한다는 건 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 알려주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(벙찐 표정의 내가 웃긴 건지 하나는 알려줄 생각이 없어 보였다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5970,6 +6733,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6829,7 +7595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6946,6 +7712,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -7869,8 +8653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7880,50 +8664,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -8074,7 +8858,7 @@
     </row>
     <row r="26" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8104,7 +8888,7 @@
     </row>
     <row r="32" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8133,643 +8917,643 @@
     </row>
     <row r="49" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="93" t="s">
+      <c r="E51" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="99"/>
+      <c r="G51" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+    </row>
+    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="54" t="s">
+      <c r="F52" s="99"/>
+      <c r="G52" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-    </row>
-    <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="54" t="s">
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+    </row>
+    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="99"/>
+      <c r="G53" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+    </row>
+    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="99"/>
+      <c r="G54" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+    </row>
+    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="99"/>
+      <c r="G55" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-    </row>
-    <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="93"/>
-      <c r="G53" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-    </row>
-    <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="93"/>
-      <c r="G54" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-    </row>
-    <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" s="80"/>
+      <c r="F58" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="86"/>
       <c r="H58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="86"/>
+    </row>
+    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="59"/>
+      <c r="H59" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="59"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="83"/>
+      <c r="F60" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="79"/>
+      <c r="H60" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="79"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="76"/>
+      <c r="H61" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="80"/>
-    </row>
-    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="53"/>
-      <c r="H59" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="53"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="77"/>
-      <c r="F60" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G60" s="73"/>
-      <c r="H60" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="71" t="s">
+      <c r="I61" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" s="98"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="98"/>
+      <c r="P61" s="98"/>
+      <c r="Q61" s="98"/>
+      <c r="R61" s="98"/>
+      <c r="S61" s="98"/>
+      <c r="T61" s="76"/>
+    </row>
+    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="82"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="56"/>
+    </row>
+    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="82"/>
+      <c r="F63" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="73"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="69" t="s">
+      <c r="G63" s="56"/>
+      <c r="H63" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="56"/>
+    </row>
+    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="82"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="70"/>
-      <c r="H61" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="I61" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61" s="92"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="92"/>
-      <c r="M61" s="92"/>
-      <c r="N61" s="92"/>
-      <c r="O61" s="92"/>
-      <c r="P61" s="92"/>
-      <c r="Q61" s="92"/>
-      <c r="R61" s="92"/>
-      <c r="S61" s="92"/>
-      <c r="T61" s="70"/>
-    </row>
-    <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="76"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="50"/>
-    </row>
-    <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="76"/>
-      <c r="F63" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" s="50"/>
-      <c r="H63" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I63" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="50"/>
-    </row>
-    <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="76"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="50"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="76"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="56"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="82"/>
+      <c r="F66" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="56"/>
+      <c r="H66" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="56"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="82"/>
+      <c r="F67" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="56"/>
+      <c r="H67" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="56"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="82"/>
+      <c r="F68" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="56"/>
+      <c r="H68" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="56"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="82"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="56"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="82"/>
+      <c r="F70" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="56"/>
+      <c r="H70" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="56"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="82"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="47"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="82"/>
+      <c r="F72" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="56"/>
+      <c r="H72" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="56"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="82"/>
+      <c r="F73" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="56"/>
+      <c r="H73" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="56"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="82"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="56"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="82"/>
+      <c r="F75" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="56"/>
+      <c r="H75" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="I65" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="50"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="76"/>
-      <c r="F66" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="50"/>
-      <c r="H66" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="50"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="76"/>
-      <c r="F67" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="50"/>
-      <c r="H67" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I67" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="50"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="76"/>
-      <c r="F68" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="50"/>
-      <c r="H68" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I68" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="50"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="76"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="50"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="76"/>
-      <c r="F70" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" s="50"/>
-      <c r="H70" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I70" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="50"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="76"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="41"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="76"/>
-      <c r="F72" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="50"/>
-      <c r="H72" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I72" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="50"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="76"/>
-      <c r="F73" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="50"/>
-      <c r="H73" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I73" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="50"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="76"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="50"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="76"/>
-      <c r="F75" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I75" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-      <c r="T75" s="50"/>
+      <c r="I75" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="56"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="76"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="50"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="56"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="76"/>
-      <c r="F77" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="G77" s="50"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="G77" s="56"/>
       <c r="H77" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="J77" s="49"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="49"/>
-      <c r="T77" s="50"/>
+        <v>105</v>
+      </c>
+      <c r="I77" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="56"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="76"/>
-      <c r="F78" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="G78" s="50"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78" s="56"/>
       <c r="H78" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="41"/>
+        <v>101</v>
+      </c>
+      <c r="I78" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="47"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="78"/>
-      <c r="F79" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="G79" s="41"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G79" s="47"/>
       <c r="H79" s="31" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
@@ -8784,174 +9568,174 @@
       <c r="T79" s="32"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="77"/>
-      <c r="F80" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="G80" s="85"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="91"/>
       <c r="H80" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="70"/>
+      <c r="S80" s="70"/>
+      <c r="T80" s="71"/>
+    </row>
+    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="59"/>
+      <c r="H81" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="58"/>
+      <c r="S81" s="58"/>
+      <c r="T81" s="59"/>
+    </row>
+    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="81"/>
+      <c r="F82" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="51"/>
+      <c r="H82" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="47"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="81"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="47"/>
+    </row>
+    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="82"/>
+      <c r="F84" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" s="63"/>
+      <c r="H84" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="63"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="82"/>
+      <c r="F85" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="66"/>
+      <c r="H85" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="65"/>
+      <c r="S85" s="65"/>
+      <c r="T85" s="66"/>
+    </row>
+    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="83"/>
+      <c r="F86" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" s="69"/>
+      <c r="H86" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I80" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="64"/>
-      <c r="Q80" s="64"/>
-      <c r="R80" s="64"/>
-      <c r="S80" s="64"/>
-      <c r="T80" s="65"/>
-    </row>
-    <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="53"/>
-      <c r="H81" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I81" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
-      <c r="T81" s="53"/>
-    </row>
-    <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="75"/>
-      <c r="F82" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="G82" s="45"/>
-      <c r="H82" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="I82" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="41"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="75"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="41"/>
-    </row>
-    <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="76"/>
-      <c r="F84" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="57"/>
-      <c r="H84" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I84" s="55" t="s">
+      <c r="I86" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="57"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="76"/>
-      <c r="F85" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="G85" s="60"/>
-      <c r="H85" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I85" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="60"/>
-    </row>
-    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="77"/>
-      <c r="F86" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="63"/>
-      <c r="H86" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I86" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="62"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="63"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="69"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9041,7 +9825,7 @@
   <dimension ref="C3:T11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9050,46 +9834,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -9119,24 +9903,24 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
+      <c r="E8" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
@@ -9144,24 +9928,24 @@
       </c>
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
+      <c r="E10" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
@@ -9182,58 +9966,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -9249,24 +10040,29 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9275,10 +10071,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AD9"/>
+  <dimension ref="B3:AD11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9308,348 +10104,340 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="110" t="s">
-        <v>237</v>
-      </c>
-      <c r="U3" s="99"/>
-      <c r="V3" s="102" t="s">
+      <c r="B3" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="W3" s="100"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="106" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="107"/>
+      <c r="K3" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="105"/>
+      <c r="V3" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="106"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
     </row>
     <row r="4" spans="2:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="V4" s="111" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" s="112"/>
-      <c r="X4" s="113"/>
+        <v>203</v>
+      </c>
+      <c r="V4" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="118"/>
+      <c r="X4" s="119"/>
       <c r="Y4" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>81</v>
+        <v>162</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="V5" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" s="104"/>
-      <c r="X5" s="105"/>
+        <v>202</v>
+      </c>
+      <c r="V5" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="110"/>
+      <c r="X5" s="111"/>
       <c r="Y5" s="22" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="Z5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="43">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>37.540004000000003</v>
-      </c>
-      <c r="F6" s="1">
-        <v>127.1231123</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="C6" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="43">
+        <v>37.539976000000003</v>
+      </c>
+      <c r="F6" s="43">
+        <v>127.122929</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="39">
         <v>0</v>
       </c>
-      <c r="J6" s="17">
-        <v>2</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="103">
-        <v>1</v>
-      </c>
-      <c r="W6" s="104"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="21">
+      <c r="C7" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="39">
         <v>3</v>
       </c>
-      <c r="J7" s="21">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="E7" s="1">
+        <v>37.540004000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>127.1231123</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="36"/>
       <c r="U7" s="37"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="V7" s="109">
         <v>1</v>
       </c>
-      <c r="AA7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>5</v>
-      </c>
+      <c r="W7" s="110"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>37.540762000000001</v>
+      <c r="C8" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="39">
+        <v>4</v>
+      </c>
+      <c r="E8" s="44">
+        <v>37.539909999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>127.12388799999999</v>
+        <v>127.123762</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>253</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="21">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="J8" s="21">
+        <v>6</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -9661,54 +10449,88 @@
       <c r="S8" s="1"/>
       <c r="T8" s="36"/>
       <c r="U8" s="37"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>37.540762000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>127.12388799999999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="21">
+        <v>7</v>
+      </c>
+      <c r="J9" s="39">
+        <v>11</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>37.540891000000002</v>
-      </c>
-      <c r="F9" s="1">
-        <v>127.12374699999999</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
       <c r="T9" s="36"/>
       <c r="U9" s="37"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="105"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="111"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -9716,11 +10538,69 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="39">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>37.540891000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>127.12374699999999</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="39">
+        <v>12</v>
+      </c>
+      <c r="J10" s="39">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="36">
+        <v>14</v>
+      </c>
+      <c r="U10" s="37">
+        <v>13</v>
+      </c>
+      <c r="V10" s="109"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V10:X10"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V4:X4"/>
@@ -9728,8 +10608,8 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="V6:X6"/>
     <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9740,10 +10620,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D59"/>
+  <dimension ref="B2:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9754,13 +10634,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -9768,10 +10648,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -9779,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -9790,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -9801,10 +10681,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -9812,10 +10692,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -9823,10 +10703,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -9834,10 +10714,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -9845,10 +10725,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -9856,10 +10736,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -9867,10 +10747,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -9878,10 +10758,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -9889,10 +10769,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -9900,10 +10780,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -9911,10 +10791,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -9922,10 +10802,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -9933,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -9944,10 +10824,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -9955,10 +10835,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -9966,10 +10846,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -9977,10 +10857,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -9988,10 +10868,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -9999,10 +10879,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -10010,10 +10890,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -10021,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -10032,10 +10912,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -10043,10 +10923,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -10054,10 +10934,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -10065,10 +10945,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -10076,10 +10956,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -10087,10 +10967,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -10098,10 +10978,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -10109,10 +10989,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -10120,10 +11000,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -10131,10 +11011,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -10142,10 +11022,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -10153,10 +11033,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -10164,10 +11044,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -10175,10 +11055,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -10186,10 +11066,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -10197,10 +11077,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -10208,10 +11088,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>203</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -10219,10 +11099,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>204</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -10230,10 +11110,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -10241,10 +11121,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -10252,10 +11132,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -10263,10 +11143,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -10274,10 +11154,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -10285,10 +11165,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -10296,10 +11176,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -10307,10 +11187,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -10318,10 +11198,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -10329,10 +11209,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -10340,10 +11220,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -10351,10 +11231,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -10362,10 +11242,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -10373,10 +11253,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -10384,10 +11264,945 @@
         <v>6</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="D59" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="28">
+        <v>7</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>221</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="28">
+        <v>7</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="28">
+        <v>7</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="28">
+        <v>7</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="28">
+        <v>7</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="28">
+        <v>7</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="28">
+        <v>7</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="28">
+        <v>8</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="28">
+        <v>8</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="28">
+        <v>8</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="28">
+        <v>8</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="28">
+        <v>8</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="28">
+        <v>8</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="28">
+        <v>8</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="28">
+        <v>8</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="28">
+        <v>8</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="28">
+        <v>8</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="28">
+        <v>8</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="28">
+        <v>8</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="28">
+        <v>8</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="28">
+        <v>8</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="28">
+        <v>8</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="28">
+        <v>9</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="28">
+        <v>9</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="28">
+        <v>9</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="28">
+        <v>9</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="28">
+        <v>9</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="28">
+        <v>9</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="28">
+        <v>9</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="28">
+        <v>9</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="28">
+        <v>10</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="28">
+        <v>10</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="28">
+        <v>10</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="28">
+        <v>10</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="28">
+        <v>10</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="28">
+        <v>10</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="28">
+        <v>10</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="28">
+        <v>10</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="28">
+        <v>10</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="28">
+        <v>10</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="28">
+        <v>10</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="28">
+        <v>11</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="28">
+        <v>11</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="28">
+        <v>12</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="28">
+        <v>12</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="28">
+        <v>12</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="28">
+        <v>12</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="28">
+        <v>12</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="28">
+        <v>12</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="28">
+        <v>12</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="28">
+        <v>12</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="28">
+        <v>12</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="28">
+        <v>12</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="28">
+        <v>12</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="28">
+        <v>12</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="28">
+        <v>12</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="28">
+        <v>12</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="28">
+        <v>12</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="28">
+        <v>12</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="28">
+        <v>12</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="28">
+        <v>12</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="28">
+        <v>12</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="28">
+        <v>13</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="28">
+        <v>13</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="28">
+        <v>13</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="28">
+        <v>13</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="28">
+        <v>13</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="28">
+        <v>14</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="28">
+        <v>14</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="28">
+        <v>14</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="28">
+        <v>14</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="28">
+        <v>14</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="28">
+        <v>14</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="28">
+        <v>14</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="28">
+        <v>15</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="28">
+        <v>15</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="28">
+        <v>15</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="28">
+        <v>15</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="28">
+        <v>15</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="28">
+        <v>15</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="28">
+        <v>15</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="28">
+        <v>15</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="28">
+        <v>15</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="28">
+        <v>15</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="28">
+        <v>15</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3003,45 +3003,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대사</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모션을</t>
+          <t>대사를</t>
         </r>
         <r>
           <rPr>
@@ -3285,45 +3247,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대사</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모션을</t>
+          <t>대사를</t>
         </r>
         <r>
           <rPr>
@@ -3576,45 +3500,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대사</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모션을</t>
+          <t>대사를</t>
         </r>
         <r>
           <rPr>
@@ -5196,7 +5082,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="385">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5489,187 +5375,587 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>choose_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_CharID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrsss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType4(캐릭터 대화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType3(특별 VPS 이벤트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 발생 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화랑 어린이 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 431-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_X/Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 다시 돌아간다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(민망함에 거짓말을 해버렸다…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은? 아직도 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… …저쪽에 말벌이 나타나서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 우리 첫 데이트잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…있잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 열심히 머리를 굴렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시… 새로 산 옷이야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한참을 망설이더니 조용히 말했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사를 진행하는 주체를 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T= 플레이어 / F = 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage 인덱스를 순서대로 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 산 옷이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bad_charID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char"sheet 중 ID 항목을 기입한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어가 첫번째 선택지를 선택했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType3(특별 VPS 이벤트) 가 활성화 될 때 10초 동안 출력되는 캐릭터 대사를 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 성공 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>date_3_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choose_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose1_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_CharID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrsss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>miniMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType4(캐릭터 대화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType3(특별 VPS 이벤트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 발생 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화랑 어린이 공원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 431-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트가 발생하는 좌표 X,Y 를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_X/Y</t>
+    <t>choose_1_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType2(캐릭터 대화) 가 활성화 될 때 첫번째 선택지의 텍스트 내용을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 실패 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새봄 약국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야 커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 천호2동 올림픽로 665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 특별시 강동구 올림픽로 663</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5677,15 +5963,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(근처에 있던 약국에 도착했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(두통이 다시 심해졌는지 하나의 표정이 좋지 않다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… ….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">미니맵에 표시 되는지 아닌지 판단한다. </t>
+    <t>하나야 여기 앉아서 기다려! 내가 얼른 약 사올게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5693,51 +5999,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모쏠인 나, 그리고 왜 나와 사귀어주는지 모르겠는 하나. 연애는 처음인데 잘 할 수 있을까? 하나의 기분을 잘 맞춰서 오늘 데이트를 성공하고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작/끝 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">캐릭터 기본 대사를 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 표정 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 모션 파일명을 기입한다(현재 보류 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
+    <t>붕대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5745,15 +6011,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">첫번째 선택지에 대한 하나의 취향 Type을 기재한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(약국에 들어가자마자 보인 붕대를 사서 나왔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(머리를 꽉 잡아주면 두통이 멈춘다는 글을 인터넷에서 본 것 같아!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(오늘은 내 여자친구 하나와의 첫 데이트…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하아아… ★연애는 처음인데★ 잘 해낼 수 있을까?)</t>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풉!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 진지하게 설명을 시작하자 하나가 작게 웃었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5761,6 +6051,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>하나야, 내가 인터넷에서 봤는데 붕대는 잘만 사용하면 두통부터 골절까지 만병통치약으로 사용할 수 있는….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러더니 한참을 즐겁게 웃었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5769,7 +6067,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(언제 다가왔는지 하나가 나무 뒤에서 나타났다.)</t>
+    <t>으, 응!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(진통제…! 난 약국에 들어가자마자 진통제를 사서 나왔다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5781,15 +6087,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(그 말을 듣자 가슴이 콩닥콩닥 뛰었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(편하게 웃는 하나의 얼굴을 보니 마음이 놓였다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(안약을 본 하나는 화를 참는 듯 입을 꾹 다물었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두통인 것 정도는 기억해주지….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(약을 먹은 하나는 두통이 가라앉았는지 근처의 카페에 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(우리는 금방 근처 카페에 도착했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나 다시 돌아간다?</t>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신, 음료는 내 맘대로 고른다?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5797,15 +6151,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(민망함에 거짓말을 해버렸다…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은? 아직도 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으,응! 지금은 저-기로 날아가고 없어!</t>
+    <t>자, 내가 추천하는 커피야. 빨리 마셔봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(복잡했던 주문에 비해 커피는 생각보다 금방 나왔다. 하나가 나에게 한 잔 내밀었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나의 재촉에 재빨리 마셔본 커피는 너무너무 뜨거웠지만…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나몬 향이 은은하게 퍼지는 부드러운 맛이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때? 네 취향일 것 같아서 사주고 싶었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치? 너 여전히 시나몬 좋아하는구나. 다행이다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5813,11 +6191,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>재미있는 사연을 적어두면 추첨을 통해 여행 상품권을 준대. 재밌겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>… …저쪽에 말벌이 나타나서…</t>
+    <t>(재미있어 보이긴 하지만… 딱히 쓸 말도 없고 귀찮기도 하고…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 포스트잇을 내려놓았다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5825,27 +6215,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(하나는 실망한 눈치였다. 이런걸… 좋아하는 건가..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(벽에 포스트잇을 붙이고 나니까 부끄러움이 몰려왔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateID_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알록달록한 포스트잇이 모여있으니까 너무 귀엽다~!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이러다 막 진짜로 당첨되면 어쩌지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※GPS오차 범위를 감안하여 ±3m를 오차 범위로 지정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(우리는 카페를 나섰다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 묻자 하나가 묘한 미소를 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘 우리 첫 데이트잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 하나가 걱정돼 집에 돌아가자고 했지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1</t>
+    <t>글쎄, 어떻게 알았을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내 오랜 친구들도 잘 모르는 사실인데…)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5853,7 +6283,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…있잖아.</t>
+    <t>(뭐, 앞으로 천천히 알아가면 되겠지.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5861,187 +6291,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(앞서 걸어가던 하나가 갑자기 우뚝 섰다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 열심히 머리를 굴렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 새로 산 옷을 알아달라는 것일까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시… 새로 산 옷이야…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 놀란 표정을 지었다가 이내 미소를 지었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 얼굴을 붉히며 고개를 돌렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러나 곧 입을 삐죽 내밀며 삐진 얼굴을 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러자 하나의 눈이 놀라움으로 커졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(원하는 대답이 아니었는지 잠시 어색한 침묵이 이어졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘 데이트라고 옷도 새로 샀는데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부끄러워서 말하지 못했지만… 다음엔 꼭 먼저 말해야겠다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(한참을 망설이더니 조용히 말했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사를 진행하는 주체를 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T= 플레이어 / F = 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage 인덱스를 순서대로 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">건물 실제 정보 中 한글 이름을 기입한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 산 옷이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>good_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">bad_charID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>good_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"char"sheet 중 ID 항목을 기입한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어가 첫번째 선택지를 선택했을 때 출력되는 캐릭터 대사/표정/모션을 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType3(특별 VPS 이벤트) 가 활성화 될 때 10초 동안 출력되는 캐릭터 대사를 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 성공 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
+    <t>(하나와의 연애는 이제 시작이니까…!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호동 문구완구거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 생각 해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것처럼 밝아졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마치 다른 세상에 온 것처럼…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야~ 내가 왔는데 멍때리기나 하고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 아냐! 그게 아니라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(너무 이뻐서 멍때리고 본 건데… 이런 부끄러운 말을 어떻게 해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 꺄악!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴… 다행이다. 큰일 날뻔했네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아? 어디 아픈 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침부터 두통이 조금 있었거든. 하지만 심한 건 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 그럼 오늘은 그냥 집에 가서 쉬는 게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐, 진짜 괜찮아! 집에 안 가도 괜찮아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나는 끝까지 심한 게 아니라며 고집을 부렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 설득 끝에 약국에 먼저 가자고 했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까는 말벌 때문에 정신이 없었다지만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 말도 안 해줄 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 알아볼 줄 알았는데, 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정답이었나보다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야, 못 보던 옷 같았거든… 잘 어울린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 잘 어울린단 말 듣고 싶었거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다음엔… 이, 이쁘다는 말부터 해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한 걸까…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안, 어디 불편했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 아니, 아니야. 그런 게 아니라….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 내가 말한 건… 그게… 그러니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭘 사갈까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(힘없이 웃는 하나를 뒤로 하고 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕대를… 사 온 거야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 황당한 얼굴로 붕대를 내려다봤다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 나 웃기려고 붕대로 사 온 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸하하하…!! 이렇게 황당하고 웃긴 적은 처음이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이렇게 웃어줄 줄은 몰랐지만 하나가 웃자 나도 기분이 좋았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하하… 아~ 정말 넌 재밌다니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 머리는 계속 아프니까 이번엔 제대로 진통제로 사 와줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 다시 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 내가 사 온 약을 바로 먹고 안심한 표정을 지었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워. 이렇게 빨리 사다 주다니. 그렇게 빨리 뛰어가는 건 처음 봤어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야. 또…필요한 거 있으면 언제든 말해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어. 이제 무슨 일 있어도 네가 있으니까 안심된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그래도 이번 데이트.. 꽤 잘하고 있는 게 아닐까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 약국에 뛰어 들어가서… 어라, 뭘 사려고 했더라?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(에라이, 이거라도 사 가자!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아무거나 집어서 사 온 것은…안약이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안약을… 사 온 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하…있잖아 정신없이 약국에 들어갔더니 아무것도 기억이 안 나는 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 아무거나 집어 왔더니…웃기지? 하하하하하하하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런, 기분이 많이 안 좋아 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안미안~ 이번엔 꼭 잊지 말고! 두통약으로 사 올게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 다시 진통제를 사러 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아파도 이번에 나온 신메뉴를 꼭 먹어야 한다면서…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국에서 약 사다 줬으니까 이번엔 내가 살게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 대답도 하기 전에 하나는 계산대로 갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(길고 복잡하고 난생처음 보는 커피 이름이 지나갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 마법 주문을 외우는 건지 커피를 주문하는 건지…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와 정말 맛있다…! 이런 커피는 처음 마셔봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(응…? 그런데 내가 하나한테 시나몬 좋아한다고 말한 적이 있던가…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와, 여기 봐! 카페에서 이벤트 중인가 봐…! 우리도 참여하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고민 중이던 나를 하나는 한쪽 벽으로 이끌었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그곳엔 포스트잇이 잔뜩 붙어있었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨될 확률도 낮을 텐데… 굳이 참여할 필요가 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래…? 그래도 재밌어 보이는데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런 바보 같은 이벤트에 참여하다니. 당첨될 확률도 거의 없는데…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~ 오랜만에 여행 떠나고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 어딜 여행 가고 싶은지 즐겁게 떠들기 시작했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(바보 같은 이벤트지만 하나의 이런 모습을 볼 수 있다면 참여할 가치가 있었는걸...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데… 하나야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 왜 불러?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 시나몬 좋아한다는 건 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 알려주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(벙찐 표정의 내가 웃긴 건지 하나는 알려줄 생각이 없어 보였다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6049,683 +6611,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choose_1_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType2(캐릭터 대화) 가 활성화 될 때 첫번째 선택지의 텍스트 내용을 기입한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"char"sheet 중 ID 항목을 기입한다. dateType2(방명록 이벤트) 실패 시 출력 되는 캐릭터 대사/표정/모션을 지정한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새봄 약국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이디야 커피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 천호2동 올림픽로 665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 특별시 강동구 올림픽로 663</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(근처에 있던 약국에 도착했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(두통이 다시 심해졌는지 하나의 표정이 좋지 않다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>… ….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나야 여기 앉아서 기다려! 내가 얼른 약 사올게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붕대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫번째 선택지에 대한 하나의 취향 Type을 기재한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(약국에 들어가자마자 보인 붕대를 사서 나왔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(머리를 꽉 잡아주면 두통이 멈춘다는 글을 인터넷에서 본 것 같아!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풉!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내가 진지하게 설명을 시작하자 하나가 작게 웃었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나야, 내가 인터넷에서 봤는데 붕대는 잘만 사용하면 두통부터 골절까지 만병통치약으로 사용할 수 있는….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러더니 한참을 즐겁게 웃었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으, 응!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진통제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(진통제…! 난 약국에 들어가자마자 진통제를 사서 나왔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그 말을 듣자 가슴이 콩닥콩닥 뛰었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(편하게 웃는 하나의 얼굴을 보니 마음이 놓였다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(안약을 본 하나는 화를 참는 듯 입을 꾹 다물었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두통인 것 정도는 기억해주지….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(약을 먹은 하나는 두통이 가라앉았는지 근처의 카페에 가자고 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(우리는 금방 근처 카페에 도착했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신, 음료는 내 맘대로 고른다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자, 내가 추천하는 커피야. 빨리 마셔봐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(복잡했던 주문에 비해 커피는 생각보다 금방 나왔다. 하나가 나에게 한 잔 내밀었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나의 재촉에 재빨리 마셔본 커피는 너무너무 뜨거웠지만…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나몬 향이 은은하게 퍼지는 부드러운 맛이었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어때? 네 취향일 것 같아서 사주고 싶었어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그치? 너 여전히 시나몬 좋아하는구나. 다행이다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미있는 사연을 적어두면 추첨을 통해 여행 상품권을 준대. 재밌겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(재미있어 보이긴 하지만… 딱히 쓸 말도 없고 귀찮기도 하고…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나는 포스트잇을 내려놓았다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 실망한 눈치였다. 이런걸… 좋아하는 건가..?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(벽에 포스트잇을 붙이고 나니까 부끄러움이 몰려왔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateID_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알록달록한 포스트잇이 모여있으니까 너무 귀엽다~!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이러다 막 진짜로 당첨되면 어쩌지? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※GPS오차 범위를 감안하여 ±3m를 오차 범위로 지정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(우리는 카페를 나섰다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내가 묻자 하나가 묘한 미소를 지었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쎄, 어떻게 알았을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀~!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내 오랜 친구들도 잘 모르는 사실인데…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뭐, 앞으로 천천히 알아가면 되겠지.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나와의 연애는 이제 시작이니까…!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천호동 문구완구거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올림픽로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 생각 해?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 나타나자 마치 주변에 꽃이 새로 태어나고 새가 지저귀고 온 세상이 빛을 찾은 것처럼 밝아졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(마치 다른 세상에 온 것처럼…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야~ 내가 왔는데 멍때리기나 하고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐 아냐! 그게 아니라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(너무 이뻐서 멍때리고 본 건데… 이런 부끄러운 말을 어떻게 해!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 꺄악!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴… 다행이다. 큰일 날뻔했네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨리 가자 저쪽에 새로 오픈한…윽!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 갑자기 얼굴을 찡그리며 비틀거렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아? 어디 아픈 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침부터 두통이 조금 있었거든. 하지만 심한 건 아니야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 그럼 오늘은 그냥 집에 가서 쉬는 게…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐, 진짜 괜찮아! 집에 안 가도 괜찮아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나는 끝까지 심한 게 아니라며 고집을 부렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 설득 끝에 약국에 먼저 가자고 했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까는 말벌 때문에 정신이 없었다지만…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 말도 안 해줄 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응…? (내가 뭔가 말해주기로 했었나?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(오늘 하나가 입은 옷은 평소에 입던 옷이랑 조금 달랐다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못 알아볼 줄 알았는데, 어떻게 알았어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정답이었나보다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그야, 못 보던 옷 같았거든… 잘 어울린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워. 잘 어울린단 말 듣고 싶었거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 다음엔… 이, 이쁘다는 말부터 해줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(혹시 어딘가 불편한가…? 내가 눈치채지 못한 걸까…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안, 어디 불편했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐? 아니, 아니야. 그런 게 아니라….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 내가 말한 건… 그게… 그러니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀, 귀엽다고 한마디 정도는 해줄 수 있잖아…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 그렇게 말한 뒤 부끄러운지 앞으로 성큼성큼 걸어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뭘 사갈까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(힘없이 웃는 하나를 뒤로 하고 약국으로 뛰어 들어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붕대를… 사 온 거야…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 황당한 얼굴로 붕대를 내려다봤다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설마 나 웃기려고 붕대로 사 온 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸하하하…!! 이렇게 황당하고 웃긴 적은 처음이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이렇게 웃어줄 줄은 몰랐지만 하나가 웃자 나도 기분이 좋았다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하하하… 아~ 정말 넌 재밌다니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 머리는 계속 아프니까 이번엔 제대로 진통제로 사 와줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(난 다시 약국으로 뛰어 들어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 내가 사 온 약을 바로 먹고 안심한 표정을 지었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워. 이렇게 빨리 사다 주다니. 그렇게 빨리 뛰어가는 건 처음 봤어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니야. 또…필요한 거 있으면 언제든 말해줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알았어. 이제 무슨 일 있어도 네가 있으니까 안심된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그래도 이번 데이트.. 꽤 잘하고 있는 게 아닐까?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나는 약국에 뛰어 들어가서… 어라, 뭘 사려고 했더라?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(에라이, 이거라도 사 가자!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아무거나 집어서 사 온 것은…안약이었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안약을… 사 온 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하하…있잖아 정신없이 약국에 들어갔더니 아무것도 기억이 안 나는 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 아무거나 집어 왔더니…웃기지? 하하하하하하하하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이런, 기분이 많이 안 좋아 보인다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안미안~ 이번엔 꼭 잊지 말고! 두통약으로 사 올게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나는 다시 진통제를 사러 약국으로 뛰어 들어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아파도 이번에 나온 신메뉴를 꼭 먹어야 한다면서…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약국에서 약 사다 줬으니까 이번엔 내가 살게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내가 대답도 하기 전에 하나는 계산대로 갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(길고 복잡하고 난생처음 보는 커피 이름이 지나갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이건 마법 주문을 외우는 건지 커피를 주문하는 건지…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우와 정말 맛있다…! 이런 커피는 처음 마셔봐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(응…? 그런데 내가 하나한테 시나몬 좋아한다고 말한 적이 있던가…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와, 여기 봐! 카페에서 이벤트 중인가 봐…! 우리도 참여하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(고민 중이던 나를 하나는 한쪽 벽으로 이끌었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그곳엔 포스트잇이 잔뜩 붙어있었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨될 확률도 낮을 텐데… 굳이 참여할 필요가 있을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래…? 그래도 재밌어 보이는데….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이런 바보 같은 이벤트에 참여하다니. 당첨될 확률도 거의 없는데…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아~ 오랜만에 여행 떠나고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 어딜 여행 가고 싶은지 즐겁게 떠들기 시작했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(바보 같은 이벤트지만 하나의 이런 모습을 볼 수 있다면 참여할 가치가 있었는걸...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데… 하나야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응? 왜 불러?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 시나몬 좋아한다는 건 어떻게 알았어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안 알려주는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(벙찐 표정의 내가 웃긴 건지 하나는 알려줄 생각이 없어 보였다.)</t>
+    <t>시작/종료 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 공백란은 없음을 뜻함 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7731,41 +7625,26 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -7776,61 +7655,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7854,16 +7700,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7875,28 +7727,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7911,16 +7805,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7932,16 +7820,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7954,6 +7839,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8299,45 +8193,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>319928</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>225660</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>568513</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>21192</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>535648</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>49771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E5C926-0BE4-4E1B-A76F-9FA9E5CD32BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1003487" y="3475366"/>
-          <a:ext cx="11513858" cy="9219679"/>
+          <a:off x="1591236" y="4078942"/>
+          <a:ext cx="12088912" cy="7344800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8651,10 +8534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:V87"/>
+  <dimension ref="C2:V88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8664,50 +8547,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -8921,136 +8804,136 @@
       </c>
     </row>
     <row r="50" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73" t="s">
+      <c r="F50" s="59"/>
+      <c r="G50" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="73"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="99" t="s">
+      <c r="E51" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="60" t="s">
+      <c r="F51" s="58"/>
+      <c r="G51" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="99" t="s">
+      <c r="E52" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="99"/>
-      <c r="G52" s="60" t="s">
+      <c r="F52" s="58"/>
+      <c r="G52" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="99" t="s">
+      <c r="E53" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="99"/>
-      <c r="G53" s="60" t="s">
+      <c r="F53" s="58"/>
+      <c r="G53" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="99"/>
-      <c r="G54" s="60" t="s">
+      <c r="E54" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="58"/>
+      <c r="G54" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="82"/>
+      <c r="T54" s="82"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="99" t="s">
+      <c r="E55" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="99"/>
-      <c r="G55" s="60" t="s">
+      <c r="F55" s="58"/>
+      <c r="G55" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="82"/>
+      <c r="T55" s="82"/>
     </row>
     <row r="57" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
@@ -9061,499 +8944,499 @@
       <c r="E58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="85" t="s">
+      <c r="F58" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="86"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="51"/>
+    </row>
+    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="54"/>
+      <c r="H59" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="96"/>
-      <c r="T58" s="86"/>
-    </row>
-    <row r="59" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="59"/>
-      <c r="H59" s="14" t="s">
+      <c r="I59" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="54"/>
+    </row>
+    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="67"/>
+      <c r="F60" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
+      <c r="S60" s="81"/>
+      <c r="T60" s="63"/>
+    </row>
+    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="57"/>
+      <c r="H61" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="I59" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="59"/>
-    </row>
-    <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="83"/>
-      <c r="F60" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="79"/>
-      <c r="H60" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78"/>
-      <c r="T60" s="79"/>
-    </row>
-    <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="76"/>
-      <c r="H61" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="I61" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="J61" s="98"/>
-      <c r="K61" s="98"/>
-      <c r="L61" s="98"/>
-      <c r="M61" s="98"/>
-      <c r="N61" s="98"/>
-      <c r="O61" s="98"/>
-      <c r="P61" s="98"/>
-      <c r="Q61" s="98"/>
-      <c r="R61" s="98"/>
-      <c r="S61" s="98"/>
-      <c r="T61" s="76"/>
+      <c r="I61" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="57"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="82"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="54" t="s">
+      <c r="E62" s="66"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="48"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="82"/>
-      <c r="F63" s="74" t="s">
+      <c r="E63" s="66"/>
+      <c r="F63" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="54" t="s">
+      <c r="G63" s="48"/>
+      <c r="H63" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="56"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="48"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="82"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="54" t="s">
+      <c r="E64" s="66"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="94"/>
+      <c r="I64" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="48"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="82"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="48"/>
+    </row>
+    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="66"/>
+      <c r="F66" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="48"/>
+      <c r="H66" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I65" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="56"/>
-    </row>
-    <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="82"/>
-      <c r="F66" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" s="56"/>
-      <c r="H66" s="15" t="s">
+      <c r="I66" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="48"/>
+    </row>
+    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="66"/>
+      <c r="F67" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="48"/>
+      <c r="H67" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="48"/>
+    </row>
+    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="66"/>
+      <c r="F68" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="48"/>
+      <c r="H68" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="48"/>
+    </row>
+    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="66"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="48"/>
+    </row>
+    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="66"/>
+      <c r="F70" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="48"/>
+      <c r="H70" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="48"/>
+    </row>
+    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="66"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="89"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="89"/>
+      <c r="P71" s="89"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="89"/>
+      <c r="S71" s="89"/>
+      <c r="T71" s="90"/>
+    </row>
+    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="66"/>
+      <c r="F72" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="48"/>
+      <c r="H72" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I72" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="48"/>
+    </row>
+    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="66"/>
+      <c r="F73" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="48"/>
+      <c r="H73" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="48"/>
+    </row>
+    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="66"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="48"/>
+    </row>
+    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="66"/>
+      <c r="F75" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="48"/>
+      <c r="H75" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="I66" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="56"/>
-    </row>
-    <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="82"/>
-      <c r="F67" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="56"/>
-      <c r="H67" s="15" t="s">
+      <c r="I75" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="48"/>
+    </row>
+    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="66"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="48"/>
+    </row>
+    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="66"/>
+      <c r="F77" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="48"/>
+      <c r="H77" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I67" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="56"/>
-    </row>
-    <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="82"/>
-      <c r="F68" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="56"/>
-      <c r="H68" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="I68" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
-    </row>
-    <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="82"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="56"/>
-    </row>
-    <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="82"/>
-      <c r="F70" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" s="56"/>
-      <c r="H70" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="I70" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="56"/>
-    </row>
-    <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="82"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="47"/>
-    </row>
-    <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="82"/>
-      <c r="F72" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="56"/>
-      <c r="H72" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I72" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="56"/>
-    </row>
-    <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="82"/>
-      <c r="F73" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="56"/>
-      <c r="H73" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="56"/>
-    </row>
-    <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="82"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="56"/>
-    </row>
-    <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="82"/>
-      <c r="F75" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="56"/>
-      <c r="H75" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I75" s="54" t="s">
+      <c r="I77" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="61"/>
+      <c r="T77" s="48"/>
+    </row>
+    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="66"/>
+      <c r="F78" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" s="48"/>
+      <c r="H78" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="89"/>
+      <c r="M78" s="89"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="89"/>
+      <c r="P78" s="89"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
+      <c r="T78" s="90"/>
+    </row>
+    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="68"/>
+      <c r="F79" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" s="90"/>
+      <c r="H79" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="56"/>
-    </row>
-    <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="82"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="54" t="s">
+      <c r="I79" s="38" t="s">
         <v>208</v>
-      </c>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="56"/>
-    </row>
-    <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="82"/>
-      <c r="F77" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="G77" s="56"/>
-      <c r="H77" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I77" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="56"/>
-    </row>
-    <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="82"/>
-      <c r="F78" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="G78" s="56"/>
-      <c r="H78" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I78" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="47"/>
-    </row>
-    <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="84"/>
-      <c r="F79" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="I79" s="38" t="s">
-        <v>210</v>
       </c>
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
@@ -9568,178 +9451,239 @@
       <c r="T79" s="32"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="83"/>
-      <c r="F80" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="91"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" s="77"/>
       <c r="H80" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I80" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="I80" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="92"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="80" t="s">
+      <c r="E81" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="92" t="s">
+      <c r="F81" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="59"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I81" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="58"/>
-      <c r="S81" s="58"/>
-      <c r="T81" s="59"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="53"/>
+      <c r="P81" s="53"/>
+      <c r="Q81" s="53"/>
+      <c r="R81" s="53"/>
+      <c r="S81" s="53"/>
+      <c r="T81" s="54"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="81"/>
-      <c r="F82" s="50" t="s">
+      <c r="E82" s="65"/>
+      <c r="F82" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="G82" s="98"/>
+      <c r="H82" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="I82" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="G82" s="51"/>
-      <c r="H82" s="48" t="s">
+      <c r="J82" s="89"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="89"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="89"/>
+      <c r="Q82" s="89"/>
+      <c r="R82" s="89"/>
+      <c r="S82" s="89"/>
+      <c r="T82" s="90"/>
+    </row>
+    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="65"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="I82" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="47"/>
-    </row>
-    <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="81"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="46"/>
-      <c r="T83" s="47"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="89"/>
+      <c r="Q83" s="89"/>
+      <c r="R83" s="89"/>
+      <c r="S83" s="89"/>
+      <c r="T83" s="90"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="82"/>
-      <c r="F84" s="87" t="s">
+      <c r="E84" s="66"/>
+      <c r="F84" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="71"/>
+      <c r="H84" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="84"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="84"/>
+      <c r="Q84" s="84"/>
+      <c r="R84" s="84"/>
+      <c r="S84" s="84"/>
+      <c r="T84" s="71"/>
+    </row>
+    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="66"/>
+      <c r="F85" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="73"/>
+      <c r="H85" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I85" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="J85" s="86"/>
+      <c r="K85" s="86"/>
+      <c r="L85" s="86"/>
+      <c r="M85" s="86"/>
+      <c r="N85" s="86"/>
+      <c r="O85" s="86"/>
+      <c r="P85" s="86"/>
+      <c r="Q85" s="86"/>
+      <c r="R85" s="86"/>
+      <c r="S85" s="86"/>
+      <c r="T85" s="73"/>
+    </row>
+    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="67"/>
+      <c r="F86" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="G84" s="63"/>
-      <c r="H84" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I84" s="61" t="s">
+      <c r="G86" s="75"/>
+      <c r="H86" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I86" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="63"/>
-    </row>
-    <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="82"/>
-      <c r="F85" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="G85" s="66"/>
-      <c r="H85" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I85" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="65"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="65"/>
-      <c r="S85" s="65"/>
-      <c r="T85" s="66"/>
-    </row>
-    <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="83"/>
-      <c r="F86" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="G86" s="69"/>
-      <c r="H86" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I86" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="68"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="69"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="88"/>
+      <c r="N86" s="88"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="88"/>
+      <c r="Q86" s="88"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="88"/>
+      <c r="T86" s="75"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="7" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="F82:G83"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I81:T81"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="G50:T50"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E80"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F68:G69"/>
     <mergeCell ref="I58:T58"/>
@@ -9756,62 +9700,6 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="E81:E86"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E80"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="G50:T50"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="F82:G83"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I81:T81"/>
-    <mergeCell ref="F79:G79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9824,8 +9712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9834,46 +9722,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -9904,7 +9792,7 @@
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="101"/>
       <c r="G8" s="101"/>
@@ -9929,7 +9817,7 @@
     </row>
     <row r="10" spans="3:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="101"/>
@@ -9986,42 +9874,42 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -10073,8 +9961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10104,216 +9992,216 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="114" t="s">
+      <c r="B3" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="108" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="J3" s="118"/>
+      <c r="K3" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="112" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="U3" s="112"/>
+      <c r="V3" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
     </row>
     <row r="4" spans="2:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="I4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="L4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="O4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="S4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="115"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" s="118"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="AC4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="V5" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="W5" s="110"/>
-      <c r="X5" s="111"/>
+        <v>200</v>
+      </c>
+      <c r="V5" s="107" t="s">
+        <v>381</v>
+      </c>
+      <c r="W5" s="108"/>
+      <c r="X5" s="109"/>
       <c r="Y5" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:30" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -10321,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="43">
@@ -10331,14 +10219,14 @@
         <v>127.122929</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H6" s="39"/>
-      <c r="I6" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="39">
+      <c r="I6" s="39">
         <v>0</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>382</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="39"/>
@@ -10366,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="39">
         <v>3</v>
@@ -10378,13 +10266,13 @@
         <v>127.1231123</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="I7" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J7" s="17">
         <v>2</v>
@@ -10400,11 +10288,11 @@
       <c r="S7" s="17"/>
       <c r="T7" s="36"/>
       <c r="U7" s="37"/>
-      <c r="V7" s="109">
+      <c r="V7" s="107">
         <v>1</v>
       </c>
-      <c r="W7" s="110"/>
-      <c r="X7" s="111"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="109"/>
       <c r="Y7" s="22"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
@@ -10417,7 +10305,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="39">
         <v>4</v>
@@ -10429,7 +10317,7 @@
         <v>127.123762</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="21">
@@ -10449,11 +10337,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="36"/>
       <c r="U8" s="37"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="111"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="109"/>
       <c r="Y8" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z8" s="1">
         <v>1</v>
@@ -10462,7 +10350,7 @@
         <v>4</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AC8" s="1">
         <v>2</v>
@@ -10476,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="39">
         <v>1</v>
@@ -10488,10 +10376,10 @@
         <v>127.12388799999999</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I9" s="21">
         <v>7</v>
@@ -10500,7 +10388,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -10509,7 +10397,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -10518,7 +10406,7 @@
         <v>9</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
@@ -10528,9 +10416,9 @@
       </c>
       <c r="T9" s="36"/>
       <c r="U9" s="37"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="111"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="109"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -10543,7 +10431,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="39">
         <v>2</v>
@@ -10555,10 +10443,10 @@
         <v>127.12374699999999</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I10" s="39">
         <v>12</v>
@@ -10581,9 +10469,9 @@
       <c r="U10" s="37">
         <v>13</v>
       </c>
-      <c r="V10" s="109"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="109"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -10593,11 +10481,16 @@
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="V10:X10"/>
@@ -10605,11 +10498,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="V5:X5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V8:X8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10623,7 +10511,7 @@
   <dimension ref="B2:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10634,13 +10522,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -10648,10 +10536,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -10659,10 +10547,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -10670,10 +10558,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -10681,10 +10569,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -10692,10 +10580,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -10703,10 +10591,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -10714,10 +10602,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -10725,10 +10613,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -10736,10 +10624,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -10747,10 +10635,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -10758,10 +10646,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -10769,10 +10657,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -10780,10 +10668,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -10791,10 +10679,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -10802,10 +10690,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -10813,10 +10701,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -10824,10 +10712,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -10835,10 +10723,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -10846,10 +10734,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -10857,10 +10745,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -10868,10 +10756,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -10879,10 +10767,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -10890,10 +10778,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -10901,10 +10789,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -10912,10 +10800,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -10923,10 +10811,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -10934,10 +10822,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -10945,10 +10833,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -10956,10 +10844,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
@@ -10967,10 +10855,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -10978,10 +10866,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -10989,10 +10877,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -11000,10 +10888,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -11011,10 +10899,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -11022,10 +10910,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -11033,10 +10921,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -11044,10 +10932,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -11055,10 +10943,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -11066,10 +10954,10 @@
         <v>4</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -11077,10 +10965,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -11088,10 +10976,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -11099,10 +10987,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -11110,10 +10998,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -11121,10 +11009,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -11132,10 +11020,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -11143,10 +11031,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -11154,10 +11042,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -11165,10 +11053,10 @@
         <v>5</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -11176,10 +11064,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -11187,10 +11075,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -11198,10 +11086,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -11209,10 +11097,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -11220,10 +11108,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -11231,10 +11119,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -11242,10 +11130,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -11253,10 +11141,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -11264,10 +11152,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -11275,10 +11163,10 @@
         <v>7</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -11286,10 +11174,10 @@
         <v>7</v>
       </c>
       <c r="C61" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -11297,10 +11185,10 @@
         <v>7</v>
       </c>
       <c r="C62" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -11308,10 +11196,10 @@
         <v>7</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -11319,10 +11207,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -11330,10 +11218,10 @@
         <v>7</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -11341,10 +11229,10 @@
         <v>7</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -11352,10 +11240,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>233</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -11363,10 +11251,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -11374,10 +11262,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -11385,10 +11273,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -11396,10 +11284,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
@@ -11407,10 +11295,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -11418,10 +11306,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -11429,10 +11317,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -11440,10 +11328,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -11451,10 +11339,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
@@ -11462,10 +11350,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -11473,10 +11361,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -11484,10 +11372,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -11495,10 +11383,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -11506,10 +11394,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -11517,10 +11405,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
@@ -11528,10 +11416,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
@@ -11539,10 +11427,10 @@
         <v>9</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
@@ -11550,10 +11438,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -11561,10 +11449,10 @@
         <v>9</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -11572,10 +11460,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -11583,10 +11471,10 @@
         <v>9</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -11594,10 +11482,10 @@
         <v>9</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
@@ -11605,10 +11493,10 @@
         <v>10</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
@@ -11616,10 +11504,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
@@ -11627,10 +11515,10 @@
         <v>10</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
@@ -11638,10 +11526,10 @@
         <v>10</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -11649,10 +11537,10 @@
         <v>10</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
@@ -11660,10 +11548,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -11671,10 +11559,10 @@
         <v>10</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -11682,10 +11570,10 @@
         <v>10</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -11693,10 +11581,10 @@
         <v>10</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -11704,10 +11592,10 @@
         <v>10</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -11715,10 +11603,10 @@
         <v>10</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
@@ -11726,10 +11614,10 @@
         <v>11</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
@@ -11737,10 +11625,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
@@ -11748,10 +11636,10 @@
         <v>12</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
@@ -11759,10 +11647,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -11770,10 +11658,10 @@
         <v>12</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -11781,10 +11669,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -11792,10 +11680,10 @@
         <v>12</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -11803,10 +11691,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -11814,10 +11702,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
@@ -11825,10 +11713,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
@@ -11836,10 +11724,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
@@ -11847,10 +11735,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D112" s="28" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -11858,10 +11746,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
@@ -11869,10 +11757,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -11880,10 +11768,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
@@ -11891,10 +11779,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
@@ -11902,10 +11790,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
@@ -11913,10 +11801,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
@@ -11924,10 +11812,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -11935,10 +11823,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -11946,10 +11834,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
@@ -11957,10 +11845,10 @@
         <v>13</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
@@ -11968,10 +11856,10 @@
         <v>13</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
@@ -11979,10 +11867,10 @@
         <v>13</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
@@ -11990,10 +11878,10 @@
         <v>13</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
@@ -12001,10 +11889,10 @@
         <v>13</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
@@ -12012,10 +11900,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
@@ -12023,10 +11911,10 @@
         <v>14</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
@@ -12034,10 +11922,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
@@ -12045,10 +11933,10 @@
         <v>14</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
@@ -12056,10 +11944,10 @@
         <v>14</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -12067,10 +11955,10 @@
         <v>14</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
@@ -12078,10 +11966,10 @@
         <v>14</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
@@ -12089,10 +11977,10 @@
         <v>15</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
@@ -12100,10 +11988,10 @@
         <v>15</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
@@ -12111,10 +11999,10 @@
         <v>15</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
@@ -12122,10 +12010,10 @@
         <v>15</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -12133,10 +12021,10 @@
         <v>15</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
@@ -12144,10 +12032,10 @@
         <v>15</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
@@ -12155,10 +12043,10 @@
         <v>15</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
@@ -12166,10 +12054,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
@@ -12177,10 +12065,10 @@
         <v>15</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
@@ -12188,10 +12076,10 @@
         <v>15</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -12199,10 +12087,10 @@
         <v>15</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221016_스테이지 기획서_V100.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V100.xlsx
@@ -7625,26 +7625,41 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -7655,28 +7670,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7700,22 +7748,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7727,70 +7769,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7805,10 +7805,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7820,13 +7826,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7839,15 +7848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8194,19 +8194,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
+      <xdr:colOff>672353</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>535648</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>49771</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>509691</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>283966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8219,8 +8219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1591236" y="4078942"/>
-          <a:ext cx="12088912" cy="7344800"/>
+          <a:off x="2196353" y="4045324"/>
+          <a:ext cx="10774279" cy="7287642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8536,9 +8536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.open